--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0918D294-CADC-4760-840A-5981629C00AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6712A004-986A-4C9E-AB04-EAFB12FD3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="3" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10402" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10459" uniqueCount="698">
   <si>
     <t>Edição</t>
   </si>
@@ -2156,13 +2156,28 @@
   </si>
   <si>
     <t>é_solstício_inverno</t>
+  </si>
+  <si>
+    <t>p_normatizar</t>
+  </si>
+  <si>
+    <t>é_norma</t>
+  </si>
+  <si>
+    <t>é_parte</t>
+  </si>
+  <si>
+    <t>é_escopo</t>
+  </si>
+  <si>
+    <t>é_regulamento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2238,8 +2253,15 @@
       <name val="Arial Nova Cond"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="6"/>
+      <color rgb="FF757171"/>
+      <name val="Arial Nova Cond Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2402,6 +2424,54 @@
         <bgColor rgb="FFD1D1D1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2467,7 +2537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2720,11 +2790,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2768,16 +2893,6 @@
         <strike val="0"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5969,11 +6084,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDFF997-1BF1-48C9-8D68-02CDA7098ABF}">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10809,11 +10924,11 @@
         <v>244</v>
       </c>
       <c r="F66" s="15" t="str">
-        <f t="shared" ref="F66:F81" si="17">_xlfn.CONCAT("d_",MID(C66,FIND("_",C66,1)+1,100))</f>
+        <f t="shared" ref="F66:F85" si="17">_xlfn.CONCAT("d_",MID(C66,FIND("_",C66,1)+1,100))</f>
         <v>d_durar</v>
       </c>
       <c r="G66" s="15" t="str">
-        <f t="shared" ref="G66:G81" si="18">MID(D66,FIND("_",D66,1)+1,100)</f>
+        <f t="shared" ref="G66:G85" si="18">MID(D66,FIND("_",D66,1)+1,100)</f>
         <v>data_final</v>
       </c>
       <c r="H66" s="16" t="s">
@@ -10856,7 +10971,7 @@
         <v>317</v>
       </c>
       <c r="U66" s="18" t="str">
-        <f t="shared" ref="U66:U129" si="19">_xlfn.CONCAT("Propriedade para ",MID(C66,FIND("p_",C66,1)+2,100),": ",D66)</f>
+        <f t="shared" ref="U66:U85" si="19">_xlfn.CONCAT("Propriedade para ",MID(C66,FIND("p_",C66,1)+2,100),": ",D66)</f>
         <v>Propriedade para durar: tem_data_final</v>
       </c>
       <c r="V66" s="18" t="str">
@@ -10934,7 +11049,7 @@
         <v>Propriedade para durar: tem_horário</v>
       </c>
       <c r="V67" s="18" t="str">
-        <f t="shared" ref="V67:V81" si="20">_xlfn.CONCAT("Dado para ",MID(F67,FIND("d_",F67,1)+2,100),": ",G67, " ( ",H67, " ) ")</f>
+        <f t="shared" ref="V67:V85" si="20">_xlfn.CONCAT("Dado para ",MID(F67,FIND("d_",F67,1)+2,100),": ",G67, " ( ",H67, " ) ")</f>
         <v xml:space="preserve">Dado para durar: horário ( xsd:dateTime ) </v>
       </c>
     </row>
@@ -11460,7 +11575,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="60" t="str">
-        <f t="shared" ref="B75:B81" si="23">B70</f>
+        <f t="shared" ref="B75:B85" si="23">B70</f>
         <v>BIMProp</v>
       </c>
       <c r="C75" s="61" t="s">
@@ -11972,26 +12087,330 @@
         <v xml:space="preserve">Dado para acontecer: solstício_inverno ( xsd:dateTime ) </v>
       </c>
     </row>
+    <row r="82" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="86">
+        <v>82</v>
+      </c>
+      <c r="B82" s="87" t="str">
+        <f t="shared" si="23"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C82" s="88" t="s">
+        <v>693</v>
+      </c>
+      <c r="D82" s="89" t="s">
+        <v>694</v>
+      </c>
+      <c r="E82" s="90" t="str">
+        <f t="shared" ref="E82:E85" si="25">E81</f>
+        <v>BIMData</v>
+      </c>
+      <c r="F82" s="91" t="str">
+        <f t="shared" si="17"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G82" s="91" t="str">
+        <f t="shared" si="18"/>
+        <v>norma</v>
+      </c>
+      <c r="H82" s="92" t="s">
+        <v>245</v>
+      </c>
+      <c r="I82" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="N82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="O82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="P82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="R82" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="S82" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="T82" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="U82" s="95" t="str">
+        <f t="shared" si="19"/>
+        <v>Propriedade para normatizar: é_norma</v>
+      </c>
+      <c r="V82" s="95" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">Dado para normatizar: norma ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="86">
+        <v>83</v>
+      </c>
+      <c r="B83" s="87" t="str">
+        <f t="shared" si="23"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C83" s="96" t="str">
+        <f>C82</f>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D83" s="97" t="s">
+        <v>695</v>
+      </c>
+      <c r="E83" s="90" t="str">
+        <f t="shared" si="25"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F83" s="98" t="str">
+        <f t="shared" si="17"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G83" s="98" t="str">
+        <f t="shared" si="18"/>
+        <v>parte</v>
+      </c>
+      <c r="H83" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="I83" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="M83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="N83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="O83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="P83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="R83" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="S83" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="T83" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="U83" s="95" t="str">
+        <f t="shared" si="19"/>
+        <v>Propriedade para normatizar: é_parte</v>
+      </c>
+      <c r="V83" s="95" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">Dado para normatizar: parte ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="86">
+        <v>84</v>
+      </c>
+      <c r="B84" s="87" t="str">
+        <f t="shared" si="23"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C84" s="96" t="str">
+        <f t="shared" ref="C84:C85" si="26">C83</f>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D84" s="97" t="s">
+        <v>696</v>
+      </c>
+      <c r="E84" s="90" t="str">
+        <f t="shared" si="25"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F84" s="98" t="str">
+        <f t="shared" si="17"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G84" s="98" t="str">
+        <f t="shared" si="18"/>
+        <v>escopo</v>
+      </c>
+      <c r="H84" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="I84" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="N84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="O84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="P84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="R84" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="S84" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="T84" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="U84" s="95" t="str">
+        <f t="shared" si="19"/>
+        <v>Propriedade para normatizar: é_escopo</v>
+      </c>
+      <c r="V84" s="95" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">Dado para normatizar: escopo ( xsd:string ) </v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="86">
+        <v>85</v>
+      </c>
+      <c r="B85" s="87" t="str">
+        <f t="shared" si="23"/>
+        <v>BIMProp</v>
+      </c>
+      <c r="C85" s="96" t="str">
+        <f t="shared" si="26"/>
+        <v>p_normatizar</v>
+      </c>
+      <c r="D85" s="97" t="s">
+        <v>697</v>
+      </c>
+      <c r="E85" s="90" t="str">
+        <f t="shared" si="25"/>
+        <v>BIMData</v>
+      </c>
+      <c r="F85" s="98" t="str">
+        <f t="shared" si="17"/>
+        <v>d_normatizar</v>
+      </c>
+      <c r="G85" s="98" t="str">
+        <f t="shared" si="18"/>
+        <v>regulamento</v>
+      </c>
+      <c r="H85" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="I85" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="N85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="O85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="P85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="R85" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="S85" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="T85" s="63" t="s">
+        <v>317</v>
+      </c>
+      <c r="U85" s="95" t="str">
+        <f t="shared" si="19"/>
+        <v>Propriedade para normatizar: é_regulamento</v>
+      </c>
+      <c r="V85" s="95" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">Dado para normatizar: regulamento ( xsd:string ) </v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D62">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G82:O1048576">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+  <conditionalFormatting sqref="G1:G81">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G81 G86:G1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G86:O1048576">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q82:Q1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="Q86:Q1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G82:G85">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G81">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -41386,7 +41805,7 @@
     <sortCondition ref="A1:A405"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69483C71-BA3A-4146-A627-BF70540C680F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4260FB-2E89-41CA-95A0-86C502B7A20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9205" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9290" uniqueCount="595">
   <si>
     <t>Edição</t>
   </si>
@@ -1813,6 +1813,51 @@
   </si>
   <si>
     <t>Urbanismo</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>Hidrográfico</t>
+  </si>
+  <si>
+    <t>Florestal</t>
+  </si>
+  <si>
+    <t>Árido</t>
+  </si>
+  <si>
+    <t>Oceânico</t>
+  </si>
+  <si>
+    <t>Montanhoso</t>
+  </si>
+  <si>
+    <t>Região de áridos</t>
+  </si>
+  <si>
+    <t>Elementos naturais hidrográficos</t>
+  </si>
+  <si>
+    <t>Elementos naturales hidrográficos</t>
+  </si>
+  <si>
+    <t>Massas naturais de vegetação</t>
+  </si>
+  <si>
+    <t>Masas naturales de vegetación</t>
+  </si>
+  <si>
+    <t>Massas naturais oceânicas</t>
+  </si>
+  <si>
+    <t>Massas naturais topográficas</t>
+  </si>
+  <si>
+    <t>Masas naturales topográficas</t>
+  </si>
+  <si>
+    <t>Masas naturales oceánicas</t>
   </si>
 </sst>
 </file>
@@ -2801,27 +2846,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88FC60-6162-41CE-8831-C9C26A24F489}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="15" customWidth="1"/>
     <col min="2" max="2" width="5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="15" customWidth="1"/>
-    <col min="7" max="11" width="7.109375" style="49" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="15" customWidth="1"/>
+    <col min="7" max="11" width="6.77734375" style="49" customWidth="1"/>
+    <col min="12" max="12" width="6" style="15" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="8" style="15" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="15" customWidth="1"/>
     <col min="16" max="16" width="15.44140625" style="15" customWidth="1"/>
     <col min="17" max="17" width="16.5546875" style="39" customWidth="1"/>
     <col min="18" max="19" width="5.44140625" style="39" customWidth="1"/>
@@ -3012,19 +3057,19 @@
         <v>9</v>
       </c>
       <c r="L3" s="37" t="str">
-        <f t="shared" ref="L3:L11" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
+        <f t="shared" ref="L3:L9" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M3" s="37" t="str">
-        <f t="shared" ref="M3:M11" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
+        <f t="shared" ref="M3:M9" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
         <v>Geográfico</v>
       </c>
       <c r="N3" s="37" t="str">
-        <f t="shared" ref="N3:N11" si="2">_xlfn.CONCAT(SUBSTITUTE(E3,"."," "))</f>
+        <f t="shared" ref="N3:N9" si="2">_xlfn.CONCAT(SUBSTITUTE(E3,"."," "))</f>
         <v>Político</v>
       </c>
       <c r="O3" s="37" t="str">
-        <f t="shared" ref="O3:O11" si="3">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
+        <f t="shared" ref="O3:O9" si="3">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
         <v>SubContinente</v>
       </c>
       <c r="P3" s="37" t="s">
@@ -3049,7 +3094,7 @@
         <v>579</v>
       </c>
       <c r="W3" s="46" t="str">
-        <f t="shared" ref="W3:W35" si="4">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" ref="W3:W40" si="4">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
         <v>Key.Lim.3</v>
       </c>
     </row>
@@ -3292,13 +3337,13 @@
         <v>183</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>213</v>
+        <v>580</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>187</v>
+        <v>583</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>9</v>
@@ -3321,21 +3366,21 @@
       </c>
       <c r="M7" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <v>Geográfico</v>
       </c>
       <c r="N7" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>Zona térmica</v>
+        <v>Natural</v>
       </c>
       <c r="O7" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>Polar</v>
+        <v>Árido</v>
       </c>
       <c r="P7" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="45" t="s">
-        <v>187</v>
+        <v>586</v>
+      </c>
+      <c r="Q7" s="37" t="s">
+        <v>583</v>
       </c>
       <c r="R7" s="38" t="s">
         <v>108</v>
@@ -3368,13 +3413,13 @@
         <v>183</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>213</v>
+        <v>580</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>188</v>
+        <v>581</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>9</v>
@@ -3397,21 +3442,21 @@
       </c>
       <c r="M8" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <v>Geográfico</v>
       </c>
       <c r="N8" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>Zona térmica</v>
+        <v>Natural</v>
       </c>
       <c r="O8" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>Equatorial</v>
+        <v>Hidrográfico</v>
       </c>
       <c r="P8" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="45" t="s">
-        <v>241</v>
+        <v>587</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>588</v>
       </c>
       <c r="R8" s="38" t="s">
         <v>108</v>
@@ -3444,13 +3489,13 @@
         <v>183</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>213</v>
+        <v>580</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>189</v>
+        <v>582</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>9</v>
@@ -3473,21 +3518,21 @@
       </c>
       <c r="M9" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <v>Geográfico</v>
       </c>
       <c r="N9" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>Zona térmica</v>
+        <v>Natural</v>
       </c>
       <c r="O9" s="37" t="str">
         <f t="shared" si="3"/>
-        <v>Tropical</v>
+        <v>Florestal</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q9" s="45" t="s">
-        <v>189</v>
+        <v>589</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>590</v>
       </c>
       <c r="R9" s="38" t="s">
         <v>108</v>
@@ -3520,13 +3565,13 @@
         <v>183</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>213</v>
+        <v>580</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>190</v>
+        <v>584</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>9</v>
@@ -3544,26 +3589,26 @@
         <v>9</v>
       </c>
       <c r="L10" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L10:L11" si="5">_xlfn.CONCAT(SUBSTITUTE(C10,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M10" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <f t="shared" ref="M10:M11" si="6">_xlfn.CONCAT(SUBSTITUTE(D10,"."," "))</f>
+        <v>Geográfico</v>
       </c>
       <c r="N10" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>Zona térmica</v>
+        <f t="shared" ref="N10:N11" si="7">_xlfn.CONCAT(SUBSTITUTE(E10,"."," "))</f>
+        <v>Natural</v>
       </c>
       <c r="O10" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>Subtropical</v>
+        <f t="shared" ref="O10:O11" si="8">_xlfn.CONCAT(SUBSTITUTE(F10,"."," "))</f>
+        <v>Oceânico</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="45" t="s">
-        <v>190</v>
+        <v>591</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>594</v>
       </c>
       <c r="R10" s="38" t="s">
         <v>108</v>
@@ -3581,7 +3626,7 @@
         <v>579</v>
       </c>
       <c r="W10" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W10:W11" si="9">CONCATENATE("Key.",LEFT(C10,3),".",A10)</f>
         <v>Key.Lim.10</v>
       </c>
     </row>
@@ -3596,13 +3641,13 @@
         <v>183</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>213</v>
+        <v>580</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>191</v>
+        <v>585</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>9</v>
@@ -3620,26 +3665,26 @@
         <v>9</v>
       </c>
       <c r="L11" s="37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>Limite</v>
       </c>
       <c r="M11" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <f t="shared" si="6"/>
+        <v>Geográfico</v>
       </c>
       <c r="N11" s="37" t="str">
-        <f t="shared" si="2"/>
-        <v>Zona térmica</v>
+        <f t="shared" si="7"/>
+        <v>Natural</v>
       </c>
       <c r="O11" s="37" t="str">
-        <f t="shared" si="3"/>
-        <v>Semiárido</v>
+        <f t="shared" si="8"/>
+        <v>Montanhoso</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q11" s="45" t="s">
-        <v>191</v>
+        <v>592</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>593</v>
       </c>
       <c r="R11" s="38" t="s">
         <v>108</v>
@@ -3657,7 +3702,7 @@
         <v>579</v>
       </c>
       <c r="W11" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>Key.Lim.11</v>
       </c>
     </row>
@@ -3678,7 +3723,7 @@
         <v>213</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>9</v>
@@ -3696,26 +3741,26 @@
         <v>9</v>
       </c>
       <c r="L12" s="37" t="str">
-        <f t="shared" ref="L12:L35" si="5">_xlfn.CONCAT(SUBSTITUTE(C12,"1_",""))</f>
+        <f t="shared" ref="L12:L17" si="10">_xlfn.CONCAT(SUBSTITUTE(C12,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M12" s="37" t="str">
-        <f t="shared" ref="M12:M35" si="6">_xlfn.CONCAT(SUBSTITUTE(D12,"."," "))</f>
+        <f t="shared" ref="M12:M17" si="11">_xlfn.CONCAT(SUBSTITUTE(D12,"."," "))</f>
         <v>Bioclimático</v>
       </c>
       <c r="N12" s="37" t="str">
-        <f t="shared" ref="N12:N35" si="7">_xlfn.CONCAT(SUBSTITUTE(E12,"."," "))</f>
+        <f t="shared" ref="N12:N17" si="12">_xlfn.CONCAT(SUBSTITUTE(E12,"."," "))</f>
         <v>Zona térmica</v>
       </c>
       <c r="O12" s="37" t="str">
-        <f t="shared" ref="O12:O35" si="8">_xlfn.CONCAT(SUBSTITUTE(F12,"."," "))</f>
-        <v>Atlántico</v>
+        <f t="shared" ref="O12:O17" si="13">_xlfn.CONCAT(SUBSTITUTE(F12,"."," "))</f>
+        <v>Polar</v>
       </c>
       <c r="P12" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="45" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R12" s="38" t="s">
         <v>108</v>
@@ -3733,7 +3778,7 @@
         <v>579</v>
       </c>
       <c r="W12" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W12:W17" si="14">CONCATENATE("Key.",LEFT(C12,3),".",A12)</f>
         <v>Key.Lim.12</v>
       </c>
     </row>
@@ -3748,13 +3793,13 @@
         <v>183</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>9</v>
@@ -3772,26 +3817,26 @@
         <v>9</v>
       </c>
       <c r="L13" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>Limite</v>
       </c>
       <c r="M13" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Urbano</v>
+        <f t="shared" si="11"/>
+        <v>Bioclimático</v>
       </c>
       <c r="N13" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Zoneamento</v>
+        <f t="shared" si="12"/>
+        <v>Zona térmica</v>
       </c>
       <c r="O13" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Area de Planejamento</v>
+        <f t="shared" si="13"/>
+        <v>Equatorial</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R13" s="38" t="s">
         <v>108</v>
@@ -3809,7 +3854,7 @@
         <v>579</v>
       </c>
       <c r="W13" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Key.Lim.13</v>
       </c>
     </row>
@@ -3824,13 +3869,13 @@
         <v>183</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G14" s="48" t="s">
         <v>9</v>
@@ -3848,26 +3893,26 @@
         <v>9</v>
       </c>
       <c r="L14" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>Limite</v>
       </c>
       <c r="M14" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Urbano</v>
+        <f t="shared" si="11"/>
+        <v>Bioclimático</v>
       </c>
       <c r="N14" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Zoneamento</v>
+        <f t="shared" si="12"/>
+        <v>Zona térmica</v>
       </c>
       <c r="O14" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Região Administrativa</v>
+        <f t="shared" si="13"/>
+        <v>Tropical</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="R14" s="38" t="s">
         <v>108</v>
@@ -3885,7 +3930,7 @@
         <v>579</v>
       </c>
       <c r="W14" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Key.Lim.14</v>
       </c>
     </row>
@@ -3900,13 +3945,13 @@
         <v>183</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>567</v>
+        <v>190</v>
       </c>
       <c r="G15" s="48" t="s">
         <v>9</v>
@@ -3924,26 +3969,26 @@
         <v>9</v>
       </c>
       <c r="L15" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>Limite</v>
       </c>
       <c r="M15" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Urbano</v>
+        <f t="shared" si="11"/>
+        <v>Bioclimático</v>
       </c>
       <c r="N15" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Zoneamento</v>
+        <f t="shared" si="12"/>
+        <v>Zona térmica</v>
       </c>
       <c r="O15" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Area Interesse Especial</v>
+        <f t="shared" si="13"/>
+        <v>Subtropical</v>
       </c>
       <c r="P15" s="37" t="s">
-        <v>568</v>
+        <v>190</v>
       </c>
       <c r="Q15" s="45" t="s">
-        <v>569</v>
+        <v>190</v>
       </c>
       <c r="R15" s="38" t="s">
         <v>108</v>
@@ -3961,7 +4006,7 @@
         <v>579</v>
       </c>
       <c r="W15" s="46" t="str">
-        <f t="shared" ref="W15" si="9">CONCATENATE("Key.",LEFT(C15,3),".",A15)</f>
+        <f t="shared" si="14"/>
         <v>Key.Lim.15</v>
       </c>
     </row>
@@ -3976,13 +4021,13 @@
         <v>183</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>570</v>
+        <v>191</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>9</v>
@@ -4000,26 +4045,26 @@
         <v>9</v>
       </c>
       <c r="L16" s="37" t="str">
-        <f t="shared" ref="L16" si="10">_xlfn.CONCAT(SUBSTITUTE(C16,"1_",""))</f>
+        <f t="shared" si="10"/>
         <v>Limite</v>
       </c>
       <c r="M16" s="37" t="str">
-        <f t="shared" ref="M16" si="11">_xlfn.CONCAT(SUBSTITUTE(D16,"."," "))</f>
-        <v>Urbano</v>
+        <f t="shared" si="11"/>
+        <v>Bioclimático</v>
       </c>
       <c r="N16" s="37" t="str">
-        <f t="shared" ref="N16" si="12">_xlfn.CONCAT(SUBSTITUTE(E16,"."," "))</f>
-        <v>De Zoneamento</v>
+        <f t="shared" si="12"/>
+        <v>Zona térmica</v>
       </c>
       <c r="O16" s="37" t="str">
-        <f t="shared" ref="O16" si="13">_xlfn.CONCAT(SUBSTITUTE(F16,"."," "))</f>
-        <v>Area Restringida</v>
+        <f t="shared" si="13"/>
+        <v>Semiárido</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>571</v>
+        <v>191</v>
+      </c>
+      <c r="Q16" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="R16" s="38" t="s">
         <v>108</v>
@@ -4037,7 +4082,7 @@
         <v>579</v>
       </c>
       <c r="W16" s="46" t="str">
-        <f t="shared" ref="W16" si="14">CONCATENATE("Key.",LEFT(C16,3),".",A16)</f>
+        <f t="shared" si="14"/>
         <v>Key.Lim.16</v>
       </c>
     </row>
@@ -4052,13 +4097,13 @@
         <v>183</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>9</v>
@@ -4076,26 +4121,26 @@
         <v>9</v>
       </c>
       <c r="L17" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>Limite</v>
       </c>
       <c r="M17" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Urbano</v>
+        <f t="shared" si="11"/>
+        <v>Bioclimático</v>
       </c>
       <c r="N17" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Zoneamento</v>
+        <f t="shared" si="12"/>
+        <v>Zona térmica</v>
       </c>
       <c r="O17" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Bairro</v>
+        <f t="shared" si="13"/>
+        <v>Atlántico</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>574</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>573</v>
+        <v>192</v>
       </c>
       <c r="R17" s="38" t="s">
         <v>108</v>
@@ -4113,7 +4158,7 @@
         <v>579</v>
       </c>
       <c r="W17" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>Key.Lim.17</v>
       </c>
     </row>
@@ -4131,10 +4176,10 @@
         <v>193</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>565</v>
+        <v>214</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>9</v>
@@ -4152,26 +4197,26 @@
         <v>9</v>
       </c>
       <c r="L18" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L18:L40" si="15">_xlfn.CONCAT(SUBSTITUTE(C18,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M18" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M18:M40" si="16">_xlfn.CONCAT(SUBSTITUTE(D18,"."," "))</f>
         <v>Urbano</v>
       </c>
       <c r="N18" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Fração</v>
+        <f t="shared" ref="N18:N40" si="17">_xlfn.CONCAT(SUBSTITUTE(E18,"."," "))</f>
+        <v>De Zoneamento</v>
       </c>
       <c r="O18" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Quadra</v>
+        <f t="shared" ref="O18:O40" si="18">_xlfn.CONCAT(SUBSTITUTE(F18,"."," "))</f>
+        <v>Area de Planejamento</v>
       </c>
       <c r="P18" s="37" t="s">
-        <v>575</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>576</v>
+        <v>242</v>
       </c>
       <c r="R18" s="38" t="s">
         <v>108</v>
@@ -4207,10 +4252,10 @@
         <v>193</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>565</v>
+        <v>214</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>9</v>
@@ -4228,26 +4273,26 @@
         <v>9</v>
       </c>
       <c r="L19" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M19" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>Urbano</v>
       </c>
       <c r="N19" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Fração</v>
+        <f t="shared" si="17"/>
+        <v>De Zoneamento</v>
       </c>
       <c r="O19" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Gleba</v>
+        <f t="shared" si="18"/>
+        <v>Região Administrativa</v>
       </c>
       <c r="P19" s="37" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="45" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="R19" s="38" t="s">
         <v>108</v>
@@ -4283,10 +4328,10 @@
         <v>193</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>565</v>
+        <v>214</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>196</v>
+        <v>567</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>9</v>
@@ -4304,26 +4349,26 @@
         <v>9</v>
       </c>
       <c r="L20" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M20" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>Urbano</v>
       </c>
       <c r="N20" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Fração</v>
+        <f t="shared" si="17"/>
+        <v>De Zoneamento</v>
       </c>
       <c r="O20" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Loteamento</v>
+        <f t="shared" si="18"/>
+        <v>Area Interesse Especial</v>
       </c>
       <c r="P20" s="37" t="s">
-        <v>196</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>244</v>
+        <v>569</v>
       </c>
       <c r="R20" s="38" t="s">
         <v>108</v>
@@ -4341,7 +4386,7 @@
         <v>579</v>
       </c>
       <c r="W20" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W20" si="19">CONCATENATE("Key.",LEFT(C20,3),".",A20)</f>
         <v>Key.Lim.20</v>
       </c>
     </row>
@@ -4359,10 +4404,10 @@
         <v>193</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>565</v>
+        <v>214</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G21" s="48" t="s">
         <v>9</v>
@@ -4380,26 +4425,26 @@
         <v>9</v>
       </c>
       <c r="L21" s="37" t="str">
-        <f t="shared" ref="L21" si="15">_xlfn.CONCAT(SUBSTITUTE(C21,"1_",""))</f>
+        <f t="shared" ref="L21" si="20">_xlfn.CONCAT(SUBSTITUTE(C21,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M21" s="37" t="str">
-        <f t="shared" ref="M21" si="16">_xlfn.CONCAT(SUBSTITUTE(D21,"."," "))</f>
+        <f t="shared" ref="M21" si="21">_xlfn.CONCAT(SUBSTITUTE(D21,"."," "))</f>
         <v>Urbano</v>
       </c>
       <c r="N21" s="37" t="str">
-        <f t="shared" ref="N21" si="17">_xlfn.CONCAT(SUBSTITUTE(E21,"."," "))</f>
-        <v>De Fração</v>
+        <f t="shared" ref="N21" si="22">_xlfn.CONCAT(SUBSTITUTE(E21,"."," "))</f>
+        <v>De Zoneamento</v>
       </c>
       <c r="O21" s="37" t="str">
-        <f t="shared" ref="O21" si="18">_xlfn.CONCAT(SUBSTITUTE(F21,"."," "))</f>
-        <v>Parcela</v>
+        <f t="shared" ref="O21" si="23">_xlfn.CONCAT(SUBSTITUTE(F21,"."," "))</f>
+        <v>Area Restringida</v>
       </c>
       <c r="P21" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q21" s="45" t="s">
-        <v>578</v>
+        <v>572</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>571</v>
       </c>
       <c r="R21" s="38" t="s">
         <v>108</v>
@@ -4417,7 +4462,7 @@
         <v>579</v>
       </c>
       <c r="W21" s="46" t="str">
-        <f t="shared" ref="W21" si="19">CONCATENATE("Key.",LEFT(C21,3),".",A21)</f>
+        <f t="shared" ref="W21" si="24">CONCATENATE("Key.",LEFT(C21,3),".",A21)</f>
         <v>Key.Lim.21</v>
       </c>
     </row>
@@ -4435,10 +4480,10 @@
         <v>193</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>565</v>
+        <v>214</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
       <c r="G22" s="48" t="s">
         <v>9</v>
@@ -4456,26 +4501,26 @@
         <v>9</v>
       </c>
       <c r="L22" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M22" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>Urbano</v>
       </c>
       <c r="N22" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Fração</v>
+        <f t="shared" si="17"/>
+        <v>De Zoneamento</v>
       </c>
       <c r="O22" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Lote</v>
+        <f t="shared" si="18"/>
+        <v>Bairro</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>197</v>
+        <v>574</v>
       </c>
       <c r="Q22" s="45" t="s">
-        <v>197</v>
+        <v>573</v>
       </c>
       <c r="R22" s="38" t="s">
         <v>108</v>
@@ -4508,13 +4553,13 @@
         <v>183</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>215</v>
+        <v>565</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="G23" s="48" t="s">
         <v>9</v>
@@ -4532,26 +4577,26 @@
         <v>9</v>
       </c>
       <c r="L23" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M23" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Predial</v>
+        <f t="shared" si="16"/>
+        <v>Urbano</v>
       </c>
       <c r="N23" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Construção</v>
+        <f t="shared" si="17"/>
+        <v>De Fração</v>
       </c>
       <c r="O23" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Prédio</v>
+        <f t="shared" si="18"/>
+        <v>Quadra</v>
       </c>
       <c r="P23" s="37" t="s">
-        <v>136</v>
+        <v>575</v>
       </c>
       <c r="Q23" s="45" t="s">
-        <v>136</v>
+        <v>576</v>
       </c>
       <c r="R23" s="38" t="s">
         <v>108</v>
@@ -4584,13 +4629,13 @@
         <v>183</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>215</v>
+        <v>565</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G24" s="48" t="s">
         <v>9</v>
@@ -4608,26 +4653,26 @@
         <v>9</v>
       </c>
       <c r="L24" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M24" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Predial</v>
+        <f t="shared" si="16"/>
+        <v>Urbano</v>
       </c>
       <c r="N24" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Construção</v>
+        <f t="shared" si="17"/>
+        <v>De Fração</v>
       </c>
       <c r="O24" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Bloco</v>
+        <f t="shared" si="18"/>
+        <v>Gleba</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="45" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="R24" s="38" t="s">
         <v>108</v>
@@ -4660,13 +4705,13 @@
         <v>183</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>215</v>
+        <v>565</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G25" s="48" t="s">
         <v>9</v>
@@ -4684,26 +4729,26 @@
         <v>9</v>
       </c>
       <c r="L25" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M25" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Predial</v>
+        <f t="shared" si="16"/>
+        <v>Urbano</v>
       </c>
       <c r="N25" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Construção</v>
+        <f t="shared" si="17"/>
+        <v>De Fração</v>
       </c>
       <c r="O25" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Edifício</v>
+        <f t="shared" si="18"/>
+        <v>Loteamento</v>
       </c>
       <c r="P25" s="37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R25" s="38" t="s">
         <v>108</v>
@@ -4736,13 +4781,13 @@
         <v>183</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>215</v>
+        <v>565</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>201</v>
+        <v>577</v>
       </c>
       <c r="G26" s="48" t="s">
         <v>9</v>
@@ -4760,26 +4805,26 @@
         <v>9</v>
       </c>
       <c r="L26" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L26" si="25">_xlfn.CONCAT(SUBSTITUTE(C26,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M26" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Predial</v>
+        <f t="shared" ref="M26" si="26">_xlfn.CONCAT(SUBSTITUTE(D26,"."," "))</f>
+        <v>Urbano</v>
       </c>
       <c r="N26" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Construção</v>
+        <f t="shared" ref="N26" si="27">_xlfn.CONCAT(SUBSTITUTE(E26,"."," "))</f>
+        <v>De Fração</v>
       </c>
       <c r="O26" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Casa</v>
+        <f t="shared" ref="O26" si="28">_xlfn.CONCAT(SUBSTITUTE(F26,"."," "))</f>
+        <v>Parcela</v>
       </c>
       <c r="P26" s="37" t="s">
-        <v>201</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>201</v>
+        <v>578</v>
       </c>
       <c r="R26" s="38" t="s">
         <v>108</v>
@@ -4797,7 +4842,7 @@
         <v>579</v>
       </c>
       <c r="W26" s="46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W26" si="29">CONCATENATE("Key.",LEFT(C26,3),".",A26)</f>
         <v>Key.Lim.26</v>
       </c>
     </row>
@@ -4812,13 +4857,13 @@
         <v>183</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>215</v>
+        <v>565</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G27" s="48" t="s">
         <v>9</v>
@@ -4836,26 +4881,26 @@
         <v>9</v>
       </c>
       <c r="L27" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M27" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Predial</v>
+        <f t="shared" si="16"/>
+        <v>Urbano</v>
       </c>
       <c r="N27" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Construção</v>
+        <f t="shared" si="17"/>
+        <v>De Fração</v>
       </c>
       <c r="O27" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Galpão</v>
+        <f t="shared" si="18"/>
+        <v>Lote</v>
       </c>
       <c r="P27" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q27" s="45" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="R27" s="38" t="s">
         <v>108</v>
@@ -4894,7 +4939,7 @@
         <v>215</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="G28" s="48" t="s">
         <v>9</v>
@@ -4912,26 +4957,26 @@
         <v>9</v>
       </c>
       <c r="L28" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M28" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>Predial</v>
       </c>
       <c r="N28" s="37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>De Construção</v>
       </c>
       <c r="O28" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Edícula</v>
+        <f t="shared" si="18"/>
+        <v>Prédio</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="45" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="R28" s="38" t="s">
         <v>108</v>
@@ -4964,13 +5009,13 @@
         <v>183</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G29" s="48" t="s">
         <v>9</v>
@@ -4988,26 +5033,26 @@
         <v>9</v>
       </c>
       <c r="L29" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M29" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Funcional</v>
+        <f t="shared" si="16"/>
+        <v>Predial</v>
       </c>
       <c r="N29" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Organização</v>
+        <f t="shared" si="17"/>
+        <v>De Construção</v>
       </c>
       <c r="O29" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Unidade</v>
+        <f t="shared" si="18"/>
+        <v>Bloco</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R29" s="38" t="s">
         <v>108</v>
@@ -5040,13 +5085,13 @@
         <v>183</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>566</v>
+        <v>200</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>9</v>
@@ -5064,26 +5109,26 @@
         <v>9</v>
       </c>
       <c r="L30" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M30" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Funcional</v>
+        <f t="shared" si="16"/>
+        <v>Predial</v>
       </c>
       <c r="N30" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Organização</v>
+        <f t="shared" si="17"/>
+        <v>De Construção</v>
       </c>
       <c r="O30" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>SetorUrbano</v>
+        <f t="shared" si="18"/>
+        <v>Edifício</v>
       </c>
       <c r="P30" s="37" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R30" s="38" t="s">
         <v>108</v>
@@ -5116,13 +5161,13 @@
         <v>183</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G31" s="48" t="s">
         <v>9</v>
@@ -5140,26 +5185,26 @@
         <v>9</v>
       </c>
       <c r="L31" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M31" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Funcional</v>
+        <f t="shared" si="16"/>
+        <v>Predial</v>
       </c>
       <c r="N31" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Organização</v>
+        <f t="shared" si="17"/>
+        <v>De Construção</v>
       </c>
       <c r="O31" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Divisão</v>
+        <f t="shared" si="18"/>
+        <v>Casa</v>
       </c>
       <c r="P31" s="37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="45" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="R31" s="38" t="s">
         <v>108</v>
@@ -5192,13 +5237,13 @@
         <v>183</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G32" s="48" t="s">
         <v>9</v>
@@ -5216,26 +5261,26 @@
         <v>9</v>
       </c>
       <c r="L32" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M32" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Funcional</v>
+        <f t="shared" si="16"/>
+        <v>Predial</v>
       </c>
       <c r="N32" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Organização</v>
+        <f t="shared" si="17"/>
+        <v>De Construção</v>
       </c>
       <c r="O32" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Departamento</v>
+        <f t="shared" si="18"/>
+        <v>Galpão</v>
       </c>
       <c r="P32" s="37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="45" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="R32" s="38" t="s">
         <v>108</v>
@@ -5268,13 +5313,13 @@
         <v>183</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G33" s="48" t="s">
         <v>9</v>
@@ -5292,26 +5337,26 @@
         <v>9</v>
       </c>
       <c r="L33" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M33" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Funcional</v>
+        <f t="shared" si="16"/>
+        <v>Predial</v>
       </c>
       <c r="N33" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Distribuição</v>
+        <f t="shared" si="17"/>
+        <v>De Construção</v>
       </c>
       <c r="O33" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Ambiente</v>
+        <f t="shared" si="18"/>
+        <v>Edícula</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q33" s="45" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="R33" s="38" t="s">
         <v>108</v>
@@ -5347,10 +5392,10 @@
         <v>204</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G34" s="48" t="s">
         <v>9</v>
@@ -5368,26 +5413,26 @@
         <v>9</v>
       </c>
       <c r="L34" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M34" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>Funcional</v>
       </c>
       <c r="N34" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Distribuição</v>
+        <f t="shared" si="17"/>
+        <v>De Organização</v>
       </c>
       <c r="O34" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Apartamento</v>
+        <f t="shared" si="18"/>
+        <v>Unidade</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="45" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="R34" s="38" t="s">
         <v>108</v>
@@ -5423,10 +5468,10 @@
         <v>204</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>218</v>
+        <v>566</v>
       </c>
       <c r="G35" s="48" t="s">
         <v>9</v>
@@ -5444,26 +5489,26 @@
         <v>9</v>
       </c>
       <c r="L35" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>Limite</v>
       </c>
       <c r="M35" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>Funcional</v>
       </c>
       <c r="N35" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>De Distribuição</v>
+        <f t="shared" si="17"/>
+        <v>De Organização</v>
       </c>
       <c r="O35" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>Núcleo de Circulação</v>
+        <f t="shared" si="18"/>
+        <v>SetorUrbano</v>
       </c>
       <c r="P35" s="37" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R35" s="38" t="s">
         <v>108</v>
@@ -5483,6 +5528,386 @@
       <c r="W35" s="46" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>Limite</v>
+      </c>
+      <c r="M36" s="37" t="str">
+        <f t="shared" si="16"/>
+        <v>Funcional</v>
+      </c>
+      <c r="N36" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>De Organização</v>
+      </c>
+      <c r="O36" s="37" t="str">
+        <f t="shared" si="18"/>
+        <v>Divisão</v>
+      </c>
+      <c r="P36" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q36" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="R36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="U36" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="V36" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="W36" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>Key.Lim.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="36">
+        <v>37</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>Limite</v>
+      </c>
+      <c r="M37" s="37" t="str">
+        <f t="shared" si="16"/>
+        <v>Funcional</v>
+      </c>
+      <c r="N37" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>De Organização</v>
+      </c>
+      <c r="O37" s="37" t="str">
+        <f t="shared" si="18"/>
+        <v>Departamento</v>
+      </c>
+      <c r="P37" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q37" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="R37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="U37" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="V37" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="W37" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>Key.Lim.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="36">
+        <v>38</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>Limite</v>
+      </c>
+      <c r="M38" s="37" t="str">
+        <f t="shared" si="16"/>
+        <v>Funcional</v>
+      </c>
+      <c r="N38" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>De Distribuição</v>
+      </c>
+      <c r="O38" s="37" t="str">
+        <f t="shared" si="18"/>
+        <v>Ambiente</v>
+      </c>
+      <c r="P38" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q38" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="R38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="U38" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="V38" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="W38" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>Key.Lim.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="36">
+        <v>39</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>Limite</v>
+      </c>
+      <c r="M39" s="37" t="str">
+        <f t="shared" si="16"/>
+        <v>Funcional</v>
+      </c>
+      <c r="N39" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>De Distribuição</v>
+      </c>
+      <c r="O39" s="37" t="str">
+        <f t="shared" si="18"/>
+        <v>Apartamento</v>
+      </c>
+      <c r="P39" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="R39" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S39" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T39" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="U39" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="V39" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="W39" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>Key.Lim.39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="36">
+        <v>40</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>Limite</v>
+      </c>
+      <c r="M40" s="37" t="str">
+        <f t="shared" si="16"/>
+        <v>Funcional</v>
+      </c>
+      <c r="N40" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>De Distribuição</v>
+      </c>
+      <c r="O40" s="37" t="str">
+        <f t="shared" si="18"/>
+        <v>Núcleo de Circulação</v>
+      </c>
+      <c r="P40" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q40" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="R40" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="S40" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="T40" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="V40" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="W40" s="46" t="str">
+        <f t="shared" si="4"/>
+        <v>Key.Lim.40</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FBB812-F173-4DE7-9CDC-0057445BD0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC4DCC-F02E-44AE-B0B0-EE21DF167F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9318" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9369" uniqueCount="601">
   <si>
     <t>Edição</t>
   </si>
@@ -1861,6 +1861,21 @@
   </si>
   <si>
     <t>Nación</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Província</t>
+  </si>
+  <si>
+    <t>Metrópoli</t>
+  </si>
+  <si>
+    <t>Município</t>
+  </si>
+  <si>
+    <t>Municipio</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1941,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2053,6 +2068,12 @@
         <bgColor rgb="FFD9F2D0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2105,7 +2126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2261,6 +2282,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2858,12 +2882,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88FC60-6162-41CE-8831-C9C26A24F489}">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3069,19 +3093,19 @@
         <v>9</v>
       </c>
       <c r="L3" s="36" t="str">
-        <f t="shared" ref="L3:L10" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
+        <f t="shared" ref="L3:L13" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M3" s="36" t="str">
-        <f t="shared" ref="M3:M10" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
+        <f t="shared" ref="M3:M13" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
         <v>Geográfico</v>
       </c>
       <c r="N3" s="36" t="str">
-        <f t="shared" ref="N3:N10" si="2">_xlfn.CONCAT(SUBSTITUTE(E3,"."," "))</f>
+        <f t="shared" ref="N3:N13" si="2">_xlfn.CONCAT(SUBSTITUTE(E3,"."," "))</f>
         <v>Político</v>
       </c>
       <c r="O3" s="36" t="str">
-        <f t="shared" ref="O3:O10" si="3">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
+        <f t="shared" ref="O3:P13" si="3">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
         <v>SubContinente</v>
       </c>
       <c r="P3" s="36" t="s">
@@ -3106,7 +3130,7 @@
         <v>577</v>
       </c>
       <c r="W3" s="45" t="str">
-        <f t="shared" ref="W3:W41" si="4">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" ref="W3:W44" si="4">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
         <v>Key.Lim.3</v>
       </c>
     </row>
@@ -3297,19 +3321,19 @@
         <v>9</v>
       </c>
       <c r="L6" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L6" si="10">_xlfn.CONCAT(SUBSTITUTE(C6,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M6" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M6" si="11">_xlfn.CONCAT(SUBSTITUTE(D6,"."," "))</f>
         <v>Geográfico</v>
       </c>
       <c r="N6" s="36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N6" si="12">_xlfn.CONCAT(SUBSTITUTE(E6,"."," "))</f>
         <v>Político</v>
       </c>
       <c r="O6" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O6" si="13">_xlfn.CONCAT(SUBSTITUTE(F6,"."," "))</f>
         <v>Estado</v>
       </c>
       <c r="P6" s="36" t="s">
@@ -3334,7 +3358,7 @@
         <v>577</v>
       </c>
       <c r="W6" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W6" si="14">CONCATENATE("Key.",LEFT(C6,3),".",A6)</f>
         <v>Key.Lim.6</v>
       </c>
     </row>
@@ -3355,7 +3379,7 @@
         <v>183</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>106</v>
+        <v>597</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>9</v>
@@ -3386,13 +3410,13 @@
       </c>
       <c r="O7" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Cidade</v>
+        <v>Província</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>106</v>
+        <v>597</v>
       </c>
       <c r="Q7" s="44" t="s">
-        <v>238</v>
+        <v>596</v>
       </c>
       <c r="R7" s="37" t="s">
         <v>108</v>
@@ -3428,10 +3452,10 @@
         <v>182</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>578</v>
+        <v>183</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>581</v>
+        <v>106</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>9</v>
@@ -3458,17 +3482,17 @@
       </c>
       <c r="N8" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>Natural</v>
+        <v>Político</v>
       </c>
       <c r="O8" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Árido</v>
+        <v>Cidade</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>581</v>
+        <v>106</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>238</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>108</v>
@@ -3492,7 +3516,7 @@
     </row>
     <row r="9" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>251</v>
@@ -3504,10 +3528,10 @@
         <v>182</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>578</v>
+        <v>183</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>9</v>
@@ -3525,26 +3549,26 @@
         <v>9</v>
       </c>
       <c r="L9" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L9" si="15">_xlfn.CONCAT(SUBSTITUTE(C9,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M9" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M9" si="16">_xlfn.CONCAT(SUBSTITUTE(D9,"."," "))</f>
         <v>Geográfico</v>
       </c>
       <c r="N9" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>Natural</v>
+        <f t="shared" ref="N9" si="17">_xlfn.CONCAT(SUBSTITUTE(E9,"."," "))</f>
+        <v>Político</v>
       </c>
       <c r="O9" s="36" t="str">
-        <f t="shared" si="3"/>
-        <v>Hidrográfico</v>
+        <f t="shared" ref="O9:P9" si="18">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
+        <v>Metrópoli</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="Q9" s="36" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="R9" s="37" t="s">
         <v>108</v>
@@ -3562,13 +3586,13 @@
         <v>577</v>
       </c>
       <c r="W9" s="45" t="str">
-        <f t="shared" si="4"/>
-        <v>Key.Lim.9</v>
+        <f t="shared" ref="W9" si="19">CONCATENATE("Key.",LEFT(C9,3),".",A9)</f>
+        <v>Key.Lim.8</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>251</v>
@@ -3580,10 +3604,10 @@
         <v>182</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>578</v>
+        <v>183</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="G10" s="47" t="s">
         <v>9</v>
@@ -3610,17 +3634,17 @@
       </c>
       <c r="N10" s="36" t="str">
         <f t="shared" si="2"/>
-        <v>Natural</v>
+        <v>Político</v>
       </c>
       <c r="O10" s="36" t="str">
         <f t="shared" si="3"/>
-        <v>Florestal</v>
+        <v>Município</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="R10" s="37" t="s">
         <v>108</v>
@@ -3639,12 +3663,12 @@
       </c>
       <c r="W10" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.10</v>
+        <v>Key.Lim.8</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>251</v>
@@ -3659,7 +3683,7 @@
         <v>578</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G11" s="47" t="s">
         <v>9</v>
@@ -3677,26 +3701,26 @@
         <v>9</v>
       </c>
       <c r="L11" s="36" t="str">
-        <f t="shared" ref="L11:L12" si="10">_xlfn.CONCAT(SUBSTITUTE(C11,"1_",""))</f>
+        <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M11" s="36" t="str">
-        <f t="shared" ref="M11:M12" si="11">_xlfn.CONCAT(SUBSTITUTE(D11,"."," "))</f>
+        <f t="shared" si="1"/>
         <v>Geográfico</v>
       </c>
       <c r="N11" s="36" t="str">
-        <f t="shared" ref="N11:N12" si="12">_xlfn.CONCAT(SUBSTITUTE(E11,"."," "))</f>
+        <f t="shared" si="2"/>
         <v>Natural</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" ref="O11:O12" si="13">_xlfn.CONCAT(SUBSTITUTE(F11,"."," "))</f>
-        <v>Oceânico</v>
+        <f t="shared" si="3"/>
+        <v>Árido</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="R11" s="37" t="s">
         <v>108</v>
@@ -3714,13 +3738,13 @@
         <v>577</v>
       </c>
       <c r="W11" s="45" t="str">
-        <f t="shared" ref="W11:W12" si="14">CONCATENATE("Key.",LEFT(C11,3),".",A11)</f>
-        <v>Key.Lim.11</v>
+        <f t="shared" si="4"/>
+        <v>Key.Lim.9</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>251</v>
@@ -3735,7 +3759,7 @@
         <v>578</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>9</v>
@@ -3753,26 +3777,26 @@
         <v>9</v>
       </c>
       <c r="L12" s="36" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M12" s="36" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>Geográfico</v>
       </c>
       <c r="N12" s="36" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>Natural</v>
       </c>
       <c r="O12" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>Montanhoso</v>
+        <f t="shared" si="3"/>
+        <v>Hidrográfico</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="R12" s="37" t="s">
         <v>108</v>
@@ -3790,13 +3814,13 @@
         <v>577</v>
       </c>
       <c r="W12" s="45" t="str">
-        <f t="shared" si="14"/>
-        <v>Key.Lim.12</v>
+        <f t="shared" si="4"/>
+        <v>Key.Lim.10</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="35">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>251</v>
@@ -3805,13 +3829,13 @@
         <v>181</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>211</v>
+        <v>578</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>185</v>
+        <v>580</v>
       </c>
       <c r="G13" s="47" t="s">
         <v>9</v>
@@ -3829,26 +3853,26 @@
         <v>9</v>
       </c>
       <c r="L13" s="36" t="str">
-        <f t="shared" ref="L13:L18" si="15">_xlfn.CONCAT(SUBSTITUTE(C13,"1_",""))</f>
+        <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M13" s="36" t="str">
-        <f t="shared" ref="M13:M18" si="16">_xlfn.CONCAT(SUBSTITUTE(D13,"."," "))</f>
-        <v>Bioclimático</v>
+        <f t="shared" si="1"/>
+        <v>Geográfico</v>
       </c>
       <c r="N13" s="36" t="str">
-        <f t="shared" ref="N13:N18" si="17">_xlfn.CONCAT(SUBSTITUTE(E13,"."," "))</f>
-        <v>Zona térmica</v>
+        <f t="shared" si="2"/>
+        <v>Natural</v>
       </c>
       <c r="O13" s="36" t="str">
-        <f t="shared" ref="O13:O18" si="18">_xlfn.CONCAT(SUBSTITUTE(F13,"."," "))</f>
-        <v>Polar</v>
+        <f t="shared" si="3"/>
+        <v>Florestal</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="44" t="s">
-        <v>185</v>
+        <v>587</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>588</v>
       </c>
       <c r="R13" s="37" t="s">
         <v>108</v>
@@ -3866,13 +3890,13 @@
         <v>577</v>
       </c>
       <c r="W13" s="45" t="str">
-        <f t="shared" ref="W13:W18" si="19">CONCATENATE("Key.",LEFT(C13,3),".",A13)</f>
-        <v>Key.Lim.13</v>
+        <f t="shared" si="4"/>
+        <v>Key.Lim.11</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>251</v>
@@ -3881,13 +3905,13 @@
         <v>181</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>211</v>
+        <v>578</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>186</v>
+        <v>582</v>
       </c>
       <c r="G14" s="47" t="s">
         <v>9</v>
@@ -3905,26 +3929,26 @@
         <v>9</v>
       </c>
       <c r="L14" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L14:L15" si="20">_xlfn.CONCAT(SUBSTITUTE(C14,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M14" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>Bioclimático</v>
+        <f t="shared" ref="M14:M15" si="21">_xlfn.CONCAT(SUBSTITUTE(D14,"."," "))</f>
+        <v>Geográfico</v>
       </c>
       <c r="N14" s="36" t="str">
-        <f t="shared" si="17"/>
-        <v>Zona térmica</v>
+        <f t="shared" ref="N14:N15" si="22">_xlfn.CONCAT(SUBSTITUTE(E14,"."," "))</f>
+        <v>Natural</v>
       </c>
       <c r="O14" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>Equatorial</v>
+        <f t="shared" ref="O14:O15" si="23">_xlfn.CONCAT(SUBSTITUTE(F14,"."," "))</f>
+        <v>Oceânico</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="44" t="s">
-        <v>239</v>
+        <v>589</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>592</v>
       </c>
       <c r="R14" s="37" t="s">
         <v>108</v>
@@ -3942,13 +3966,13 @@
         <v>577</v>
       </c>
       <c r="W14" s="45" t="str">
-        <f t="shared" si="19"/>
-        <v>Key.Lim.14</v>
+        <f t="shared" ref="W14:W15" si="24">CONCATENATE("Key.",LEFT(C14,3),".",A14)</f>
+        <v>Key.Lim.12</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>251</v>
@@ -3957,13 +3981,13 @@
         <v>181</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>211</v>
+        <v>578</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>187</v>
+        <v>583</v>
       </c>
       <c r="G15" s="47" t="s">
         <v>9</v>
@@ -3981,26 +4005,26 @@
         <v>9</v>
       </c>
       <c r="L15" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>Limite</v>
       </c>
       <c r="M15" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v>Bioclimático</v>
+        <f t="shared" si="21"/>
+        <v>Geográfico</v>
       </c>
       <c r="N15" s="36" t="str">
-        <f t="shared" si="17"/>
-        <v>Zona térmica</v>
+        <f t="shared" si="22"/>
+        <v>Natural</v>
       </c>
       <c r="O15" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>Tropical</v>
+        <f t="shared" si="23"/>
+        <v>Montanhoso</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q15" s="44" t="s">
-        <v>187</v>
+        <v>590</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>591</v>
       </c>
       <c r="R15" s="37" t="s">
         <v>108</v>
@@ -4018,13 +4042,13 @@
         <v>577</v>
       </c>
       <c r="W15" s="45" t="str">
-        <f t="shared" si="19"/>
-        <v>Key.Lim.15</v>
+        <f t="shared" si="24"/>
+        <v>Key.Lim.13</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>251</v>
@@ -4039,7 +4063,7 @@
         <v>211</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G16" s="47" t="s">
         <v>9</v>
@@ -4057,26 +4081,26 @@
         <v>9</v>
       </c>
       <c r="L16" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L16:L21" si="25">_xlfn.CONCAT(SUBSTITUTE(C16,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M16" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M16:M21" si="26">_xlfn.CONCAT(SUBSTITUTE(D16,"."," "))</f>
         <v>Bioclimático</v>
       </c>
       <c r="N16" s="36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N16:N21" si="27">_xlfn.CONCAT(SUBSTITUTE(E16,"."," "))</f>
         <v>Zona térmica</v>
       </c>
       <c r="O16" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>Subtropical</v>
+        <f t="shared" ref="O16:O21" si="28">_xlfn.CONCAT(SUBSTITUTE(F16,"."," "))</f>
+        <v>Polar</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="R16" s="37" t="s">
         <v>108</v>
@@ -4094,13 +4118,13 @@
         <v>577</v>
       </c>
       <c r="W16" s="45" t="str">
-        <f t="shared" si="19"/>
-        <v>Key.Lim.16</v>
+        <f t="shared" ref="W16:W21" si="29">CONCATENATE("Key.",LEFT(C16,3),".",A16)</f>
+        <v>Key.Lim.14</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>251</v>
@@ -4115,7 +4139,7 @@
         <v>211</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G17" s="47" t="s">
         <v>9</v>
@@ -4133,26 +4157,26 @@
         <v>9</v>
       </c>
       <c r="L17" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>Limite</v>
       </c>
       <c r="M17" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Bioclimático</v>
       </c>
       <c r="N17" s="36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Zona térmica</v>
       </c>
       <c r="O17" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>Semiárido</v>
+        <f t="shared" si="28"/>
+        <v>Equatorial</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="44" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="R17" s="37" t="s">
         <v>108</v>
@@ -4170,13 +4194,13 @@
         <v>577</v>
       </c>
       <c r="W17" s="45" t="str">
-        <f t="shared" si="19"/>
-        <v>Key.Lim.17</v>
+        <f t="shared" si="29"/>
+        <v>Key.Lim.15</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>251</v>
@@ -4191,7 +4215,7 @@
         <v>211</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G18" s="47" t="s">
         <v>9</v>
@@ -4209,26 +4233,26 @@
         <v>9</v>
       </c>
       <c r="L18" s="36" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>Limite</v>
       </c>
       <c r="M18" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>Bioclimático</v>
       </c>
       <c r="N18" s="36" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>Zona térmica</v>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" si="18"/>
-        <v>Atlántico</v>
+        <f t="shared" si="28"/>
+        <v>Tropical</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="R18" s="37" t="s">
         <v>108</v>
@@ -4246,13 +4270,13 @@
         <v>577</v>
       </c>
       <c r="W18" s="45" t="str">
-        <f t="shared" si="19"/>
-        <v>Key.Lim.18</v>
+        <f t="shared" si="29"/>
+        <v>Key.Lim.16</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>251</v>
@@ -4261,13 +4285,13 @@
         <v>181</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G19" s="47" t="s">
         <v>9</v>
@@ -4285,26 +4309,26 @@
         <v>9</v>
       </c>
       <c r="L19" s="36" t="str">
-        <f t="shared" ref="L19:L41" si="20">_xlfn.CONCAT(SUBSTITUTE(C19,"1_",""))</f>
+        <f t="shared" si="25"/>
         <v>Limite</v>
       </c>
       <c r="M19" s="36" t="str">
-        <f t="shared" ref="M19:M41" si="21">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
-        <v>Urbano</v>
+        <f t="shared" si="26"/>
+        <v>Bioclimático</v>
       </c>
       <c r="N19" s="36" t="str">
-        <f t="shared" ref="N19:N41" si="22">_xlfn.CONCAT(SUBSTITUTE(E19,"."," "))</f>
-        <v>De Zoneamento</v>
+        <f t="shared" si="27"/>
+        <v>Zona térmica</v>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" ref="O19:O41" si="23">_xlfn.CONCAT(SUBSTITUTE(F19,"."," "))</f>
-        <v>Area de Planejamento</v>
+        <f t="shared" si="28"/>
+        <v>Subtropical</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="R19" s="37" t="s">
         <v>108</v>
@@ -4322,13 +4346,13 @@
         <v>577</v>
       </c>
       <c r="W19" s="45" t="str">
-        <f t="shared" si="4"/>
-        <v>Key.Lim.19</v>
+        <f t="shared" si="29"/>
+        <v>Key.Lim.17</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>251</v>
@@ -4337,13 +4361,13 @@
         <v>181</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G20" s="47" t="s">
         <v>9</v>
@@ -4361,26 +4385,26 @@
         <v>9</v>
       </c>
       <c r="L20" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>Limite</v>
       </c>
       <c r="M20" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>Urbano</v>
+        <f t="shared" si="26"/>
+        <v>Bioclimático</v>
       </c>
       <c r="N20" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Zoneamento</v>
+        <f t="shared" si="27"/>
+        <v>Zona térmica</v>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Região Administrativa</v>
+        <f t="shared" si="28"/>
+        <v>Semiárido</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="R20" s="37" t="s">
         <v>108</v>
@@ -4398,165 +4422,165 @@
         <v>577</v>
       </c>
       <c r="W20" s="45" t="str">
+        <f t="shared" si="29"/>
+        <v>Key.Lim.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v>Limite</v>
+      </c>
+      <c r="M21" s="36" t="str">
+        <f t="shared" si="26"/>
+        <v>Bioclimático</v>
+      </c>
+      <c r="N21" s="36" t="str">
+        <f t="shared" si="27"/>
+        <v>Zona térmica</v>
+      </c>
+      <c r="O21" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v>Atlántico</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q21" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="R21" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T21" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V21" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W21" s="45" t="str">
+        <f t="shared" si="29"/>
+        <v>Key.Lim.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="35">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="36" t="str">
+        <f t="shared" ref="L22:L44" si="30">_xlfn.CONCAT(SUBSTITUTE(C22,"1_",""))</f>
+        <v>Limite</v>
+      </c>
+      <c r="M22" s="36" t="str">
+        <f t="shared" ref="M22:M44" si="31">_xlfn.CONCAT(SUBSTITUTE(D22,"."," "))</f>
+        <v>Urbano</v>
+      </c>
+      <c r="N22" s="36" t="str">
+        <f t="shared" ref="N22:N44" si="32">_xlfn.CONCAT(SUBSTITUTE(E22,"."," "))</f>
+        <v>De Zoneamento</v>
+      </c>
+      <c r="O22" s="36" t="str">
+        <f t="shared" ref="O22:O44" si="33">_xlfn.CONCAT(SUBSTITUTE(F22,"."," "))</f>
+        <v>Area de Planejamento</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T22" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V22" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W22" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35">
-        <v>21</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v>Limite</v>
-      </c>
-      <c r="M21" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>Urbano</v>
-      </c>
-      <c r="N21" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Zoneamento</v>
-      </c>
-      <c r="O21" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Area Interesse Especial</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q21" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="R21" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="S21" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="T21" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="U21" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="V21" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="W21" s="45" t="str">
-        <f t="shared" ref="W21" si="24">CONCATENATE("Key.",LEFT(C21,3),".",A21)</f>
-        <v>Key.Lim.21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35">
-        <v>22</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="G22" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="36" t="str">
-        <f t="shared" ref="L22" si="25">_xlfn.CONCAT(SUBSTITUTE(C22,"1_",""))</f>
-        <v>Limite</v>
-      </c>
-      <c r="M22" s="36" t="str">
-        <f t="shared" ref="M22" si="26">_xlfn.CONCAT(SUBSTITUTE(D22,"."," "))</f>
-        <v>Urbano</v>
-      </c>
-      <c r="N22" s="36" t="str">
-        <f t="shared" ref="N22" si="27">_xlfn.CONCAT(SUBSTITUTE(E22,"."," "))</f>
-        <v>De Zoneamento</v>
-      </c>
-      <c r="O22" s="36" t="str">
-        <f t="shared" ref="O22" si="28">_xlfn.CONCAT(SUBSTITUTE(F22,"."," "))</f>
-        <v>Area Restringida</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="R22" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="S22" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="T22" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="V22" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="W22" s="45" t="str">
-        <f t="shared" ref="W22" si="29">CONCATENATE("Key.",LEFT(C22,3),".",A22)</f>
-        <v>Key.Lim.22</v>
-      </c>
-    </row>
     <row r="23" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>251</v>
@@ -4571,7 +4595,7 @@
         <v>212</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="G23" s="47" t="s">
         <v>9</v>
@@ -4589,26 +4613,26 @@
         <v>9</v>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
       <c r="M23" s="36" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>Urbano</v>
       </c>
       <c r="N23" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Bairro</v>
+        <f t="shared" si="33"/>
+        <v>Região Administrativa</v>
       </c>
       <c r="P23" s="36" t="s">
-        <v>572</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="44" t="s">
-        <v>571</v>
+        <v>241</v>
       </c>
       <c r="R23" s="37" t="s">
         <v>108</v>
@@ -4627,12 +4651,12 @@
       </c>
       <c r="W23" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.23</v>
+        <v>Key.Lim.21</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>251</v>
@@ -4644,10 +4668,10 @@
         <v>191</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>563</v>
+        <v>212</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>192</v>
+        <v>565</v>
       </c>
       <c r="G24" s="47" t="s">
         <v>9</v>
@@ -4665,26 +4689,26 @@
         <v>9</v>
       </c>
       <c r="L24" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
       <c r="M24" s="36" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>Urbano</v>
       </c>
       <c r="N24" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Fração</v>
+        <f t="shared" si="32"/>
+        <v>De Zoneamento</v>
       </c>
       <c r="O24" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Quadra</v>
+        <f t="shared" si="33"/>
+        <v>Area Interesse Especial</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="Q24" s="44" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="R24" s="37" t="s">
         <v>108</v>
@@ -4702,317 +4726,317 @@
         <v>577</v>
       </c>
       <c r="W24" s="45" t="str">
+        <f t="shared" ref="W24" si="34">CONCATENATE("Key.",LEFT(C24,3),".",A24)</f>
+        <v>Key.Lim.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="36" t="str">
+        <f t="shared" ref="L25" si="35">_xlfn.CONCAT(SUBSTITUTE(C25,"1_",""))</f>
+        <v>Limite</v>
+      </c>
+      <c r="M25" s="36" t="str">
+        <f t="shared" ref="M25" si="36">_xlfn.CONCAT(SUBSTITUTE(D25,"."," "))</f>
+        <v>Urbano</v>
+      </c>
+      <c r="N25" s="36" t="str">
+        <f t="shared" ref="N25" si="37">_xlfn.CONCAT(SUBSTITUTE(E25,"."," "))</f>
+        <v>De Zoneamento</v>
+      </c>
+      <c r="O25" s="36" t="str">
+        <f t="shared" ref="O25" si="38">_xlfn.CONCAT(SUBSTITUTE(F25,"."," "))</f>
+        <v>Area Restringida</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="R25" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S25" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V25" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W25" s="45" t="str">
+        <f t="shared" ref="W25" si="39">CONCATENATE("Key.",LEFT(C25,3),".",A25)</f>
+        <v>Key.Lim.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="35">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v>Limite</v>
+      </c>
+      <c r="M26" s="36" t="str">
+        <f t="shared" si="31"/>
+        <v>Urbano</v>
+      </c>
+      <c r="N26" s="36" t="str">
+        <f t="shared" si="32"/>
+        <v>De Zoneamento</v>
+      </c>
+      <c r="O26" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Bairro</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q26" s="44" t="s">
+        <v>571</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U26" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V26" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W26" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.24</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35">
+    <row r="27" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
         <v>25</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B27" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D27" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F27" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M25" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M27" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Urbano</v>
       </c>
-      <c r="N25" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N27" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Fração</v>
       </c>
-      <c r="O25" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Gleba</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q25" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="R25" s="37" t="s">
+      <c r="O27" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Quadra</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q27" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="R27" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S25" s="37" t="s">
+      <c r="S27" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T25" s="37" t="s">
+      <c r="T27" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U25" s="37" t="s">
+      <c r="U27" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V25" s="37" t="s">
+      <c r="V27" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W25" s="45" t="str">
+      <c r="W27" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35">
+    <row r="28" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B28" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D28" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E28" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F28" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M26" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M28" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Urbano</v>
       </c>
-      <c r="N26" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N28" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Fração</v>
       </c>
-      <c r="O26" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Loteamento</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q26" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="R26" s="37" t="s">
+      <c r="O28" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Gleba</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q28" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="R28" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S26" s="37" t="s">
+      <c r="S28" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T26" s="37" t="s">
+      <c r="T28" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U26" s="37" t="s">
+      <c r="U28" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V26" s="37" t="s">
+      <c r="V28" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W26" s="45" t="str">
+      <c r="W28" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35">
-        <v>27</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="G27" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="36" t="str">
-        <f t="shared" ref="L27" si="30">_xlfn.CONCAT(SUBSTITUTE(C27,"1_",""))</f>
-        <v>Limite</v>
-      </c>
-      <c r="M27" s="36" t="str">
-        <f t="shared" ref="M27" si="31">_xlfn.CONCAT(SUBSTITUTE(D27,"."," "))</f>
-        <v>Urbano</v>
-      </c>
-      <c r="N27" s="36" t="str">
-        <f t="shared" ref="N27" si="32">_xlfn.CONCAT(SUBSTITUTE(E27,"."," "))</f>
-        <v>De Fração</v>
-      </c>
-      <c r="O27" s="36" t="str">
-        <f t="shared" ref="O27" si="33">_xlfn.CONCAT(SUBSTITUTE(F27,"."," "))</f>
-        <v>Parcela</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q27" s="44" t="s">
-        <v>576</v>
-      </c>
-      <c r="R27" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="S27" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="T27" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="U27" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="V27" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="W27" s="45" t="str">
-        <f t="shared" ref="W27" si="34">CONCATENATE("Key.",LEFT(C27,3),".",A27)</f>
-        <v>Key.Lim.27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35">
-        <v>28</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v>Limite</v>
-      </c>
-      <c r="M28" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>Urbano</v>
-      </c>
-      <c r="N28" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Fração</v>
-      </c>
-      <c r="O28" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Lote</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q28" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="R28" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="S28" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="T28" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="U28" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="V28" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="W28" s="45" t="str">
-        <f t="shared" si="4"/>
-        <v>Key.Lim.28</v>
-      </c>
-    </row>
     <row r="29" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="35">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>251</v>
@@ -5021,13 +5045,13 @@
         <v>181</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>213</v>
+        <v>563</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="G29" s="47" t="s">
         <v>9</v>
@@ -5045,26 +5069,26 @@
         <v>9</v>
       </c>
       <c r="L29" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
       <c r="M29" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>Predial</v>
+        <f t="shared" si="31"/>
+        <v>Urbano</v>
       </c>
       <c r="N29" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Construção</v>
+        <f t="shared" si="32"/>
+        <v>De Fração</v>
       </c>
       <c r="O29" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Prédio</v>
+        <f t="shared" si="33"/>
+        <v>Loteamento</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="44" t="s">
-        <v>136</v>
+        <v>242</v>
       </c>
       <c r="R29" s="37" t="s">
         <v>108</v>
@@ -5083,12 +5107,12 @@
       </c>
       <c r="W29" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.29</v>
+        <v>Key.Lim.27</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="35">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>251</v>
@@ -5097,13 +5121,13 @@
         <v>181</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>213</v>
+        <v>563</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>197</v>
+        <v>575</v>
       </c>
       <c r="G30" s="47" t="s">
         <v>9</v>
@@ -5121,26 +5145,26 @@
         <v>9</v>
       </c>
       <c r="L30" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="L30" si="40">_xlfn.CONCAT(SUBSTITUTE(C30,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M30" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>Predial</v>
+        <f t="shared" ref="M30" si="41">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
+        <v>Urbano</v>
       </c>
       <c r="N30" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Construção</v>
+        <f t="shared" ref="N30" si="42">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
+        <v>De Fração</v>
       </c>
       <c r="O30" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Bloco</v>
+        <f t="shared" ref="O30" si="43">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
+        <v>Parcela</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>197</v>
+        <v>576</v>
       </c>
       <c r="Q30" s="44" t="s">
-        <v>243</v>
+        <v>576</v>
       </c>
       <c r="R30" s="37" t="s">
         <v>108</v>
@@ -5158,844 +5182,1072 @@
         <v>577</v>
       </c>
       <c r="W30" s="45" t="str">
+        <f t="shared" ref="W30" si="44">CONCATENATE("Key.",LEFT(C30,3),".",A30)</f>
+        <v>Key.Lim.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="35">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v>Limite</v>
+      </c>
+      <c r="M31" s="36" t="str">
+        <f t="shared" si="31"/>
+        <v>Urbano</v>
+      </c>
+      <c r="N31" s="36" t="str">
+        <f t="shared" si="32"/>
+        <v>De Fração</v>
+      </c>
+      <c r="O31" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Lote</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q31" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="R31" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T31" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V31" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W31" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Key.Lim.29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="35">
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v>Limite</v>
+      </c>
+      <c r="M32" s="36" t="str">
+        <f t="shared" si="31"/>
+        <v>Predial</v>
+      </c>
+      <c r="N32" s="36" t="str">
+        <f t="shared" si="32"/>
+        <v>De Construção</v>
+      </c>
+      <c r="O32" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Prédio</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T32" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U32" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V32" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W32" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35">
+    <row r="33" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="35">
         <v>31</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C33" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D33" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E33" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F33" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M31" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M33" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Predial</v>
       </c>
-      <c r="N31" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N33" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Construção</v>
       </c>
-      <c r="O31" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Edifício</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q31" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="R31" s="37" t="s">
+      <c r="O33" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Bloco</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q33" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="R33" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S31" s="37" t="s">
+      <c r="S33" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T31" s="37" t="s">
+      <c r="T33" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U31" s="37" t="s">
+      <c r="U33" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V31" s="37" t="s">
+      <c r="V33" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W31" s="45" t="str">
+      <c r="W33" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35">
+    <row r="34" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="35">
         <v>32</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E34" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F34" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M32" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M34" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Predial</v>
       </c>
-      <c r="N32" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N34" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Construção</v>
       </c>
-      <c r="O32" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Casa</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q32" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="R32" s="37" t="s">
+      <c r="O34" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Edifício</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q34" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="R34" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S32" s="37" t="s">
+      <c r="S34" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T32" s="37" t="s">
+      <c r="T34" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U32" s="37" t="s">
+      <c r="U34" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V32" s="37" t="s">
+      <c r="V34" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W32" s="45" t="str">
+      <c r="W34" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.32</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35">
+    <row r="35" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="35">
         <v>33</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C35" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D35" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E35" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F35" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M33" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M35" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Predial</v>
       </c>
-      <c r="N33" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N35" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Construção</v>
       </c>
-      <c r="O33" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Galpão</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q33" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="R33" s="37" t="s">
+      <c r="O35" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Casa</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q35" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="R35" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S33" s="37" t="s">
+      <c r="S35" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T33" s="37" t="s">
+      <c r="T35" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U33" s="37" t="s">
+      <c r="U35" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V33" s="37" t="s">
+      <c r="V35" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W33" s="45" t="str">
+      <c r="W35" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.33</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="35">
+    <row r="36" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="35">
         <v>34</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B36" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L34" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F36" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M34" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M36" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Predial</v>
       </c>
-      <c r="N34" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N36" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Construção</v>
       </c>
-      <c r="O34" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Edícula</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="R34" s="37" t="s">
+      <c r="O36" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Galpão</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q36" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="R36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S34" s="37" t="s">
+      <c r="S36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T34" s="37" t="s">
+      <c r="T36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U34" s="37" t="s">
+      <c r="U36" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V34" s="37" t="s">
+      <c r="V36" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W34" s="45" t="str">
+      <c r="W36" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.34</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35">
+    <row r="37" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="35">
         <v>35</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B37" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C37" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="D37" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M35" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v>Funcional</v>
-      </c>
-      <c r="N35" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Organização</v>
-      </c>
-      <c r="O35" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Unidade</v>
-      </c>
-      <c r="P35" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q35" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="R35" s="37" t="s">
+      <c r="M37" s="36" t="str">
+        <f t="shared" si="31"/>
+        <v>Predial</v>
+      </c>
+      <c r="N37" s="36" t="str">
+        <f t="shared" si="32"/>
+        <v>De Construção</v>
+      </c>
+      <c r="O37" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Edícula</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="R37" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S35" s="37" t="s">
+      <c r="S37" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T35" s="37" t="s">
+      <c r="T37" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U35" s="37" t="s">
+      <c r="U37" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V35" s="37" t="s">
+      <c r="V37" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W35" s="45" t="str">
+      <c r="W37" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.35</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="35">
+    <row r="38" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="35">
         <v>36</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B38" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C38" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E38" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="G36" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L36" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F38" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M36" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M38" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Funcional</v>
       </c>
-      <c r="N36" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N38" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Organização</v>
       </c>
-      <c r="O36" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>SetorUrbano</v>
-      </c>
-      <c r="P36" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q36" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="R36" s="37" t="s">
+      <c r="O38" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Unidade</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q38" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="R38" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S36" s="37" t="s">
+      <c r="S38" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T36" s="37" t="s">
+      <c r="T38" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U36" s="37" t="s">
+      <c r="U38" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V36" s="37" t="s">
+      <c r="V38" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W36" s="45" t="str">
+      <c r="W38" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="35">
+    <row r="39" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="35">
         <v>37</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B39" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C39" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D39" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E39" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G37" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F39" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M37" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M39" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Funcional</v>
       </c>
-      <c r="N37" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N39" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Organização</v>
       </c>
-      <c r="O37" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Divisão</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q37" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="R37" s="37" t="s">
+      <c r="O39" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>SetorUrbano</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q39" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="R39" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S37" s="37" t="s">
+      <c r="S39" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T37" s="37" t="s">
+      <c r="T39" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U37" s="37" t="s">
+      <c r="U39" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V37" s="37" t="s">
+      <c r="V39" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W37" s="45" t="str">
+      <c r="W39" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.37</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="35">
+    <row r="40" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="35">
         <v>38</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B40" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E40" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="G38" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F40" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M38" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M40" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Funcional</v>
       </c>
-      <c r="N38" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N40" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Organização</v>
       </c>
-      <c r="O38" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Departamento</v>
-      </c>
-      <c r="P38" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q38" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="R38" s="37" t="s">
+      <c r="O40" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Divisão</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q40" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="R40" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S38" s="37" t="s">
+      <c r="S40" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T38" s="37" t="s">
+      <c r="T40" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U38" s="37" t="s">
+      <c r="U40" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V38" s="37" t="s">
+      <c r="V40" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W38" s="45" t="str">
+      <c r="W40" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.38</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="35">
+    <row r="41" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B41" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D41" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="E41" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M39" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M41" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Funcional</v>
       </c>
-      <c r="N39" s="36" t="str">
-        <f t="shared" si="22"/>
-        <v>De Distribuição</v>
-      </c>
-      <c r="O39" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Ambiente</v>
-      </c>
-      <c r="P39" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q39" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="R39" s="37" t="s">
+      <c r="N41" s="36" t="str">
+        <f t="shared" si="32"/>
+        <v>De Organização</v>
+      </c>
+      <c r="O41" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Departamento</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q41" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="R41" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S39" s="37" t="s">
+      <c r="S41" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="37" t="s">
+      <c r="T41" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U39" s="37" t="s">
+      <c r="U41" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V39" s="37" t="s">
+      <c r="V41" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W39" s="45" t="str">
+      <c r="W41" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="35">
+    <row r="42" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="35">
         <v>40</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B42" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D42" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E42" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K40" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L40" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F42" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M40" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M42" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Funcional</v>
       </c>
-      <c r="N40" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N42" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Distribuição</v>
       </c>
-      <c r="O40" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Apartamento</v>
-      </c>
-      <c r="P40" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q40" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="R40" s="37" t="s">
+      <c r="O42" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Ambiente</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q42" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="R42" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S40" s="37" t="s">
+      <c r="S42" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T40" s="37" t="s">
+      <c r="T42" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U40" s="37" t="s">
+      <c r="U42" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V40" s="37" t="s">
+      <c r="V42" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W40" s="45" t="str">
+      <c r="W42" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.40</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="35">
+    <row r="43" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="35">
         <v>41</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B43" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E43" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="F43" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="36" t="str">
+        <f t="shared" si="30"/>
         <v>Limite</v>
       </c>
-      <c r="M41" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="M43" s="36" t="str">
+        <f t="shared" si="31"/>
         <v>Funcional</v>
       </c>
-      <c r="N41" s="36" t="str">
-        <f t="shared" si="22"/>
+      <c r="N43" s="36" t="str">
+        <f t="shared" si="32"/>
         <v>De Distribuição</v>
       </c>
-      <c r="O41" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>Núcleo de Circulação</v>
-      </c>
-      <c r="P41" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q41" s="44" t="s">
-        <v>249</v>
-      </c>
-      <c r="R41" s="37" t="s">
+      <c r="O43" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Apartamento</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q43" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="R43" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="S41" s="37" t="s">
+      <c r="S43" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="T41" s="37" t="s">
+      <c r="T43" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="U41" s="37" t="s">
+      <c r="U43" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="V41" s="37" t="s">
+      <c r="V43" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="W41" s="45" t="str">
+      <c r="W43" s="45" t="str">
         <f t="shared" si="4"/>
         <v>Key.Lim.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="35">
+        <v>42</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v>Limite</v>
+      </c>
+      <c r="M44" s="36" t="str">
+        <f t="shared" si="31"/>
+        <v>Funcional</v>
+      </c>
+      <c r="N44" s="36" t="str">
+        <f t="shared" si="32"/>
+        <v>De Distribuição</v>
+      </c>
+      <c r="O44" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v>Núcleo de Circulação</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q44" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="R44" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S44" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T44" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U44" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V44" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W44" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>Key.Lim.42</v>
       </c>
     </row>
   </sheetData>
@@ -6178,15 +6430,16 @@
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="14" customWidth="1"/>
     <col min="2" max="2" width="6" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="14"/>
+    <col min="3" max="3" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
@@ -6236,10 +6489,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>9</v>
+        <v>597</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>9</v>
@@ -6250,13 +6503,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>9</v>
+        <v>106</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>598</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC4DCC-F02E-44AE-B0B0-EE21DF167F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCF9B5A-E58A-4786-A7A1-B88E909ED6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9369" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9454" uniqueCount="620">
   <si>
     <t>Edição</t>
   </si>
@@ -1876,6 +1876,63 @@
   </si>
   <si>
     <t>Municipio</t>
+  </si>
+  <si>
+    <t>Densidade</t>
+  </si>
+  <si>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>Area.Densa</t>
+  </si>
+  <si>
+    <t>Area.Pouco.Densa</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>IDU</t>
+  </si>
+  <si>
+    <t>População</t>
+  </si>
+  <si>
+    <t>Taxa.Urbanização</t>
+  </si>
+  <si>
+    <t>Evalua a calidad de vida e acceso a servicios urbanos</t>
+  </si>
+  <si>
+    <t>Avalia a qualidade de vida e acesso a serviços urbanos</t>
+  </si>
+  <si>
+    <t>Proporção entre população urbana e rural</t>
+  </si>
+  <si>
+    <t>Proporción entre población urbana y rural</t>
+  </si>
+  <si>
+    <t>Quantidade de habitantes por quilômetro quadrado</t>
+  </si>
+  <si>
+    <t>Cantidad de habitantes por kilómetro cuadrado</t>
+  </si>
+  <si>
+    <t>Expansão.Urbana</t>
+  </si>
+  <si>
+    <t>Crescimento</t>
+  </si>
+  <si>
+    <t>IBGE</t>
+  </si>
+  <si>
+    <t>Medida de crescimento físico das cidades</t>
+  </si>
+  <si>
+    <t>Medida de crecimiento físico de las ciudades</t>
   </si>
 </sst>
 </file>
@@ -2882,29 +2939,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88FC60-6162-41CE-8831-C9C26A24F489}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8:F10"/>
+      <selection pane="bottomLeft" activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="14" customWidth="1"/>
     <col min="4" max="4" width="6" style="14" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
     <col min="7" max="11" width="6.7109375" style="48" customWidth="1"/>
     <col min="12" max="12" width="6" style="14" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" style="38" customWidth="1"/>
     <col min="14" max="14" width="8" style="14" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="38" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="38" customWidth="1"/>
     <col min="18" max="19" width="5.42578125" style="38" customWidth="1"/>
     <col min="20" max="22" width="5.42578125" style="14" customWidth="1"/>
     <col min="23" max="23" width="6.5703125" style="14" bestFit="1" customWidth="1"/>
@@ -3105,7 +3162,7 @@
         <v>Político</v>
       </c>
       <c r="O3" s="36" t="str">
-        <f t="shared" ref="O3:P13" si="3">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
+        <f t="shared" ref="O3:O13" si="3">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
         <v>SubContinente</v>
       </c>
       <c r="P3" s="36" t="s">
@@ -3516,7 +3573,7 @@
     </row>
     <row r="9" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>251</v>
@@ -3561,7 +3618,7 @@
         <v>Político</v>
       </c>
       <c r="O9" s="36" t="str">
-        <f t="shared" ref="O9:P9" si="18">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
+        <f t="shared" ref="O9" si="18">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
         <v>Metrópoli</v>
       </c>
       <c r="P9" s="36" t="s">
@@ -3587,12 +3644,12 @@
       </c>
       <c r="W9" s="45" t="str">
         <f t="shared" ref="W9" si="19">CONCATENATE("Key.",LEFT(C9,3),".",A9)</f>
-        <v>Key.Lim.8</v>
+        <v>Key.Lim.9</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>251</v>
@@ -3663,12 +3720,12 @@
       </c>
       <c r="W10" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.8</v>
+        <v>Key.Lim.10</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>251</v>
@@ -3739,12 +3796,12 @@
       </c>
       <c r="W11" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.9</v>
+        <v>Key.Lim.11</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>251</v>
@@ -3815,12 +3872,12 @@
       </c>
       <c r="W12" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.10</v>
+        <v>Key.Lim.12</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="35">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>251</v>
@@ -3891,12 +3948,12 @@
       </c>
       <c r="W13" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.11</v>
+        <v>Key.Lim.13</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>251</v>
@@ -3967,12 +4024,12 @@
       </c>
       <c r="W14" s="45" t="str">
         <f t="shared" ref="W14:W15" si="24">CONCATENATE("Key.",LEFT(C14,3),".",A14)</f>
-        <v>Key.Lim.12</v>
+        <v>Key.Lim.14</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>251</v>
@@ -4043,12 +4100,12 @@
       </c>
       <c r="W15" s="45" t="str">
         <f t="shared" si="24"/>
-        <v>Key.Lim.13</v>
+        <v>Key.Lim.15</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>251</v>
@@ -4119,12 +4176,12 @@
       </c>
       <c r="W16" s="45" t="str">
         <f t="shared" ref="W16:W21" si="29">CONCATENATE("Key.",LEFT(C16,3),".",A16)</f>
-        <v>Key.Lim.14</v>
+        <v>Key.Lim.16</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>251</v>
@@ -4195,12 +4252,12 @@
       </c>
       <c r="W17" s="45" t="str">
         <f t="shared" si="29"/>
-        <v>Key.Lim.15</v>
+        <v>Key.Lim.17</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>251</v>
@@ -4271,12 +4328,12 @@
       </c>
       <c r="W18" s="45" t="str">
         <f t="shared" si="29"/>
-        <v>Key.Lim.16</v>
+        <v>Key.Lim.18</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="35">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>251</v>
@@ -4347,12 +4404,12 @@
       </c>
       <c r="W19" s="45" t="str">
         <f t="shared" si="29"/>
-        <v>Key.Lim.17</v>
+        <v>Key.Lim.19</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>251</v>
@@ -4423,12 +4480,12 @@
       </c>
       <c r="W20" s="45" t="str">
         <f t="shared" si="29"/>
-        <v>Key.Lim.18</v>
+        <v>Key.Lim.20</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>251</v>
@@ -4499,12 +4556,12 @@
       </c>
       <c r="W21" s="45" t="str">
         <f t="shared" si="29"/>
-        <v>Key.Lim.19</v>
+        <v>Key.Lim.21</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>251</v>
@@ -4575,12 +4632,12 @@
       </c>
       <c r="W22" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.20</v>
+        <v>Key.Lim.22</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>251</v>
@@ -4651,12 +4708,12 @@
       </c>
       <c r="W23" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.21</v>
+        <v>Key.Lim.23</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="35">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>251</v>
@@ -4727,12 +4784,12 @@
       </c>
       <c r="W24" s="45" t="str">
         <f t="shared" ref="W24" si="34">CONCATENATE("Key.",LEFT(C24,3),".",A24)</f>
-        <v>Key.Lim.22</v>
+        <v>Key.Lim.24</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="35">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>251</v>
@@ -4803,12 +4860,12 @@
       </c>
       <c r="W25" s="45" t="str">
         <f t="shared" ref="W25" si="39">CONCATENATE("Key.",LEFT(C25,3),".",A25)</f>
-        <v>Key.Lim.23</v>
+        <v>Key.Lim.25</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="35">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>251</v>
@@ -4879,12 +4936,12 @@
       </c>
       <c r="W26" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.24</v>
+        <v>Key.Lim.26</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="35">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>251</v>
@@ -4955,12 +5012,12 @@
       </c>
       <c r="W27" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.25</v>
+        <v>Key.Lim.27</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="35">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>251</v>
@@ -5031,12 +5088,12 @@
       </c>
       <c r="W28" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.26</v>
+        <v>Key.Lim.28</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="35">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>251</v>
@@ -5107,12 +5164,12 @@
       </c>
       <c r="W29" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.27</v>
+        <v>Key.Lim.29</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="35">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>251</v>
@@ -5183,12 +5240,12 @@
       </c>
       <c r="W30" s="45" t="str">
         <f t="shared" ref="W30" si="44">CONCATENATE("Key.",LEFT(C30,3),".",A30)</f>
-        <v>Key.Lim.28</v>
+        <v>Key.Lim.30</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="35">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>251</v>
@@ -5259,12 +5316,12 @@
       </c>
       <c r="W31" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.29</v>
+        <v>Key.Lim.31</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="35">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>251</v>
@@ -5335,12 +5392,12 @@
       </c>
       <c r="W32" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.30</v>
+        <v>Key.Lim.32</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="35">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>251</v>
@@ -5411,12 +5468,12 @@
       </c>
       <c r="W33" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.31</v>
+        <v>Key.Lim.33</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="35">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>251</v>
@@ -5487,12 +5544,12 @@
       </c>
       <c r="W34" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.32</v>
+        <v>Key.Lim.34</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>251</v>
@@ -5563,12 +5620,12 @@
       </c>
       <c r="W35" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.33</v>
+        <v>Key.Lim.35</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>251</v>
@@ -5639,12 +5696,12 @@
       </c>
       <c r="W36" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.34</v>
+        <v>Key.Lim.36</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="35">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>251</v>
@@ -5715,12 +5772,12 @@
       </c>
       <c r="W37" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.35</v>
+        <v>Key.Lim.37</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="35">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>251</v>
@@ -5791,12 +5848,12 @@
       </c>
       <c r="W38" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.36</v>
+        <v>Key.Lim.38</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="35">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>251</v>
@@ -5867,12 +5924,12 @@
       </c>
       <c r="W39" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.37</v>
+        <v>Key.Lim.39</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="35">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>251</v>
@@ -5943,12 +6000,12 @@
       </c>
       <c r="W40" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.38</v>
+        <v>Key.Lim.40</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="35">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>251</v>
@@ -6019,12 +6076,12 @@
       </c>
       <c r="W41" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.39</v>
+        <v>Key.Lim.41</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="35">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>251</v>
@@ -6095,12 +6152,12 @@
       </c>
       <c r="W42" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.40</v>
+        <v>Key.Lim.42</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="35">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>251</v>
@@ -6171,12 +6228,12 @@
       </c>
       <c r="W43" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.41</v>
+        <v>Key.Lim.43</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="35">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>251</v>
@@ -6247,7 +6304,387 @@
       </c>
       <c r="W44" s="45" t="str">
         <f t="shared" si="4"/>
-        <v>Key.Lim.42</v>
+        <v>Key.Lim.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="35">
+        <v>45</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="G45" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="36" t="str">
+        <f t="shared" ref="L45" si="45">_xlfn.CONCAT(SUBSTITUTE(C45,"1_",""))</f>
+        <v>IBGE</v>
+      </c>
+      <c r="M45" s="36" t="str">
+        <f t="shared" ref="M45" si="46">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
+        <v>Índice</v>
+      </c>
+      <c r="N45" s="36" t="str">
+        <f t="shared" ref="N45" si="47">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
+        <v>Densidade</v>
+      </c>
+      <c r="O45" s="36" t="str">
+        <f t="shared" ref="O45" si="48">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
+        <v>Area Densa</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>614</v>
+      </c>
+      <c r="R45" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S45" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T45" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U45" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V45" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W45" s="45" t="str">
+        <f t="shared" ref="W45" si="49">CONCATENATE("Key.",LEFT(C45,3),".",A45)</f>
+        <v>Key.IBG.45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="35">
+        <v>46</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="G46" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="36" t="str">
+        <f t="shared" ref="L46:L47" si="50">_xlfn.CONCAT(SUBSTITUTE(C46,"1_",""))</f>
+        <v>IBGE</v>
+      </c>
+      <c r="M46" s="36" t="str">
+        <f t="shared" ref="M46:M47" si="51">_xlfn.CONCAT(SUBSTITUTE(D46,"."," "))</f>
+        <v>Índice</v>
+      </c>
+      <c r="N46" s="36" t="str">
+        <f t="shared" ref="N46:N47" si="52">_xlfn.CONCAT(SUBSTITUTE(E46,"."," "))</f>
+        <v>Densidade</v>
+      </c>
+      <c r="O46" s="36" t="str">
+        <f t="shared" ref="O46:O47" si="53">_xlfn.CONCAT(SUBSTITUTE(F46,"."," "))</f>
+        <v>Area Pouco Densa</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>614</v>
+      </c>
+      <c r="R46" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S46" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T46" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U46" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V46" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W46" s="45" t="str">
+        <f t="shared" ref="W46:W47" si="54">CONCATENATE("Key.",LEFT(C46,3),".",A46)</f>
+        <v>Key.IBG.46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="35">
+        <v>47</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="G47" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" s="36" t="str">
+        <f t="shared" si="50"/>
+        <v>IBGE</v>
+      </c>
+      <c r="M47" s="36" t="str">
+        <f t="shared" si="51"/>
+        <v>Índice</v>
+      </c>
+      <c r="N47" s="36" t="str">
+        <f t="shared" si="52"/>
+        <v>Desenvolvimento</v>
+      </c>
+      <c r="O47" s="36" t="str">
+        <f t="shared" si="53"/>
+        <v>IDU</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>609</v>
+      </c>
+      <c r="R47" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S47" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T47" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U47" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V47" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W47" s="45" t="str">
+        <f t="shared" si="54"/>
+        <v>Key.IBG.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="35">
+        <v>48</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="36" t="str">
+        <f t="shared" ref="L48" si="55">_xlfn.CONCAT(SUBSTITUTE(C48,"1_",""))</f>
+        <v>IBGE</v>
+      </c>
+      <c r="M48" s="36" t="str">
+        <f t="shared" ref="M48" si="56">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
+        <v>Índice</v>
+      </c>
+      <c r="N48" s="36" t="str">
+        <f t="shared" ref="N48" si="57">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
+        <v>População</v>
+      </c>
+      <c r="O48" s="36" t="str">
+        <f t="shared" ref="O48" si="58">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
+        <v>Taxa Urbanização</v>
+      </c>
+      <c r="P48" s="36" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="R48" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S48" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T48" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U48" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V48" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W48" s="45" t="str">
+        <f t="shared" ref="W48" si="59">CONCATENATE("Key.",LEFT(C48,3),".",A48)</f>
+        <v>Key.IBG.48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="35">
+        <v>49</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="36" t="str">
+        <f t="shared" ref="L49" si="60">_xlfn.CONCAT(SUBSTITUTE(C49,"1_",""))</f>
+        <v>IBGE</v>
+      </c>
+      <c r="M49" s="36" t="str">
+        <f t="shared" ref="M49" si="61">_xlfn.CONCAT(SUBSTITUTE(D49,"."," "))</f>
+        <v>Índice</v>
+      </c>
+      <c r="N49" s="36" t="str">
+        <f t="shared" ref="N49" si="62">_xlfn.CONCAT(SUBSTITUTE(E49,"."," "))</f>
+        <v>Crescimento</v>
+      </c>
+      <c r="O49" s="36" t="str">
+        <f t="shared" ref="O49" si="63">_xlfn.CONCAT(SUBSTITUTE(F49,"."," "))</f>
+        <v>Expansão Urbana</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="R49" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="S49" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T49" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="U49" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="V49" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="W49" s="45" t="str">
+        <f t="shared" ref="W49" si="64">CONCATENATE("Key.",LEFT(C49,3),".",A49)</f>
+        <v>Key.IBG.49</v>
       </c>
     </row>
   </sheetData>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE690F7-F7EA-4A1E-B97E-014D27778FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8B98E9-EB76-4975-A7A1-ACE43CC97E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9457" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9436" uniqueCount="628">
   <si>
     <t>Edição</t>
   </si>
@@ -1939,6 +1939,24 @@
   </si>
   <si>
     <t>tem.região.administrativa</t>
+  </si>
+  <si>
+    <t>é.dentro.de some Lote</t>
+  </si>
+  <si>
+    <t>é.dentro.de some Prédio</t>
+  </si>
+  <si>
+    <t>Atlántica</t>
+  </si>
+  <si>
+    <t>Semiárida</t>
+  </si>
+  <si>
+    <t>é.dentro.de some Cidade</t>
+  </si>
+  <si>
+    <t>é.dentro.de some Bairro</t>
   </si>
 </sst>
 </file>
@@ -2947,10 +2965,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88FC60-6162-41CE-8831-C9C26A24F489}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2961,7 +2979,11 @@
     <col min="4" max="4" width="6" style="14" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" style="14" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="14" customWidth="1"/>
-    <col min="7" max="11" width="6.7109375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="14" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" style="38" customWidth="1"/>
     <col min="14" max="14" width="8" style="14" customWidth="1"/>
@@ -3064,11 +3086,13 @@
       <c r="F2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>9</v>
+      <c r="G2" s="47" t="str">
+        <f t="shared" ref="G2:H2" si="0">_xlfn.CONCAT("tem.nome some ",B2)</f>
+        <v>tem.nome some Projeto</v>
+      </c>
+      <c r="H2" s="47" t="str">
+        <f t="shared" si="0"/>
+        <v>tem.nome some Fronteira</v>
       </c>
       <c r="I2" s="47" t="s">
         <v>9</v>
@@ -3076,8 +3100,9 @@
       <c r="J2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="47" t="s">
-        <v>9</v>
+      <c r="K2" s="47" t="str">
+        <f>_xlfn.CONCAT("tem.nome some ",F2)</f>
+        <v>tem.nome some Continente</v>
       </c>
       <c r="L2" s="36" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(C2,"1_",""))</f>
@@ -3156,19 +3181,19 @@
         <v>9</v>
       </c>
       <c r="L3" s="36" t="str">
-        <f t="shared" ref="L3:L15" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
+        <f t="shared" ref="L3:L15" si="1">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M3" s="36" t="str">
-        <f t="shared" ref="M3:M15" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
+        <f t="shared" ref="M3:M15" si="2">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N3" s="36" t="str">
-        <f t="shared" ref="N3:N15" si="2">_xlfn.CONCAT(SUBSTITUTE(E3,"."," "))</f>
+        <f t="shared" ref="N3:N15" si="3">_xlfn.CONCAT(SUBSTITUTE(E3,"."," "))</f>
         <v>Natural</v>
       </c>
       <c r="O3" s="36" t="str">
-        <f t="shared" ref="O3:O15" si="3">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
+        <f t="shared" ref="O3:O15" si="4">_xlfn.CONCAT(SUBSTITUTE(F3,"."," "))</f>
         <v>SubContinente</v>
       </c>
       <c r="P3" s="36" t="s">
@@ -3193,7 +3218,7 @@
         <v>570</v>
       </c>
       <c r="W3" s="45" t="str">
-        <f t="shared" ref="W3:W44" si="4">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" ref="W3:W44" si="5">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
         <v>Key.Fro.3</v>
       </c>
     </row>
@@ -3232,19 +3257,19 @@
         <v>9</v>
       </c>
       <c r="L4" s="36" t="str">
-        <f t="shared" ref="L4:L8" si="5">_xlfn.CONCAT(SUBSTITUTE(C4,"1_",""))</f>
+        <f t="shared" ref="L4:L8" si="6">_xlfn.CONCAT(SUBSTITUTE(C4,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M4" s="36" t="str">
-        <f t="shared" ref="M4:M8" si="6">_xlfn.CONCAT(SUBSTITUTE(D4,"."," "))</f>
+        <f t="shared" ref="M4:M8" si="7">_xlfn.CONCAT(SUBSTITUTE(D4,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N4" s="36" t="str">
-        <f t="shared" ref="N4:N8" si="7">_xlfn.CONCAT(SUBSTITUTE(E4,"."," "))</f>
+        <f t="shared" ref="N4:N8" si="8">_xlfn.CONCAT(SUBSTITUTE(E4,"."," "))</f>
         <v>Natural</v>
       </c>
       <c r="O4" s="36" t="str">
-        <f t="shared" ref="O4:O8" si="8">_xlfn.CONCAT(SUBSTITUTE(F4,"."," "))</f>
+        <f t="shared" ref="O4:O8" si="9">_xlfn.CONCAT(SUBSTITUTE(F4,"."," "))</f>
         <v>Árido</v>
       </c>
       <c r="P4" s="36" t="s">
@@ -3269,7 +3294,7 @@
         <v>570</v>
       </c>
       <c r="W4" s="45" t="str">
-        <f t="shared" ref="W4:W8" si="9">CONCATENATE("Key.",LEFT(C4,3),".",A4)</f>
+        <f t="shared" ref="W4:W8" si="10">CONCATENATE("Key.",LEFT(C4,3),".",A4)</f>
         <v>Key.Fro.4</v>
       </c>
     </row>
@@ -3308,19 +3333,19 @@
         <v>9</v>
       </c>
       <c r="L5" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Fronteira</v>
       </c>
       <c r="M5" s="36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Geográfica</v>
       </c>
       <c r="N5" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Natural</v>
       </c>
       <c r="O5" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Hidrográfico</v>
       </c>
       <c r="P5" s="36" t="s">
@@ -3345,7 +3370,7 @@
         <v>570</v>
       </c>
       <c r="W5" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Key.Fro.5</v>
       </c>
     </row>
@@ -3384,19 +3409,19 @@
         <v>9</v>
       </c>
       <c r="L6" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Fronteira</v>
       </c>
       <c r="M6" s="36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Geográfica</v>
       </c>
       <c r="N6" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Natural</v>
       </c>
       <c r="O6" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Florestal</v>
       </c>
       <c r="P6" s="36" t="s">
@@ -3421,7 +3446,7 @@
         <v>570</v>
       </c>
       <c r="W6" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Key.Fro.6</v>
       </c>
     </row>
@@ -3460,19 +3485,19 @@
         <v>9</v>
       </c>
       <c r="L7" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Fronteira</v>
       </c>
       <c r="M7" s="36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Geográfica</v>
       </c>
       <c r="N7" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Natural</v>
       </c>
       <c r="O7" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Oceânico</v>
       </c>
       <c r="P7" s="36" t="s">
@@ -3497,7 +3522,7 @@
         <v>570</v>
       </c>
       <c r="W7" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Key.Fro.7</v>
       </c>
     </row>
@@ -3536,19 +3561,19 @@
         <v>9</v>
       </c>
       <c r="L8" s="36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Fronteira</v>
       </c>
       <c r="M8" s="36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Geográfica</v>
       </c>
       <c r="N8" s="36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Natural</v>
       </c>
       <c r="O8" s="36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>Montanhoso</v>
       </c>
       <c r="P8" s="36" t="s">
@@ -3573,7 +3598,7 @@
         <v>570</v>
       </c>
       <c r="W8" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>Key.Fro.8</v>
       </c>
     </row>
@@ -3608,23 +3633,24 @@
       <c r="J9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="47" t="s">
-        <v>9</v>
+      <c r="K9" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F2)</f>
+        <v>é.dentro.de some Continente</v>
       </c>
       <c r="L9" s="36" t="str">
-        <f t="shared" ref="L9" si="10">_xlfn.CONCAT(SUBSTITUTE(C9,"1_",""))</f>
+        <f t="shared" ref="L9" si="11">_xlfn.CONCAT(SUBSTITUTE(C9,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M9" s="36" t="str">
-        <f t="shared" ref="M9" si="11">_xlfn.CONCAT(SUBSTITUTE(D9,"."," "))</f>
+        <f t="shared" ref="M9" si="12">_xlfn.CONCAT(SUBSTITUTE(D9,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N9" s="36" t="str">
-        <f t="shared" ref="N9" si="12">_xlfn.CONCAT(SUBSTITUTE(E9,"."," "))</f>
+        <f t="shared" ref="N9" si="13">_xlfn.CONCAT(SUBSTITUTE(E9,"."," "))</f>
         <v>Política</v>
       </c>
       <c r="O9" s="36" t="str">
-        <f t="shared" ref="O9" si="13">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
+        <f t="shared" ref="O9" si="14">_xlfn.CONCAT(SUBSTITUTE(F9,"."," "))</f>
         <v>País</v>
       </c>
       <c r="P9" s="36" t="s">
@@ -3649,7 +3675,7 @@
         <v>570</v>
       </c>
       <c r="W9" s="45" t="str">
-        <f t="shared" ref="W9" si="14">CONCATENATE("Key.",LEFT(C9,3),".",A9)</f>
+        <f t="shared" ref="W9" si="15">CONCATENATE("Key.",LEFT(C9,3),".",A9)</f>
         <v>Key.Fro.9</v>
       </c>
     </row>
@@ -3688,19 +3714,19 @@
         <v>9</v>
       </c>
       <c r="L10" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fronteira</v>
       </c>
       <c r="M10" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Geográfica</v>
       </c>
       <c r="N10" s="36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Política</v>
       </c>
       <c r="O10" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Nação</v>
       </c>
       <c r="P10" s="36" t="s">
@@ -3725,7 +3751,7 @@
         <v>570</v>
       </c>
       <c r="W10" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Fro.10</v>
       </c>
     </row>
@@ -3760,23 +3786,24 @@
       <c r="J11" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="47" t="s">
-        <v>9</v>
+      <c r="K11" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F9)</f>
+        <v>é.dentro.de some País</v>
       </c>
       <c r="L11" s="36" t="str">
-        <f t="shared" ref="L11" si="15">_xlfn.CONCAT(SUBSTITUTE(C11,"1_",""))</f>
+        <f t="shared" ref="L11" si="16">_xlfn.CONCAT(SUBSTITUTE(C11,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M11" s="36" t="str">
-        <f t="shared" ref="M11" si="16">_xlfn.CONCAT(SUBSTITUTE(D11,"."," "))</f>
+        <f t="shared" ref="M11" si="17">_xlfn.CONCAT(SUBSTITUTE(D11,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N11" s="36" t="str">
-        <f t="shared" ref="N11" si="17">_xlfn.CONCAT(SUBSTITUTE(E11,"."," "))</f>
+        <f t="shared" ref="N11" si="18">_xlfn.CONCAT(SUBSTITUTE(E11,"."," "))</f>
         <v>Política</v>
       </c>
       <c r="O11" s="36" t="str">
-        <f t="shared" ref="O11" si="18">_xlfn.CONCAT(SUBSTITUTE(F11,"."," "))</f>
+        <f t="shared" ref="O11" si="19">_xlfn.CONCAT(SUBSTITUTE(F11,"."," "))</f>
         <v>Estado</v>
       </c>
       <c r="P11" s="36" t="s">
@@ -3801,7 +3828,7 @@
         <v>570</v>
       </c>
       <c r="W11" s="45" t="str">
-        <f t="shared" ref="W11" si="19">CONCATENATE("Key.",LEFT(C11,3),".",A11)</f>
+        <f t="shared" ref="W11" si="20">CONCATENATE("Key.",LEFT(C11,3),".",A11)</f>
         <v>Key.Fro.11</v>
       </c>
     </row>
@@ -3840,19 +3867,19 @@
         <v>9</v>
       </c>
       <c r="L12" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fronteira</v>
       </c>
       <c r="M12" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Geográfica</v>
       </c>
       <c r="N12" s="36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Política</v>
       </c>
       <c r="O12" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Província</v>
       </c>
       <c r="P12" s="36" t="s">
@@ -3877,7 +3904,7 @@
         <v>570</v>
       </c>
       <c r="W12" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Fro.12</v>
       </c>
     </row>
@@ -3916,19 +3943,19 @@
         <v>9</v>
       </c>
       <c r="L13" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fronteira</v>
       </c>
       <c r="M13" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Geográfica</v>
       </c>
       <c r="N13" s="36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Política</v>
       </c>
       <c r="O13" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Cidade</v>
       </c>
       <c r="P13" s="36" t="s">
@@ -3953,7 +3980,7 @@
         <v>570</v>
       </c>
       <c r="W13" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Fro.13</v>
       </c>
     </row>
@@ -3992,19 +4019,19 @@
         <v>9</v>
       </c>
       <c r="L14" s="36" t="str">
-        <f t="shared" ref="L14" si="20">_xlfn.CONCAT(SUBSTITUTE(C14,"1_",""))</f>
+        <f t="shared" ref="L14" si="21">_xlfn.CONCAT(SUBSTITUTE(C14,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M14" s="36" t="str">
-        <f t="shared" ref="M14" si="21">_xlfn.CONCAT(SUBSTITUTE(D14,"."," "))</f>
+        <f t="shared" ref="M14" si="22">_xlfn.CONCAT(SUBSTITUTE(D14,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N14" s="36" t="str">
-        <f t="shared" ref="N14" si="22">_xlfn.CONCAT(SUBSTITUTE(E14,"."," "))</f>
+        <f t="shared" ref="N14" si="23">_xlfn.CONCAT(SUBSTITUTE(E14,"."," "))</f>
         <v>Política</v>
       </c>
       <c r="O14" s="36" t="str">
-        <f t="shared" ref="O14" si="23">_xlfn.CONCAT(SUBSTITUTE(F14,"."," "))</f>
+        <f t="shared" ref="O14" si="24">_xlfn.CONCAT(SUBSTITUTE(F14,"."," "))</f>
         <v>Metrópoli</v>
       </c>
       <c r="P14" s="36" t="s">
@@ -4029,7 +4056,7 @@
         <v>570</v>
       </c>
       <c r="W14" s="45" t="str">
-        <f t="shared" ref="W14" si="24">CONCATENATE("Key.",LEFT(C14,3),".",A14)</f>
+        <f t="shared" ref="W14" si="25">CONCATENATE("Key.",LEFT(C14,3),".",A14)</f>
         <v>Key.Fro.14</v>
       </c>
     </row>
@@ -4064,23 +4091,24 @@
       <c r="J15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="47" t="s">
-        <v>9</v>
+      <c r="K15" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F11)</f>
+        <v>é.dentro.de some Estado</v>
       </c>
       <c r="L15" s="36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Fronteira</v>
       </c>
       <c r="M15" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Geográfica</v>
       </c>
       <c r="N15" s="36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Política</v>
       </c>
       <c r="O15" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Município</v>
       </c>
       <c r="P15" s="36" t="s">
@@ -4105,7 +4133,7 @@
         <v>570</v>
       </c>
       <c r="W15" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Fro.15</v>
       </c>
     </row>
@@ -4140,23 +4168,24 @@
       <c r="J16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="47" t="s">
-        <v>9</v>
+      <c r="K16" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",D16)</f>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L16" s="36" t="str">
-        <f t="shared" ref="L16:L21" si="25">_xlfn.CONCAT(SUBSTITUTE(C16,"1_",""))</f>
+        <f t="shared" ref="L16:L21" si="26">_xlfn.CONCAT(SUBSTITUTE(C16,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M16" s="36" t="str">
-        <f t="shared" ref="M16:M21" si="26">_xlfn.CONCAT(SUBSTITUTE(D16,"."," "))</f>
+        <f t="shared" ref="M16:M21" si="27">_xlfn.CONCAT(SUBSTITUTE(D16,"."," "))</f>
         <v>Bioclimático</v>
       </c>
       <c r="N16" s="36" t="str">
-        <f t="shared" ref="N16:N21" si="27">_xlfn.CONCAT(SUBSTITUTE(E16,"."," "))</f>
+        <f t="shared" ref="N16:N21" si="28">_xlfn.CONCAT(SUBSTITUTE(E16,"."," "))</f>
         <v>Zona térmica</v>
       </c>
       <c r="O16" s="36" t="str">
-        <f t="shared" ref="O16:O21" si="28">_xlfn.CONCAT(SUBSTITUTE(F16,"."," "))</f>
+        <f t="shared" ref="O16:O21" si="29">_xlfn.CONCAT(SUBSTITUTE(F16,"."," "))</f>
         <v>Polar</v>
       </c>
       <c r="P16" s="36" t="s">
@@ -4181,7 +4210,7 @@
         <v>570</v>
       </c>
       <c r="W16" s="45" t="str">
-        <f t="shared" ref="W16:W21" si="29">CONCATENATE("Key.",LEFT(C16,3),".",A16)</f>
+        <f t="shared" ref="W16:W21" si="30">CONCATENATE("Key.",LEFT(C16,3),".",A16)</f>
         <v>Key.Lim.16</v>
       </c>
     </row>
@@ -4216,23 +4245,24 @@
       <c r="J17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="47" t="s">
-        <v>9</v>
+      <c r="K17" s="47" t="str">
+        <f t="shared" ref="K17:K21" si="31">_xlfn.CONCAT("é.dentro.de some ",D17)</f>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L17" s="36" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Limite</v>
       </c>
       <c r="M17" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Bioclimático</v>
       </c>
       <c r="N17" s="36" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Zona térmica</v>
       </c>
       <c r="O17" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>Equatorial</v>
       </c>
       <c r="P17" s="36" t="s">
@@ -4257,7 +4287,7 @@
         <v>570</v>
       </c>
       <c r="W17" s="45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Key.Lim.17</v>
       </c>
     </row>
@@ -4292,23 +4322,24 @@
       <c r="J18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="47" t="s">
-        <v>9</v>
+      <c r="K18" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L18" s="36" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Limite</v>
       </c>
       <c r="M18" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Bioclimático</v>
       </c>
       <c r="N18" s="36" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Zona térmica</v>
       </c>
       <c r="O18" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>Tropical</v>
       </c>
       <c r="P18" s="36" t="s">
@@ -4333,7 +4364,7 @@
         <v>570</v>
       </c>
       <c r="W18" s="45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Key.Lim.18</v>
       </c>
     </row>
@@ -4368,23 +4399,24 @@
       <c r="J19" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="47" t="s">
-        <v>9</v>
+      <c r="K19" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L19" s="36" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Limite</v>
       </c>
       <c r="M19" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Bioclimático</v>
       </c>
       <c r="N19" s="36" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Zona térmica</v>
       </c>
       <c r="O19" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>Subtropical</v>
       </c>
       <c r="P19" s="36" t="s">
@@ -4409,7 +4441,7 @@
         <v>570</v>
       </c>
       <c r="W19" s="45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Key.Lim.19</v>
       </c>
     </row>
@@ -4430,7 +4462,7 @@
         <v>205</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>183</v>
+        <v>625</v>
       </c>
       <c r="G20" s="47" t="s">
         <v>9</v>
@@ -4444,24 +4476,25 @@
       <c r="J20" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="47" t="s">
-        <v>9</v>
+      <c r="K20" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L20" s="36" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Limite</v>
       </c>
       <c r="M20" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Bioclimático</v>
       </c>
       <c r="N20" s="36" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Zona térmica</v>
       </c>
       <c r="O20" s="36" t="str">
-        <f t="shared" si="28"/>
-        <v>Semiárido</v>
+        <f t="shared" si="29"/>
+        <v>Semiárida</v>
       </c>
       <c r="P20" s="36" t="s">
         <v>183</v>
@@ -4485,7 +4518,7 @@
         <v>570</v>
       </c>
       <c r="W20" s="45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Key.Lim.20</v>
       </c>
     </row>
@@ -4506,7 +4539,7 @@
         <v>205</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="G21" s="47" t="s">
         <v>9</v>
@@ -4520,24 +4553,25 @@
       <c r="J21" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="47" t="s">
-        <v>9</v>
+      <c r="K21" s="47" t="str">
+        <f t="shared" si="31"/>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L21" s="36" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>Limite</v>
       </c>
       <c r="M21" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>Bioclimático</v>
       </c>
       <c r="N21" s="36" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>Zona térmica</v>
       </c>
       <c r="O21" s="36" t="str">
-        <f t="shared" si="28"/>
-        <v>Atlántico</v>
+        <f t="shared" si="29"/>
+        <v>Atlántica</v>
       </c>
       <c r="P21" s="36" t="s">
         <v>184</v>
@@ -4561,7 +4595,7 @@
         <v>570</v>
       </c>
       <c r="W21" s="45" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Key.Lim.21</v>
       </c>
     </row>
@@ -4593,26 +4627,28 @@
       <c r="I22" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="47" t="s">
-        <v>9</v>
+      <c r="J22" s="47" t="str">
+        <f>_xlfn.CONCAT("tem.area.de.planejamento some ",E22)</f>
+        <v>tem.area.de.planejamento some De.Zoneamento</v>
+      </c>
+      <c r="K22" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F13)</f>
+        <v>é.dentro.de some Cidade</v>
       </c>
       <c r="L22" s="36" t="str">
-        <f t="shared" ref="L22:L44" si="30">_xlfn.CONCAT(SUBSTITUTE(C22,"1_",""))</f>
+        <f t="shared" ref="L22:L44" si="32">_xlfn.CONCAT(SUBSTITUTE(C22,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M22" s="36" t="str">
-        <f t="shared" ref="M22:M44" si="31">_xlfn.CONCAT(SUBSTITUTE(D22,"."," "))</f>
+        <f t="shared" ref="M22:M44" si="33">_xlfn.CONCAT(SUBSTITUTE(D22,"."," "))</f>
         <v>Urbano</v>
       </c>
       <c r="N22" s="36" t="str">
-        <f t="shared" ref="N22:N44" si="32">_xlfn.CONCAT(SUBSTITUTE(E22,"."," "))</f>
+        <f t="shared" ref="N22:N44" si="34">_xlfn.CONCAT(SUBSTITUTE(E22,"."," "))</f>
         <v>De Zoneamento</v>
       </c>
       <c r="O22" s="36" t="str">
-        <f t="shared" ref="O22:O44" si="33">_xlfn.CONCAT(SUBSTITUTE(F22,"."," "))</f>
+        <f t="shared" ref="O22:O44" si="35">_xlfn.CONCAT(SUBSTITUTE(F22,"."," "))</f>
         <v>Area de Planejamento</v>
       </c>
       <c r="P22" s="36" t="s">
@@ -4637,7 +4673,7 @@
         <v>570</v>
       </c>
       <c r="W22" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.22</v>
       </c>
     </row>
@@ -4669,26 +4705,28 @@
       <c r="I23" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>9</v>
+      <c r="J23" s="47" t="str">
+        <f>_xlfn.CONCAT("tem.região.administrativa some ",E23)</f>
+        <v>tem.região.administrativa some De.Zoneamento</v>
+      </c>
+      <c r="K23" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F22)</f>
+        <v>é.dentro.de some Area.de.Planejamento</v>
       </c>
       <c r="L23" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M23" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Urbano</v>
       </c>
       <c r="N23" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O23" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Região Administrativa</v>
       </c>
       <c r="P23" s="36" t="s">
@@ -4713,7 +4751,7 @@
         <v>570</v>
       </c>
       <c r="W23" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.23</v>
       </c>
     </row>
@@ -4752,19 +4790,19 @@
         <v>9</v>
       </c>
       <c r="L24" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M24" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Urbano</v>
       </c>
       <c r="N24" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O24" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Area Interesse Especial</v>
       </c>
       <c r="P24" s="36" t="s">
@@ -4789,7 +4827,7 @@
         <v>570</v>
       </c>
       <c r="W24" s="45" t="str">
-        <f t="shared" ref="W24" si="34">CONCATENATE("Key.",LEFT(C24,3),".",A24)</f>
+        <f t="shared" ref="W24" si="36">CONCATENATE("Key.",LEFT(C24,3),".",A24)</f>
         <v>Key.Lim.24</v>
       </c>
     </row>
@@ -4828,19 +4866,19 @@
         <v>9</v>
       </c>
       <c r="L25" s="36" t="str">
-        <f t="shared" ref="L25" si="35">_xlfn.CONCAT(SUBSTITUTE(C25,"1_",""))</f>
+        <f t="shared" ref="L25" si="37">_xlfn.CONCAT(SUBSTITUTE(C25,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M25" s="36" t="str">
-        <f t="shared" ref="M25" si="36">_xlfn.CONCAT(SUBSTITUTE(D25,"."," "))</f>
+        <f t="shared" ref="M25" si="38">_xlfn.CONCAT(SUBSTITUTE(D25,"."," "))</f>
         <v>Urbano</v>
       </c>
       <c r="N25" s="36" t="str">
-        <f t="shared" ref="N25" si="37">_xlfn.CONCAT(SUBSTITUTE(E25,"."," "))</f>
+        <f t="shared" ref="N25" si="39">_xlfn.CONCAT(SUBSTITUTE(E25,"."," "))</f>
         <v>De Zoneamento</v>
       </c>
       <c r="O25" s="36" t="str">
-        <f t="shared" ref="O25" si="38">_xlfn.CONCAT(SUBSTITUTE(F25,"."," "))</f>
+        <f t="shared" ref="O25" si="40">_xlfn.CONCAT(SUBSTITUTE(F25,"."," "))</f>
         <v>Area Restringida</v>
       </c>
       <c r="P25" s="36" t="s">
@@ -4865,7 +4903,7 @@
         <v>570</v>
       </c>
       <c r="W25" s="45" t="str">
-        <f t="shared" ref="W25" si="39">CONCATENATE("Key.",LEFT(C25,3),".",A25)</f>
+        <f t="shared" ref="W25" si="41">CONCATENATE("Key.",LEFT(C25,3),".",A25)</f>
         <v>Key.Lim.25</v>
       </c>
     </row>
@@ -4901,22 +4939,22 @@
         <v>9</v>
       </c>
       <c r="K26" s="47" t="s">
-        <v>9</v>
+        <v>626</v>
       </c>
       <c r="L26" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M26" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Urbano</v>
       </c>
       <c r="N26" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O26" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Bairro</v>
       </c>
       <c r="P26" s="36" t="s">
@@ -4941,7 +4979,7 @@
         <v>570</v>
       </c>
       <c r="W26" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.26</v>
       </c>
     </row>
@@ -4973,26 +5011,27 @@
       <c r="I27" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="47" t="s">
-        <v>9</v>
+      <c r="J27" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F26)</f>
+        <v>é.dentro.de some Bairro</v>
       </c>
       <c r="K27" s="47" t="s">
-        <v>9</v>
+        <v>627</v>
       </c>
       <c r="L27" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M27" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Urbano</v>
       </c>
       <c r="N27" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Fração</v>
       </c>
       <c r="O27" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Quadra</v>
       </c>
       <c r="P27" s="36" t="s">
@@ -5017,7 +5056,7 @@
         <v>570</v>
       </c>
       <c r="W27" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.27</v>
       </c>
     </row>
@@ -5056,19 +5095,19 @@
         <v>9</v>
       </c>
       <c r="L28" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M28" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Urbano</v>
       </c>
       <c r="N28" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Fração</v>
       </c>
       <c r="O28" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Gleba</v>
       </c>
       <c r="P28" s="36" t="s">
@@ -5093,7 +5132,7 @@
         <v>570</v>
       </c>
       <c r="W28" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.28</v>
       </c>
     </row>
@@ -5132,19 +5171,19 @@
         <v>9</v>
       </c>
       <c r="L29" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M29" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Urbano</v>
       </c>
       <c r="N29" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Fração</v>
       </c>
       <c r="O29" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Loteamento</v>
       </c>
       <c r="P29" s="36" t="s">
@@ -5169,7 +5208,7 @@
         <v>570</v>
       </c>
       <c r="W29" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.29</v>
       </c>
     </row>
@@ -5208,19 +5247,19 @@
         <v>9</v>
       </c>
       <c r="L30" s="36" t="str">
-        <f t="shared" ref="L30" si="40">_xlfn.CONCAT(SUBSTITUTE(C30,"1_",""))</f>
+        <f t="shared" ref="L30" si="42">_xlfn.CONCAT(SUBSTITUTE(C30,"1_",""))</f>
         <v>Limite</v>
       </c>
       <c r="M30" s="36" t="str">
-        <f t="shared" ref="M30" si="41">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
+        <f t="shared" ref="M30" si="43">_xlfn.CONCAT(SUBSTITUTE(D30,"."," "))</f>
         <v>Urbano</v>
       </c>
       <c r="N30" s="36" t="str">
-        <f t="shared" ref="N30" si="42">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
+        <f t="shared" ref="N30" si="44">_xlfn.CONCAT(SUBSTITUTE(E30,"."," "))</f>
         <v>De Fração</v>
       </c>
       <c r="O30" s="36" t="str">
-        <f t="shared" ref="O30" si="43">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
+        <f t="shared" ref="O30" si="45">_xlfn.CONCAT(SUBSTITUTE(F30,"."," "))</f>
         <v>Parcela</v>
       </c>
       <c r="P30" s="36" t="s">
@@ -5245,7 +5284,7 @@
         <v>570</v>
       </c>
       <c r="W30" s="45" t="str">
-        <f t="shared" ref="W30" si="44">CONCATENATE("Key.",LEFT(C30,3),".",A30)</f>
+        <f t="shared" ref="W30" si="46">CONCATENATE("Key.",LEFT(C30,3),".",A30)</f>
         <v>Key.Lim.30</v>
       </c>
     </row>
@@ -5284,19 +5323,19 @@
         <v>9</v>
       </c>
       <c r="L31" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M31" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Urbano</v>
       </c>
       <c r="N31" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Fração</v>
       </c>
       <c r="O31" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Lote</v>
       </c>
       <c r="P31" s="36" t="s">
@@ -5321,7 +5360,7 @@
         <v>570</v>
       </c>
       <c r="W31" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.31</v>
       </c>
     </row>
@@ -5356,23 +5395,24 @@
       <c r="J32" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="47" t="s">
-        <v>9</v>
+      <c r="K32" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F31)</f>
+        <v>é.dentro.de some Lote</v>
       </c>
       <c r="L32" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M32" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Predial</v>
       </c>
       <c r="N32" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Construção</v>
       </c>
       <c r="O32" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Prédio</v>
       </c>
       <c r="P32" s="36" t="s">
@@ -5397,7 +5437,7 @@
         <v>570</v>
       </c>
       <c r="W32" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.32</v>
       </c>
     </row>
@@ -5432,23 +5472,24 @@
       <c r="J33" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K33" s="47" t="s">
-        <v>9</v>
+      <c r="K33" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F31)</f>
+        <v>é.dentro.de some Lote</v>
       </c>
       <c r="L33" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M33" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Predial</v>
       </c>
       <c r="N33" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Construção</v>
       </c>
       <c r="O33" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Bloco</v>
       </c>
       <c r="P33" s="36" t="s">
@@ -5473,7 +5514,7 @@
         <v>570</v>
       </c>
       <c r="W33" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.33</v>
       </c>
     </row>
@@ -5508,23 +5549,24 @@
       <c r="J34" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="47" t="s">
-        <v>9</v>
+      <c r="K34" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F31)</f>
+        <v>é.dentro.de some Lote</v>
       </c>
       <c r="L34" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M34" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Predial</v>
       </c>
       <c r="N34" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Construção</v>
       </c>
       <c r="O34" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Edifício</v>
       </c>
       <c r="P34" s="36" t="s">
@@ -5549,7 +5591,7 @@
         <v>570</v>
       </c>
       <c r="W34" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.34</v>
       </c>
     </row>
@@ -5584,23 +5626,24 @@
       <c r="J35" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="47" t="s">
-        <v>9</v>
+      <c r="K35" s="47" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F31)</f>
+        <v>é.dentro.de some Lote</v>
       </c>
       <c r="L35" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M35" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Predial</v>
       </c>
       <c r="N35" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Construção</v>
       </c>
       <c r="O35" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Casa</v>
       </c>
       <c r="P35" s="36" t="s">
@@ -5625,7 +5668,7 @@
         <v>570</v>
       </c>
       <c r="W35" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.35</v>
       </c>
     </row>
@@ -5661,22 +5704,22 @@
         <v>9</v>
       </c>
       <c r="K36" s="47" t="s">
-        <v>9</v>
+        <v>622</v>
       </c>
       <c r="L36" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M36" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Predial</v>
       </c>
       <c r="N36" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Construção</v>
       </c>
       <c r="O36" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Galpão</v>
       </c>
       <c r="P36" s="36" t="s">
@@ -5701,7 +5744,7 @@
         <v>570</v>
       </c>
       <c r="W36" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.36</v>
       </c>
     </row>
@@ -5737,22 +5780,22 @@
         <v>9</v>
       </c>
       <c r="K37" s="47" t="s">
-        <v>9</v>
+        <v>622</v>
       </c>
       <c r="L37" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M37" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Predial</v>
       </c>
       <c r="N37" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Construção</v>
       </c>
       <c r="O37" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Edícula</v>
       </c>
       <c r="P37" s="36" t="s">
@@ -5777,7 +5820,7 @@
         <v>570</v>
       </c>
       <c r="W37" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.37</v>
       </c>
     </row>
@@ -5813,22 +5856,22 @@
         <v>9</v>
       </c>
       <c r="K38" s="47" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="L38" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M38" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Funcional</v>
       </c>
       <c r="N38" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Organização</v>
       </c>
       <c r="O38" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Unidade</v>
       </c>
       <c r="P38" s="36" t="s">
@@ -5853,7 +5896,7 @@
         <v>570</v>
       </c>
       <c r="W38" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.38</v>
       </c>
     </row>
@@ -5889,22 +5932,22 @@
         <v>9</v>
       </c>
       <c r="K39" s="47" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="L39" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M39" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Funcional</v>
       </c>
       <c r="N39" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Organização</v>
       </c>
       <c r="O39" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>SetorUrbano</v>
       </c>
       <c r="P39" s="36" t="s">
@@ -5929,7 +5972,7 @@
         <v>570</v>
       </c>
       <c r="W39" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.39</v>
       </c>
     </row>
@@ -5965,22 +6008,22 @@
         <v>9</v>
       </c>
       <c r="K40" s="47" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="L40" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M40" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Funcional</v>
       </c>
       <c r="N40" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Organização</v>
       </c>
       <c r="O40" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Divisão</v>
       </c>
       <c r="P40" s="36" t="s">
@@ -6005,7 +6048,7 @@
         <v>570</v>
       </c>
       <c r="W40" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.40</v>
       </c>
     </row>
@@ -6041,22 +6084,22 @@
         <v>9</v>
       </c>
       <c r="K41" s="47" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="L41" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M41" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Funcional</v>
       </c>
       <c r="N41" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Organização</v>
       </c>
       <c r="O41" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Departamento</v>
       </c>
       <c r="P41" s="36" t="s">
@@ -6081,7 +6124,7 @@
         <v>570</v>
       </c>
       <c r="W41" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.41</v>
       </c>
     </row>
@@ -6117,22 +6160,22 @@
         <v>9</v>
       </c>
       <c r="K42" s="47" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="L42" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M42" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Funcional</v>
       </c>
       <c r="N42" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Distribuição</v>
       </c>
       <c r="O42" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Ambiente</v>
       </c>
       <c r="P42" s="36" t="s">
@@ -6157,7 +6200,7 @@
         <v>570</v>
       </c>
       <c r="W42" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.42</v>
       </c>
     </row>
@@ -6193,22 +6236,22 @@
         <v>9</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="L43" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M43" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Funcional</v>
       </c>
       <c r="N43" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Distribuição</v>
       </c>
       <c r="O43" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Apartamento</v>
       </c>
       <c r="P43" s="36" t="s">
@@ -6233,7 +6276,7 @@
         <v>570</v>
       </c>
       <c r="W43" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.43</v>
       </c>
     </row>
@@ -6269,22 +6312,22 @@
         <v>9</v>
       </c>
       <c r="K44" s="47" t="s">
-        <v>9</v>
+        <v>623</v>
       </c>
       <c r="L44" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>Limite</v>
       </c>
       <c r="M44" s="36" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>Funcional</v>
       </c>
       <c r="N44" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>De Distribuição</v>
       </c>
       <c r="O44" s="36" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>Núcleo de Circulação</v>
       </c>
       <c r="P44" s="36" t="s">
@@ -6309,7 +6352,7 @@
         <v>570</v>
       </c>
       <c r="W44" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Key.Lim.44</v>
       </c>
     </row>
@@ -6348,19 +6391,19 @@
         <v>9</v>
       </c>
       <c r="L45" s="36" t="str">
-        <f t="shared" ref="L45" si="45">_xlfn.CONCAT(SUBSTITUTE(C45,"1_",""))</f>
+        <f t="shared" ref="L45" si="47">_xlfn.CONCAT(SUBSTITUTE(C45,"1_",""))</f>
         <v>IBGE</v>
       </c>
       <c r="M45" s="36" t="str">
-        <f t="shared" ref="M45" si="46">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
+        <f t="shared" ref="M45" si="48">_xlfn.CONCAT(SUBSTITUTE(D45,"."," "))</f>
         <v>Índice</v>
       </c>
       <c r="N45" s="36" t="str">
-        <f t="shared" ref="N45" si="47">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
+        <f t="shared" ref="N45" si="49">_xlfn.CONCAT(SUBSTITUTE(E45,"."," "))</f>
         <v>Densidade</v>
       </c>
       <c r="O45" s="36" t="str">
-        <f t="shared" ref="O45" si="48">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
+        <f t="shared" ref="O45" si="50">_xlfn.CONCAT(SUBSTITUTE(F45,"."," "))</f>
         <v>Area Densa</v>
       </c>
       <c r="P45" s="36" t="s">
@@ -6385,7 +6428,7 @@
         <v>570</v>
       </c>
       <c r="W45" s="45" t="str">
-        <f t="shared" ref="W45" si="49">CONCATENATE("Key.",LEFT(C45,3),".",A45)</f>
+        <f t="shared" ref="W45" si="51">CONCATENATE("Key.",LEFT(C45,3),".",A45)</f>
         <v>Key.IBG.45</v>
       </c>
     </row>
@@ -6424,19 +6467,19 @@
         <v>9</v>
       </c>
       <c r="L46" s="36" t="str">
-        <f t="shared" ref="L46:L47" si="50">_xlfn.CONCAT(SUBSTITUTE(C46,"1_",""))</f>
+        <f t="shared" ref="L46:L47" si="52">_xlfn.CONCAT(SUBSTITUTE(C46,"1_",""))</f>
         <v>IBGE</v>
       </c>
       <c r="M46" s="36" t="str">
-        <f t="shared" ref="M46:M47" si="51">_xlfn.CONCAT(SUBSTITUTE(D46,"."," "))</f>
+        <f t="shared" ref="M46:M47" si="53">_xlfn.CONCAT(SUBSTITUTE(D46,"."," "))</f>
         <v>Índice</v>
       </c>
       <c r="N46" s="36" t="str">
-        <f t="shared" ref="N46:N47" si="52">_xlfn.CONCAT(SUBSTITUTE(E46,"."," "))</f>
+        <f t="shared" ref="N46:N47" si="54">_xlfn.CONCAT(SUBSTITUTE(E46,"."," "))</f>
         <v>Densidade</v>
       </c>
       <c r="O46" s="36" t="str">
-        <f t="shared" ref="O46:O47" si="53">_xlfn.CONCAT(SUBSTITUTE(F46,"."," "))</f>
+        <f t="shared" ref="O46:O47" si="55">_xlfn.CONCAT(SUBSTITUTE(F46,"."," "))</f>
         <v>Area Pouco Densa</v>
       </c>
       <c r="P46" s="36" t="s">
@@ -6461,7 +6504,7 @@
         <v>570</v>
       </c>
       <c r="W46" s="45" t="str">
-        <f t="shared" ref="W46:W47" si="54">CONCATENATE("Key.",LEFT(C46,3),".",A46)</f>
+        <f t="shared" ref="W46:W47" si="56">CONCATENATE("Key.",LEFT(C46,3),".",A46)</f>
         <v>Key.IBG.46</v>
       </c>
     </row>
@@ -6500,19 +6543,19 @@
         <v>9</v>
       </c>
       <c r="L47" s="36" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>IBGE</v>
       </c>
       <c r="M47" s="36" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>Índice</v>
       </c>
       <c r="N47" s="36" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>Desenvolvimento</v>
       </c>
       <c r="O47" s="36" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>IDU</v>
       </c>
       <c r="P47" s="36" t="s">
@@ -6537,7 +6580,7 @@
         <v>570</v>
       </c>
       <c r="W47" s="45" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>Key.IBG.47</v>
       </c>
     </row>
@@ -6576,19 +6619,19 @@
         <v>9</v>
       </c>
       <c r="L48" s="36" t="str">
-        <f t="shared" ref="L48" si="55">_xlfn.CONCAT(SUBSTITUTE(C48,"1_",""))</f>
+        <f t="shared" ref="L48" si="57">_xlfn.CONCAT(SUBSTITUTE(C48,"1_",""))</f>
         <v>IBGE</v>
       </c>
       <c r="M48" s="36" t="str">
-        <f t="shared" ref="M48" si="56">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
+        <f t="shared" ref="M48" si="58">_xlfn.CONCAT(SUBSTITUTE(D48,"."," "))</f>
         <v>Índice</v>
       </c>
       <c r="N48" s="36" t="str">
-        <f t="shared" ref="N48" si="57">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
+        <f t="shared" ref="N48" si="59">_xlfn.CONCAT(SUBSTITUTE(E48,"."," "))</f>
         <v>População</v>
       </c>
       <c r="O48" s="36" t="str">
-        <f t="shared" ref="O48" si="58">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
+        <f t="shared" ref="O48" si="60">_xlfn.CONCAT(SUBSTITUTE(F48,"."," "))</f>
         <v>Taxa Urbanização</v>
       </c>
       <c r="P48" s="36" t="s">
@@ -6613,7 +6656,7 @@
         <v>570</v>
       </c>
       <c r="W48" s="45" t="str">
-        <f t="shared" ref="W48" si="59">CONCATENATE("Key.",LEFT(C48,3),".",A48)</f>
+        <f t="shared" ref="W48" si="61">CONCATENATE("Key.",LEFT(C48,3),".",A48)</f>
         <v>Key.IBG.48</v>
       </c>
     </row>
@@ -6652,19 +6695,19 @@
         <v>9</v>
       </c>
       <c r="L49" s="36" t="str">
-        <f t="shared" ref="L49" si="60">_xlfn.CONCAT(SUBSTITUTE(C49,"1_",""))</f>
+        <f t="shared" ref="L49" si="62">_xlfn.CONCAT(SUBSTITUTE(C49,"1_",""))</f>
         <v>IBGE</v>
       </c>
       <c r="M49" s="36" t="str">
-        <f t="shared" ref="M49" si="61">_xlfn.CONCAT(SUBSTITUTE(D49,"."," "))</f>
+        <f t="shared" ref="M49" si="63">_xlfn.CONCAT(SUBSTITUTE(D49,"."," "))</f>
         <v>Índice</v>
       </c>
       <c r="N49" s="36" t="str">
-        <f t="shared" ref="N49" si="62">_xlfn.CONCAT(SUBSTITUTE(E49,"."," "))</f>
+        <f t="shared" ref="N49" si="64">_xlfn.CONCAT(SUBSTITUTE(E49,"."," "))</f>
         <v>Crescimento</v>
       </c>
       <c r="O49" s="36" t="str">
-        <f t="shared" ref="O49" si="63">_xlfn.CONCAT(SUBSTITUTE(F49,"."," "))</f>
+        <f t="shared" ref="O49" si="65">_xlfn.CONCAT(SUBSTITUTE(F49,"."," "))</f>
         <v>Expansão Urbana</v>
       </c>
       <c r="P49" s="36" t="s">
@@ -6689,7 +6732,7 @@
         <v>570</v>
       </c>
       <c r="W49" s="45" t="str">
-        <f t="shared" ref="W49" si="64">CONCATENATE("Key.",LEFT(C49,3),".",A49)</f>
+        <f t="shared" ref="W49" si="66">CONCATENATE("Key.",LEFT(C49,3),".",A49)</f>
         <v>Key.IBG.49</v>
       </c>
     </row>
@@ -6978,8 +7021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE7DDAD-871C-4A33-AA34-2A9D5C2ED883}">
   <dimension ref="A1:W405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
     </sheetView>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5288B67F-2450-4C59-AAEA-C84E9C5E331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E24C14-F3DC-45B2-90DC-B2EBCDD5D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12641" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12641" uniqueCount="923">
   <si>
     <t>Edição</t>
   </si>
@@ -2839,12 +2839,6 @@
   </si>
   <si>
     <t>é.continente</t>
-  </si>
-  <si>
-    <t>é.nome</t>
-  </si>
-  <si>
-    <t>é.número</t>
   </si>
   <si>
     <t>é.região.administrativa</t>
@@ -3727,19 +3721,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="13"/>
+    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3883,7 +3877,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45748.648608217591</v>
+        <v>45749.330705324071</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3940,33 +3934,33 @@
       <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.88671875" customWidth="1"/>
-    <col min="17" max="17" width="50.88671875" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.85546875" customWidth="1"/>
+    <col min="17" max="17" width="50.85546875" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>144</v>
       </c>
@@ -4037,7 +4031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -4116,7 +4110,7 @@
         <v>Key.Fro.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -4192,7 +4186,7 @@
         <v>Key.Fro.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>Key.Fro.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -4345,7 +4339,7 @@
         <v>Key.Fro.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -4421,7 +4415,7 @@
         <v>Key.Fro.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -4498,7 +4492,7 @@
         <v>Key.Fro.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -4575,7 +4569,7 @@
         <v>Key.Fro.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -4651,7 +4645,7 @@
         <v>Key.Fro.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -4727,7 +4721,7 @@
         <v>Key.Fro.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -4803,7 +4797,7 @@
         <v>Key.Fro.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4880,7 +4874,7 @@
         <v>Key.Fro.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4957,7 +4951,7 @@
         <v>Key.Lim.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -5034,7 +5028,7 @@
         <v>Key.Lim.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -5111,7 +5105,7 @@
         <v>Key.Lim.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>16</v>
       </c>
@@ -5189,7 +5183,7 @@
         <v>Key.Lim.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>17</v>
       </c>
@@ -5267,7 +5261,7 @@
         <v>Key.Lim.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>18</v>
       </c>
@@ -5343,7 +5337,7 @@
         <v>Key.Lim.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>19</v>
       </c>
@@ -5419,7 +5413,7 @@
         <v>Key.Lim.19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>20</v>
       </c>
@@ -5495,7 +5489,7 @@
         <v>Key.Lim.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>21</v>
       </c>
@@ -5571,7 +5565,7 @@
         <v>Key.Lim.21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>22</v>
       </c>
@@ -5647,7 +5641,7 @@
         <v>Key.Lim.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>23</v>
       </c>
@@ -5723,7 +5717,7 @@
         <v>Key.Lim.23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>24</v>
       </c>
@@ -5799,7 +5793,7 @@
         <v>Key.Lim.24</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>25</v>
       </c>
@@ -5875,7 +5869,7 @@
         <v>Key.Lim.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>26</v>
       </c>
@@ -5951,7 +5945,7 @@
         <v>Key.Lim.26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>27</v>
       </c>
@@ -6027,7 +6021,7 @@
         <v>Key.Lim.27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>28</v>
       </c>
@@ -6103,7 +6097,7 @@
         <v>Key.Lim.28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>29</v>
       </c>
@@ -6180,7 +6174,7 @@
         <v>Key.Lim.29</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>30</v>
       </c>
@@ -6257,7 +6251,7 @@
         <v>Key.Lim.30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>31</v>
       </c>
@@ -6334,7 +6328,7 @@
         <v>Key.Lim.31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>32</v>
       </c>
@@ -6411,7 +6405,7 @@
         <v>Key.Lim.32</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>33</v>
       </c>
@@ -6488,7 +6482,7 @@
         <v>Key.Lim.33</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>34</v>
       </c>
@@ -6564,7 +6558,7 @@
         <v>Key.Lim.34</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>35</v>
       </c>
@@ -6640,7 +6634,7 @@
         <v>Key.Lim.35</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>36</v>
       </c>
@@ -6716,7 +6710,7 @@
         <v>Key.Lim.36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>37</v>
       </c>
@@ -6792,7 +6786,7 @@
         <v>Key.Lim.37</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>38</v>
       </c>
@@ -6868,7 +6862,7 @@
         <v>Key.Lim.38</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>39</v>
       </c>
@@ -6944,7 +6938,7 @@
         <v>Key.Lim.39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>40</v>
       </c>
@@ -7020,7 +7014,7 @@
         <v>Key.Lim.40</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>41</v>
       </c>
@@ -7096,7 +7090,7 @@
         <v>Key.Lim.41</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>42</v>
       </c>
@@ -7172,7 +7166,7 @@
         <v>Key.Lim.42</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>43</v>
       </c>
@@ -7248,7 +7242,7 @@
         <v>Key.IBG.43</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>44</v>
       </c>
@@ -7324,7 +7318,7 @@
         <v>Key.IBG.44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>45</v>
       </c>
@@ -7400,7 +7394,7 @@
         <v>Key.IBG.45</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>46</v>
       </c>
@@ -7476,7 +7470,7 @@
         <v>Key.IBG.46</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>47</v>
       </c>
@@ -7585,14 +7579,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.6640625" style="12"/>
-    <col min="11" max="16384" width="5.6640625" style="27"/>
+    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="12"/>
+    <col min="11" max="16384" width="5.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="25">
         <v>1</v>
       </c>
@@ -7657,7 +7651,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="7.8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>2</v>
       </c>
@@ -7737,13 +7731,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="13"/>
+    <col min="2" max="2" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7853,39 +7847,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:W552"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A536" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B549" sqref="B549"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.44140625" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" customWidth="1"/>
-    <col min="22" max="22" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="52.42578125" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>138</v>
       </c>
@@ -7956,7 +7949,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -8027,7 +8020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -8098,7 +8091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -8169,7 +8162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -8240,7 +8233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -8311,7 +8304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -8382,7 +8375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -8453,7 +8446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -8524,7 +8517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -8595,7 +8588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -8666,7 +8659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -8737,7 +8730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -8808,7 +8801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -8879,7 +8872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -8950,7 +8943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -9021,7 +9014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -9092,7 +9085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -9163,7 +9156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -9234,7 +9227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -9305,7 +9298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -9376,7 +9369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -9447,7 +9440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -9518,7 +9511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -9589,7 +9582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -9660,7 +9653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -9731,7 +9724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -9802,7 +9795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -9873,7 +9866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -9944,7 +9937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -10015,7 +10008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -10086,7 +10079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -10157,7 +10150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -10228,7 +10221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -10299,7 +10292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -10370,7 +10363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -10441,7 +10434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -10512,7 +10505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -10583,7 +10576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -10654,7 +10647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -10725,7 +10718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -10796,7 +10789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -10867,7 +10860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>43</v>
       </c>
@@ -10938,7 +10931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>44</v>
       </c>
@@ -11009,7 +11002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>45</v>
       </c>
@@ -11080,7 +11073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>46</v>
       </c>
@@ -11151,7 +11144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>47</v>
       </c>
@@ -11222,7 +11215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>48</v>
       </c>
@@ -11293,7 +11286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>49</v>
       </c>
@@ -11364,7 +11357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>50</v>
       </c>
@@ -11435,7 +11428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>51</v>
       </c>
@@ -11506,7 +11499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>52</v>
       </c>
@@ -11577,7 +11570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>53</v>
       </c>
@@ -11648,7 +11641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>54</v>
       </c>
@@ -11719,7 +11712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>55</v>
       </c>
@@ -11790,7 +11783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>56</v>
       </c>
@@ -11861,7 +11854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>57</v>
       </c>
@@ -11932,7 +11925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>58</v>
       </c>
@@ -12003,7 +11996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>59</v>
       </c>
@@ -12074,7 +12067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>60</v>
       </c>
@@ -12145,7 +12138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>61</v>
       </c>
@@ -12216,7 +12209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>62</v>
       </c>
@@ -12287,7 +12280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>63</v>
       </c>
@@ -12358,7 +12351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>64</v>
       </c>
@@ -12429,7 +12422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>65</v>
       </c>
@@ -12500,7 +12493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>66</v>
       </c>
@@ -12571,7 +12564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>67</v>
       </c>
@@ -12642,7 +12635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>68</v>
       </c>
@@ -12713,7 +12706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>69</v>
       </c>
@@ -12784,7 +12777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>70</v>
       </c>
@@ -12855,7 +12848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>71</v>
       </c>
@@ -12926,7 +12919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>72</v>
       </c>
@@ -12997,7 +12990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>73</v>
       </c>
@@ -13068,7 +13061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>74</v>
       </c>
@@ -13139,7 +13132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>75</v>
       </c>
@@ -13210,7 +13203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>76</v>
       </c>
@@ -13281,7 +13274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>77</v>
       </c>
@@ -13352,7 +13345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>78</v>
       </c>
@@ -13423,7 +13416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>79</v>
       </c>
@@ -13494,7 +13487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>80</v>
       </c>
@@ -13565,7 +13558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>81</v>
       </c>
@@ -13636,7 +13629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>82</v>
       </c>
@@ -13707,7 +13700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>83</v>
       </c>
@@ -13778,7 +13771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>84</v>
       </c>
@@ -13849,7 +13842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>85</v>
       </c>
@@ -13920,7 +13913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>86</v>
       </c>
@@ -13991,7 +13984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>87</v>
       </c>
@@ -14062,7 +14055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>88</v>
       </c>
@@ -14133,7 +14126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>89</v>
       </c>
@@ -14204,7 +14197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>90</v>
       </c>
@@ -14275,7 +14268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>91</v>
       </c>
@@ -14346,7 +14339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>92</v>
       </c>
@@ -14417,7 +14410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>93</v>
       </c>
@@ -14488,7 +14481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>94</v>
       </c>
@@ -14559,7 +14552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>95</v>
       </c>
@@ -14630,7 +14623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>96</v>
       </c>
@@ -14701,7 +14694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16">
         <v>97</v>
       </c>
@@ -14772,7 +14765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>98</v>
       </c>
@@ -14843,7 +14836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>99</v>
       </c>
@@ -14914,7 +14907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>100</v>
       </c>
@@ -14985,7 +14978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>101</v>
       </c>
@@ -15056,7 +15049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>102</v>
       </c>
@@ -15127,7 +15120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>103</v>
       </c>
@@ -15198,7 +15191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="16">
         <v>104</v>
       </c>
@@ -15269,7 +15262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>105</v>
       </c>
@@ -15340,7 +15333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>106</v>
       </c>
@@ -15411,7 +15404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>107</v>
       </c>
@@ -15482,7 +15475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>108</v>
       </c>
@@ -15553,7 +15546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="16">
         <v>109</v>
       </c>
@@ -15624,7 +15617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>110</v>
       </c>
@@ -15695,7 +15688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="16">
         <v>111</v>
       </c>
@@ -15766,7 +15759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16">
         <v>112</v>
       </c>
@@ -15837,7 +15830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16">
         <v>113</v>
       </c>
@@ -15908,7 +15901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16">
         <v>114</v>
       </c>
@@ -15979,7 +15972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <v>115</v>
       </c>
@@ -16050,7 +16043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16">
         <v>116</v>
       </c>
@@ -16121,7 +16114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16">
         <v>117</v>
       </c>
@@ -16192,7 +16185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16">
         <v>118</v>
       </c>
@@ -16263,7 +16256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16">
         <v>119</v>
       </c>
@@ -16334,7 +16327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16">
         <v>120</v>
       </c>
@@ -16405,7 +16398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>121</v>
       </c>
@@ -16476,7 +16469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16">
         <v>122</v>
       </c>
@@ -16547,7 +16540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16">
         <v>123</v>
       </c>
@@ -16564,7 +16557,7 @@
         <v>612</v>
       </c>
       <c r="F123" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G123" s="49" t="s">
         <v>814</v>
@@ -16619,7 +16612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16">
         <v>124</v>
       </c>
@@ -16636,7 +16629,7 @@
         <v>612</v>
       </c>
       <c r="F124" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G124" s="49" t="s">
         <v>815</v>
@@ -16691,7 +16684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16">
         <v>125</v>
       </c>
@@ -16708,7 +16701,7 @@
         <v>612</v>
       </c>
       <c r="F125" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G125" s="49" t="s">
         <v>816</v>
@@ -16763,7 +16756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>126</v>
       </c>
@@ -16780,7 +16773,7 @@
         <v>613</v>
       </c>
       <c r="F126" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G126" s="49" t="s">
         <v>817</v>
@@ -16835,7 +16828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>127</v>
       </c>
@@ -16852,7 +16845,7 @@
         <v>613</v>
       </c>
       <c r="F127" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G127" s="49" t="s">
         <v>818</v>
@@ -16907,7 +16900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16">
         <v>128</v>
       </c>
@@ -16924,7 +16917,7 @@
         <v>613</v>
       </c>
       <c r="F128" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G128" s="49" t="s">
         <v>819</v>
@@ -16979,7 +16972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <v>129</v>
       </c>
@@ -16996,7 +16989,7 @@
         <v>612</v>
       </c>
       <c r="F129" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G129" s="49" t="s">
         <v>820</v>
@@ -17051,7 +17044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>130</v>
       </c>
@@ -17068,7 +17061,7 @@
         <v>613</v>
       </c>
       <c r="F130" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G130" s="49" t="s">
         <v>821</v>
@@ -17123,7 +17116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <v>131</v>
       </c>
@@ -17140,7 +17133,7 @@
         <v>613</v>
       </c>
       <c r="F131" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G131" s="49" t="s">
         <v>822</v>
@@ -17195,7 +17188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16">
         <v>132</v>
       </c>
@@ -17212,7 +17205,7 @@
         <v>614</v>
       </c>
       <c r="F132" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G132" s="49" t="s">
         <v>823</v>
@@ -17267,7 +17260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <v>133</v>
       </c>
@@ -17284,7 +17277,7 @@
         <v>614</v>
       </c>
       <c r="F133" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G133" s="49" t="s">
         <v>824</v>
@@ -17339,7 +17332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="16">
         <v>134</v>
       </c>
@@ -17356,7 +17349,7 @@
         <v>614</v>
       </c>
       <c r="F134" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G134" s="49" t="s">
         <v>825</v>
@@ -17411,7 +17404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16">
         <v>135</v>
       </c>
@@ -17428,7 +17421,7 @@
         <v>614</v>
       </c>
       <c r="F135" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G135" s="49" t="s">
         <v>826</v>
@@ -17483,7 +17476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>136</v>
       </c>
@@ -17500,7 +17493,7 @@
         <v>614</v>
       </c>
       <c r="F136" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G136" s="49" t="s">
         <v>827</v>
@@ -17555,7 +17548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <v>137</v>
       </c>
@@ -17572,7 +17565,7 @@
         <v>614</v>
       </c>
       <c r="F137" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G137" s="49" t="s">
         <v>828</v>
@@ -17627,7 +17620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>138</v>
       </c>
@@ -17644,7 +17637,7 @@
         <v>615</v>
       </c>
       <c r="F138" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G138" s="49" t="s">
         <v>829</v>
@@ -17699,7 +17692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>139</v>
       </c>
@@ -17716,7 +17709,7 @@
         <v>616</v>
       </c>
       <c r="F139" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G139" s="49" t="s">
         <v>830</v>
@@ -17771,7 +17764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16">
         <v>140</v>
       </c>
@@ -17788,7 +17781,7 @@
         <v>616</v>
       </c>
       <c r="F140" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G140" s="49" t="s">
         <v>831</v>
@@ -17843,7 +17836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="16">
         <v>141</v>
       </c>
@@ -17860,7 +17853,7 @@
         <v>616</v>
       </c>
       <c r="F141" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G141" s="49" t="s">
         <v>832</v>
@@ -17915,7 +17908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="16">
         <v>142</v>
       </c>
@@ -17932,7 +17925,7 @@
         <v>614</v>
       </c>
       <c r="F142" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G142" s="49" t="s">
         <v>833</v>
@@ -17987,7 +17980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="16">
         <v>143</v>
       </c>
@@ -18004,7 +17997,7 @@
         <v>612</v>
       </c>
       <c r="F143" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G143" s="49" t="s">
         <v>834</v>
@@ -18059,7 +18052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="16">
         <v>144</v>
       </c>
@@ -18076,7 +18069,7 @@
         <v>614</v>
       </c>
       <c r="F144" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G144" s="49" t="s">
         <v>835</v>
@@ -18131,7 +18124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="16">
         <v>145</v>
       </c>
@@ -18148,7 +18141,7 @@
         <v>612</v>
       </c>
       <c r="F145" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G145" s="49" t="s">
         <v>836</v>
@@ -18203,7 +18196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="16">
         <v>146</v>
       </c>
@@ -18220,7 +18213,7 @@
         <v>615</v>
       </c>
       <c r="F146" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G146" s="49" t="s">
         <v>837</v>
@@ -18275,7 +18268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <v>147</v>
       </c>
@@ -18292,7 +18285,7 @@
         <v>614</v>
       </c>
       <c r="F147" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G147" s="49" t="s">
         <v>838</v>
@@ -18347,7 +18340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
         <v>148</v>
       </c>
@@ -18364,7 +18357,7 @@
         <v>616</v>
       </c>
       <c r="F148" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G148" s="49" t="s">
         <v>839</v>
@@ -18419,7 +18412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="16">
         <v>149</v>
       </c>
@@ -18436,7 +18429,7 @@
         <v>613</v>
       </c>
       <c r="F149" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G149" s="49" t="s">
         <v>840</v>
@@ -18491,7 +18484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="16">
         <v>150</v>
       </c>
@@ -18508,7 +18501,7 @@
         <v>614</v>
       </c>
       <c r="F150" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G150" s="49" t="s">
         <v>841</v>
@@ -18563,7 +18556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16">
         <v>151</v>
       </c>
@@ -18580,7 +18573,7 @@
         <v>614</v>
       </c>
       <c r="F151" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G151" s="49" t="s">
         <v>842</v>
@@ -18635,7 +18628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <v>152</v>
       </c>
@@ -18652,7 +18645,7 @@
         <v>614</v>
       </c>
       <c r="F152" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G152" s="49" t="s">
         <v>843</v>
@@ -18707,7 +18700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="16">
         <v>153</v>
       </c>
@@ -18724,7 +18717,7 @@
         <v>614</v>
       </c>
       <c r="F153" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G153" s="49" t="s">
         <v>844</v>
@@ -18779,7 +18772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <v>154</v>
       </c>
@@ -18796,7 +18789,7 @@
         <v>616</v>
       </c>
       <c r="F154" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G154" s="49" t="s">
         <v>845</v>
@@ -18851,7 +18844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16">
         <v>155</v>
       </c>
@@ -18868,7 +18861,7 @@
         <v>615</v>
       </c>
       <c r="F155" s="46" t="s">
-        <v>922</v>
+        <v>406</v>
       </c>
       <c r="G155" s="49" t="s">
         <v>846</v>
@@ -18923,7 +18916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16">
         <v>156</v>
       </c>
@@ -18995,7 +18988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16">
         <v>157</v>
       </c>
@@ -19067,7 +19060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="16">
         <v>158</v>
       </c>
@@ -19139,7 +19132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16">
         <v>159</v>
       </c>
@@ -19211,7 +19204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="16">
         <v>160</v>
       </c>
@@ -19283,7 +19276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="16">
         <v>161</v>
       </c>
@@ -19355,7 +19348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16">
         <v>162</v>
       </c>
@@ -19427,7 +19420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16">
         <v>163</v>
       </c>
@@ -19499,7 +19492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16">
         <v>164</v>
       </c>
@@ -19571,7 +19564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16">
         <v>165</v>
       </c>
@@ -19643,7 +19636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16">
         <v>166</v>
       </c>
@@ -19715,7 +19708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16">
         <v>167</v>
       </c>
@@ -19787,7 +19780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="16">
         <v>168</v>
       </c>
@@ -19859,7 +19852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16">
         <v>169</v>
       </c>
@@ -19931,7 +19924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="16">
         <v>170</v>
       </c>
@@ -20003,7 +19996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16">
         <v>171</v>
       </c>
@@ -20075,7 +20068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="16">
         <v>172</v>
       </c>
@@ -20147,7 +20140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="16">
         <v>173</v>
       </c>
@@ -20219,7 +20212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="16">
         <v>174</v>
       </c>
@@ -20291,7 +20284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="16">
         <v>175</v>
       </c>
@@ -20363,7 +20356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16">
         <v>176</v>
       </c>
@@ -20435,7 +20428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="16">
         <v>177</v>
       </c>
@@ -20507,7 +20500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="16">
         <v>178</v>
       </c>
@@ -20579,7 +20572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16">
         <v>179</v>
       </c>
@@ -20651,7 +20644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="16">
         <v>180</v>
       </c>
@@ -20723,7 +20716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="16">
         <v>181</v>
       </c>
@@ -20795,7 +20788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16">
         <v>182</v>
       </c>
@@ -20867,7 +20860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16">
         <v>183</v>
       </c>
@@ -20939,7 +20932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>184</v>
       </c>
@@ -21011,7 +21004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="16">
         <v>185</v>
       </c>
@@ -21083,7 +21076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="16">
         <v>186</v>
       </c>
@@ -21155,7 +21148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="16">
         <v>187</v>
       </c>
@@ -21227,7 +21220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16">
         <v>188</v>
       </c>
@@ -21299,7 +21292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="16">
         <v>189</v>
       </c>
@@ -21371,7 +21364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="16">
         <v>190</v>
       </c>
@@ -21443,7 +21436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16">
         <v>191</v>
       </c>
@@ -21515,7 +21508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16">
         <v>192</v>
       </c>
@@ -21587,7 +21580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16">
         <v>193</v>
       </c>
@@ -21659,7 +21652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16">
         <v>194</v>
       </c>
@@ -21731,7 +21724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16">
         <v>195</v>
       </c>
@@ -21803,7 +21796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="16">
         <v>196</v>
       </c>
@@ -21875,7 +21868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="16">
         <v>197</v>
       </c>
@@ -21947,7 +21940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16">
         <v>198</v>
       </c>
@@ -22019,7 +22012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16">
         <v>199</v>
       </c>
@@ -22091,7 +22084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="16">
         <v>200</v>
       </c>
@@ -22163,7 +22156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="16">
         <v>201</v>
       </c>
@@ -22235,7 +22228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="16">
         <v>202</v>
       </c>
@@ -22307,7 +22300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16">
         <v>203</v>
       </c>
@@ -22379,7 +22372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16">
         <v>204</v>
       </c>
@@ -22451,7 +22444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16">
         <v>205</v>
       </c>
@@ -22523,7 +22516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="16">
         <v>206</v>
       </c>
@@ -22595,7 +22588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16">
         <v>207</v>
       </c>
@@ -22667,7 +22660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16">
         <v>208</v>
       </c>
@@ -22739,7 +22732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="16">
         <v>209</v>
       </c>
@@ -22811,7 +22804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="16">
         <v>210</v>
       </c>
@@ -22883,7 +22876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>211</v>
       </c>
@@ -22955,7 +22948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="16">
         <v>212</v>
       </c>
@@ -23027,7 +23020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="16">
         <v>213</v>
       </c>
@@ -23099,7 +23092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="16">
         <v>214</v>
       </c>
@@ -23171,7 +23164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="16">
         <v>215</v>
       </c>
@@ -23243,7 +23236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="16">
         <v>216</v>
       </c>
@@ -23315,7 +23308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="16">
         <v>217</v>
       </c>
@@ -23387,7 +23380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="16">
         <v>218</v>
       </c>
@@ -23459,7 +23452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="16">
         <v>219</v>
       </c>
@@ -23531,7 +23524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="16">
         <v>220</v>
       </c>
@@ -23603,7 +23596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="16">
         <v>221</v>
       </c>
@@ -23675,7 +23668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="16">
         <v>222</v>
       </c>
@@ -23747,7 +23740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="16">
         <v>223</v>
       </c>
@@ -23819,7 +23812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16">
         <v>224</v>
       </c>
@@ -23891,7 +23884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16">
         <v>225</v>
       </c>
@@ -23963,7 +23956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="16">
         <v>226</v>
       </c>
@@ -24035,7 +24028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16">
         <v>227</v>
       </c>
@@ -24107,7 +24100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="16">
         <v>228</v>
       </c>
@@ -24179,7 +24172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="16">
         <v>229</v>
       </c>
@@ -24251,7 +24244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="16">
         <v>230</v>
       </c>
@@ -24323,7 +24316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="16">
         <v>231</v>
       </c>
@@ -24395,7 +24388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="16">
         <v>232</v>
       </c>
@@ -24467,7 +24460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="16">
         <v>233</v>
       </c>
@@ -24539,7 +24532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="16">
         <v>234</v>
       </c>
@@ -24611,7 +24604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="16">
         <v>235</v>
       </c>
@@ -24683,7 +24676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="16">
         <v>236</v>
       </c>
@@ -24755,7 +24748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="16">
         <v>237</v>
       </c>
@@ -24827,7 +24820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="16">
         <v>238</v>
       </c>
@@ -24899,7 +24892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="16">
         <v>239</v>
       </c>
@@ -24971,7 +24964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="16">
         <v>240</v>
       </c>
@@ -25043,7 +25036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16">
         <v>241</v>
       </c>
@@ -25115,7 +25108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="16">
         <v>242</v>
       </c>
@@ -25187,7 +25180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="16">
         <v>243</v>
       </c>
@@ -25259,7 +25252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="16">
         <v>244</v>
       </c>
@@ -25331,7 +25324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="16">
         <v>245</v>
       </c>
@@ -25403,7 +25396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="16">
         <v>246</v>
       </c>
@@ -25475,7 +25468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="16">
         <v>247</v>
       </c>
@@ -25547,7 +25540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="16">
         <v>248</v>
       </c>
@@ -25619,7 +25612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="16">
         <v>249</v>
       </c>
@@ -25691,7 +25684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="16">
         <v>250</v>
       </c>
@@ -25763,7 +25756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="16">
         <v>251</v>
       </c>
@@ -25835,7 +25828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="16">
         <v>252</v>
       </c>
@@ -25907,7 +25900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="16">
         <v>253</v>
       </c>
@@ -25979,7 +25972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="16">
         <v>254</v>
       </c>
@@ -26051,7 +26044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="16">
         <v>255</v>
       </c>
@@ -26123,7 +26116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="16">
         <v>256</v>
       </c>
@@ -26195,7 +26188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="16">
         <v>257</v>
       </c>
@@ -26267,7 +26260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16">
         <v>258</v>
       </c>
@@ -26339,7 +26332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="16">
         <v>259</v>
       </c>
@@ -26411,7 +26404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="16">
         <v>260</v>
       </c>
@@ -26483,7 +26476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="16">
         <v>261</v>
       </c>
@@ -26555,7 +26548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="16">
         <v>262</v>
       </c>
@@ -26627,7 +26620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="16">
         <v>263</v>
       </c>
@@ -26699,7 +26692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="16">
         <v>264</v>
       </c>
@@ -26771,7 +26764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="16">
         <v>265</v>
       </c>
@@ -26843,7 +26836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="16">
         <v>266</v>
       </c>
@@ -26915,7 +26908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="16">
         <v>267</v>
       </c>
@@ -26987,7 +26980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="16">
         <v>268</v>
       </c>
@@ -27059,7 +27052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="16">
         <v>269</v>
       </c>
@@ -27131,7 +27124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="16">
         <v>270</v>
       </c>
@@ -27203,7 +27196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="16">
         <v>271</v>
       </c>
@@ -27275,7 +27268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="16">
         <v>272</v>
       </c>
@@ -27347,7 +27340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="16">
         <v>273</v>
       </c>
@@ -27419,7 +27412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="16">
         <v>274</v>
       </c>
@@ -27491,7 +27484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="16">
         <v>275</v>
       </c>
@@ -27563,7 +27556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="16">
         <v>276</v>
       </c>
@@ -27635,7 +27628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="16">
         <v>277</v>
       </c>
@@ -27707,7 +27700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="16">
         <v>278</v>
       </c>
@@ -27779,7 +27772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="16">
         <v>279</v>
       </c>
@@ -27851,7 +27844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="16">
         <v>280</v>
       </c>
@@ -27923,7 +27916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="16">
         <v>281</v>
       </c>
@@ -27995,7 +27988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="16">
         <v>282</v>
       </c>
@@ -28067,7 +28060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="16">
         <v>283</v>
       </c>
@@ -28139,7 +28132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="16">
         <v>284</v>
       </c>
@@ -28211,7 +28204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="16">
         <v>285</v>
       </c>
@@ -28283,7 +28276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="16">
         <v>286</v>
       </c>
@@ -28355,7 +28348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="16">
         <v>287</v>
       </c>
@@ -28427,7 +28420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="16">
         <v>288</v>
       </c>
@@ -28499,7 +28492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="16">
         <v>289</v>
       </c>
@@ -28571,7 +28564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="16">
         <v>290</v>
       </c>
@@ -28643,7 +28636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="16">
         <v>291</v>
       </c>
@@ -28715,7 +28708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="16">
         <v>292</v>
       </c>
@@ -28787,7 +28780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="16">
         <v>293</v>
       </c>
@@ -28859,7 +28852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="16">
         <v>294</v>
       </c>
@@ -28931,7 +28924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="16">
         <v>295</v>
       </c>
@@ -29003,7 +28996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="16">
         <v>296</v>
       </c>
@@ -29075,7 +29068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="16">
         <v>297</v>
       </c>
@@ -29147,7 +29140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="16">
         <v>298</v>
       </c>
@@ -29219,7 +29212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="16">
         <v>299</v>
       </c>
@@ -29291,7 +29284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="16">
         <v>300</v>
       </c>
@@ -29363,7 +29356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="16">
         <v>301</v>
       </c>
@@ -29435,7 +29428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="16">
         <v>302</v>
       </c>
@@ -29507,7 +29500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16">
         <v>303</v>
       </c>
@@ -29579,7 +29572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="16">
         <v>304</v>
       </c>
@@ -29651,7 +29644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="16">
         <v>305</v>
       </c>
@@ -29723,7 +29716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="16">
         <v>306</v>
       </c>
@@ -29795,7 +29788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="16">
         <v>307</v>
       </c>
@@ -29867,7 +29860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="16">
         <v>308</v>
       </c>
@@ -29939,7 +29932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="16">
         <v>309</v>
       </c>
@@ -30011,7 +30004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="16">
         <v>310</v>
       </c>
@@ -30083,7 +30076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="16">
         <v>311</v>
       </c>
@@ -30155,7 +30148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="16">
         <v>312</v>
       </c>
@@ -30227,7 +30220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="16">
         <v>313</v>
       </c>
@@ -30299,7 +30292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="16">
         <v>314</v>
       </c>
@@ -30371,7 +30364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16">
         <v>315</v>
       </c>
@@ -30443,7 +30436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="16">
         <v>316</v>
       </c>
@@ -30515,7 +30508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="16">
         <v>317</v>
       </c>
@@ -30587,7 +30580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="16">
         <v>318</v>
       </c>
@@ -30659,7 +30652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="16">
         <v>319</v>
       </c>
@@ -30731,7 +30724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="16">
         <v>320</v>
       </c>
@@ -30803,7 +30796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="16">
         <v>321</v>
       </c>
@@ -30875,7 +30868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="16">
         <v>322</v>
       </c>
@@ -30947,7 +30940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="16">
         <v>323</v>
       </c>
@@ -31019,7 +31012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="16">
         <v>324</v>
       </c>
@@ -31091,7 +31084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="16">
         <v>325</v>
       </c>
@@ -31163,7 +31156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="16">
         <v>326</v>
       </c>
@@ -31235,7 +31228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="16">
         <v>327</v>
       </c>
@@ -31307,7 +31300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="16">
         <v>328</v>
       </c>
@@ -31379,7 +31372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="16">
         <v>329</v>
       </c>
@@ -31451,7 +31444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="16">
         <v>330</v>
       </c>
@@ -31523,7 +31516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="16">
         <v>331</v>
       </c>
@@ -31595,7 +31588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="16">
         <v>332</v>
       </c>
@@ -31667,7 +31660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="16">
         <v>333</v>
       </c>
@@ -31739,7 +31732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="16">
         <v>334</v>
       </c>
@@ -31811,7 +31804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="16">
         <v>335</v>
       </c>
@@ -31883,7 +31876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="16">
         <v>336</v>
       </c>
@@ -31955,7 +31948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="16">
         <v>337</v>
       </c>
@@ -32027,7 +32020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="16">
         <v>338</v>
       </c>
@@ -32099,7 +32092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="16">
         <v>339</v>
       </c>
@@ -32171,7 +32164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="16">
         <v>340</v>
       </c>
@@ -32243,7 +32236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="16">
         <v>341</v>
       </c>
@@ -32315,7 +32308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="16">
         <v>342</v>
       </c>
@@ -32387,7 +32380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="16">
         <v>343</v>
       </c>
@@ -32459,7 +32452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="16">
         <v>344</v>
       </c>
@@ -32531,7 +32524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="16">
         <v>345</v>
       </c>
@@ -32603,7 +32596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="16">
         <v>346</v>
       </c>
@@ -32675,7 +32668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="16">
         <v>347</v>
       </c>
@@ -32747,7 +32740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="16">
         <v>348</v>
       </c>
@@ -32819,7 +32812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="16">
         <v>349</v>
       </c>
@@ -32891,7 +32884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="16">
         <v>350</v>
       </c>
@@ -32963,7 +32956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="16">
         <v>351</v>
       </c>
@@ -33035,7 +33028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="16">
         <v>352</v>
       </c>
@@ -33107,7 +33100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="16">
         <v>353</v>
       </c>
@@ -33124,13 +33117,13 @@
         <v>629</v>
       </c>
       <c r="F353" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G353" s="49" t="s">
         <v>650</v>
       </c>
       <c r="H353" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I353" s="49" t="s">
         <v>629</v>
@@ -33179,7 +33172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="16">
         <v>354</v>
       </c>
@@ -33196,13 +33189,13 @@
         <v>641</v>
       </c>
       <c r="F354" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G354" s="49" t="s">
         <v>651</v>
       </c>
       <c r="H354" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I354" s="49" t="s">
         <v>641</v>
@@ -33251,7 +33244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="16">
         <v>355</v>
       </c>
@@ -33268,13 +33261,13 @@
         <v>629</v>
       </c>
       <c r="F355" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G355" s="49" t="s">
         <v>652</v>
       </c>
       <c r="H355" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I355" s="49" t="s">
         <v>629</v>
@@ -33323,7 +33316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="16">
         <v>356</v>
       </c>
@@ -33340,13 +33333,13 @@
         <v>624</v>
       </c>
       <c r="F356" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G356" s="49" t="s">
         <v>653</v>
       </c>
       <c r="H356" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I356" s="49" t="s">
         <v>624</v>
@@ -33395,7 +33388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="16">
         <v>357</v>
       </c>
@@ -33412,13 +33405,13 @@
         <v>638</v>
       </c>
       <c r="F357" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G357" s="49" t="s">
         <v>654</v>
       </c>
       <c r="H357" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I357" s="49" t="s">
         <v>638</v>
@@ -33467,7 +33460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="16">
         <v>358</v>
       </c>
@@ -33484,13 +33477,13 @@
         <v>625</v>
       </c>
       <c r="F358" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G358" s="49" t="s">
         <v>655</v>
       </c>
       <c r="H358" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I358" s="49" t="s">
         <v>625</v>
@@ -33539,7 +33532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="16">
         <v>359</v>
       </c>
@@ -33556,13 +33549,13 @@
         <v>632</v>
       </c>
       <c r="F359" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G359" s="49" t="s">
         <v>656</v>
       </c>
       <c r="H359" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I359" s="49" t="s">
         <v>632</v>
@@ -33611,7 +33604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="16">
         <v>360</v>
       </c>
@@ -33628,13 +33621,13 @@
         <v>636</v>
       </c>
       <c r="F360" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G360" s="49" t="s">
         <v>657</v>
       </c>
       <c r="H360" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I360" s="49" t="s">
         <v>636</v>
@@ -33683,7 +33676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="16">
         <v>361</v>
       </c>
@@ -33700,13 +33693,13 @@
         <v>633</v>
       </c>
       <c r="F361" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G361" s="49" t="s">
         <v>658</v>
       </c>
       <c r="H361" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I361" s="49" t="s">
         <v>633</v>
@@ -33755,7 +33748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="16">
         <v>362</v>
       </c>
@@ -33772,13 +33765,13 @@
         <v>640</v>
       </c>
       <c r="F362" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G362" s="49" t="s">
         <v>659</v>
       </c>
       <c r="H362" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I362" s="49" t="s">
         <v>640</v>
@@ -33827,7 +33820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="16">
         <v>363</v>
       </c>
@@ -33844,13 +33837,13 @@
         <v>642</v>
       </c>
       <c r="F363" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G363" s="49" t="s">
         <v>660</v>
       </c>
       <c r="H363" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I363" s="49" t="s">
         <v>642</v>
@@ -33899,7 +33892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="16">
         <v>364</v>
       </c>
@@ -33916,13 +33909,13 @@
         <v>641</v>
       </c>
       <c r="F364" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G364" s="49" t="s">
         <v>661</v>
       </c>
       <c r="H364" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I364" s="49" t="s">
         <v>641</v>
@@ -33971,7 +33964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="16">
         <v>365</v>
       </c>
@@ -33988,13 +33981,13 @@
         <v>623</v>
       </c>
       <c r="F365" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G365" s="49" t="s">
         <v>662</v>
       </c>
       <c r="H365" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I365" s="49" t="s">
         <v>623</v>
@@ -34043,7 +34036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="16">
         <v>366</v>
       </c>
@@ -34060,13 +34053,13 @@
         <v>631</v>
       </c>
       <c r="F366" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G366" s="49" t="s">
         <v>663</v>
       </c>
       <c r="H366" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I366" s="49" t="s">
         <v>631</v>
@@ -34115,7 +34108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="16">
         <v>367</v>
       </c>
@@ -34132,13 +34125,13 @@
         <v>626</v>
       </c>
       <c r="F367" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G367" s="49" t="s">
         <v>664</v>
       </c>
       <c r="H367" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I367" s="49" t="s">
         <v>626</v>
@@ -34187,7 +34180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="16">
         <v>368</v>
       </c>
@@ -34204,13 +34197,13 @@
         <v>620</v>
       </c>
       <c r="F368" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G368" s="49" t="s">
         <v>665</v>
       </c>
       <c r="H368" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I368" s="49" t="s">
         <v>620</v>
@@ -34259,7 +34252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="16">
         <v>369</v>
       </c>
@@ -34276,13 +34269,13 @@
         <v>627</v>
       </c>
       <c r="F369" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G369" s="49" t="s">
         <v>666</v>
       </c>
       <c r="H369" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I369" s="49" t="s">
         <v>627</v>
@@ -34331,7 +34324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="16">
         <v>370</v>
       </c>
@@ -34348,13 +34341,13 @@
         <v>629</v>
       </c>
       <c r="F370" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G370" s="49" t="s">
         <v>667</v>
       </c>
       <c r="H370" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I370" s="49" t="s">
         <v>629</v>
@@ -34403,7 +34396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="16">
         <v>371</v>
       </c>
@@ -34420,13 +34413,13 @@
         <v>636</v>
       </c>
       <c r="F371" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G371" s="49" t="s">
         <v>668</v>
       </c>
       <c r="H371" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I371" s="49" t="s">
         <v>636</v>
@@ -34475,7 +34468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="16">
         <v>372</v>
       </c>
@@ -34492,13 +34485,13 @@
         <v>617</v>
       </c>
       <c r="F372" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G372" s="49" t="s">
         <v>669</v>
       </c>
       <c r="H372" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I372" s="49" t="s">
         <v>617</v>
@@ -34547,7 +34540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="16">
         <v>373</v>
       </c>
@@ -34564,13 +34557,13 @@
         <v>640</v>
       </c>
       <c r="F373" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G373" s="49" t="s">
         <v>670</v>
       </c>
       <c r="H373" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I373" s="49" t="s">
         <v>640</v>
@@ -34619,7 +34612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="16">
         <v>374</v>
       </c>
@@ -34636,13 +34629,13 @@
         <v>631</v>
       </c>
       <c r="F374" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G374" s="49" t="s">
         <v>671</v>
       </c>
       <c r="H374" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I374" s="49" t="s">
         <v>631</v>
@@ -34691,7 +34684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="16">
         <v>375</v>
       </c>
@@ -34708,13 +34701,13 @@
         <v>648</v>
       </c>
       <c r="F375" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G375" s="49" t="s">
         <v>672</v>
       </c>
       <c r="H375" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I375" s="49" t="s">
         <v>648</v>
@@ -34763,7 +34756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="16">
         <v>376</v>
       </c>
@@ -34780,13 +34773,13 @@
         <v>634</v>
       </c>
       <c r="F376" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G376" s="49" t="s">
         <v>673</v>
       </c>
       <c r="H376" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I376" s="49" t="s">
         <v>634</v>
@@ -34835,7 +34828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="16">
         <v>377</v>
       </c>
@@ -34852,13 +34845,13 @@
         <v>631</v>
       </c>
       <c r="F377" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G377" s="49" t="s">
         <v>674</v>
       </c>
       <c r="H377" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I377" s="49" t="s">
         <v>631</v>
@@ -34907,7 +34900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="16">
         <v>378</v>
       </c>
@@ -34924,13 +34917,13 @@
         <v>620</v>
       </c>
       <c r="F378" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G378" s="49" t="s">
         <v>675</v>
       </c>
       <c r="H378" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I378" s="49" t="s">
         <v>620</v>
@@ -34979,7 +34972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="16">
         <v>379</v>
       </c>
@@ -34996,13 +34989,13 @@
         <v>619</v>
       </c>
       <c r="F379" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G379" s="49" t="s">
         <v>676</v>
       </c>
       <c r="H379" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I379" s="49" t="s">
         <v>619</v>
@@ -35051,7 +35044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="16">
         <v>380</v>
       </c>
@@ -35068,13 +35061,13 @@
         <v>631</v>
       </c>
       <c r="F380" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G380" s="49" t="s">
         <v>677</v>
       </c>
       <c r="H380" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I380" s="49" t="s">
         <v>631</v>
@@ -35123,7 +35116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="16">
         <v>381</v>
       </c>
@@ -35140,13 +35133,13 @@
         <v>618</v>
       </c>
       <c r="F381" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G381" s="49" t="s">
         <v>678</v>
       </c>
       <c r="H381" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I381" s="49" t="s">
         <v>618</v>
@@ -35195,7 +35188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="16">
         <v>382</v>
       </c>
@@ -35212,13 +35205,13 @@
         <v>649</v>
       </c>
       <c r="F382" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G382" s="49" t="s">
         <v>679</v>
       </c>
       <c r="H382" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I382" s="49" t="s">
         <v>649</v>
@@ -35267,7 +35260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="16">
         <v>383</v>
       </c>
@@ -35284,13 +35277,13 @@
         <v>619</v>
       </c>
       <c r="F383" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G383" s="49" t="s">
         <v>680</v>
       </c>
       <c r="H383" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I383" s="49" t="s">
         <v>619</v>
@@ -35339,7 +35332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="16">
         <v>384</v>
       </c>
@@ -35356,13 +35349,13 @@
         <v>636</v>
       </c>
       <c r="F384" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G384" s="49" t="s">
         <v>681</v>
       </c>
       <c r="H384" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I384" s="49" t="s">
         <v>636</v>
@@ -35411,7 +35404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="16">
         <v>385</v>
       </c>
@@ -35428,13 +35421,13 @@
         <v>636</v>
       </c>
       <c r="F385" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G385" s="49" t="s">
         <v>682</v>
       </c>
       <c r="H385" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I385" s="49" t="s">
         <v>636</v>
@@ -35483,7 +35476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="16">
         <v>386</v>
       </c>
@@ -35500,13 +35493,13 @@
         <v>641</v>
       </c>
       <c r="F386" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G386" s="49" t="s">
         <v>683</v>
       </c>
       <c r="H386" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I386" s="49" t="s">
         <v>641</v>
@@ -35555,7 +35548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="16">
         <v>387</v>
       </c>
@@ -35572,13 +35565,13 @@
         <v>630</v>
       </c>
       <c r="F387" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G387" s="49" t="s">
         <v>684</v>
       </c>
       <c r="H387" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I387" s="49" t="s">
         <v>630</v>
@@ -35627,7 +35620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="16">
         <v>388</v>
       </c>
@@ -35644,13 +35637,13 @@
         <v>645</v>
       </c>
       <c r="F388" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G388" s="49" t="s">
         <v>685</v>
       </c>
       <c r="H388" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I388" s="49" t="s">
         <v>645</v>
@@ -35699,7 +35692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="16">
         <v>389</v>
       </c>
@@ -35716,13 +35709,13 @@
         <v>621</v>
       </c>
       <c r="F389" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G389" s="49" t="s">
         <v>686</v>
       </c>
       <c r="H389" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I389" s="49" t="s">
         <v>621</v>
@@ -35771,7 +35764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="16">
         <v>390</v>
       </c>
@@ -35788,13 +35781,13 @@
         <v>647</v>
       </c>
       <c r="F390" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G390" s="49" t="s">
         <v>687</v>
       </c>
       <c r="H390" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I390" s="49" t="s">
         <v>647</v>
@@ -35843,7 +35836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="16">
         <v>391</v>
       </c>
@@ -35860,13 +35853,13 @@
         <v>620</v>
       </c>
       <c r="F391" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G391" s="49" t="s">
         <v>688</v>
       </c>
       <c r="H391" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I391" s="49" t="s">
         <v>620</v>
@@ -35915,7 +35908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="16">
         <v>392</v>
       </c>
@@ -35932,13 +35925,13 @@
         <v>634</v>
       </c>
       <c r="F392" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G392" s="49" t="s">
         <v>689</v>
       </c>
       <c r="H392" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I392" s="49" t="s">
         <v>634</v>
@@ -35987,7 +35980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="16">
         <v>393</v>
       </c>
@@ -36004,13 +35997,13 @@
         <v>641</v>
       </c>
       <c r="F393" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G393" s="49" t="s">
         <v>690</v>
       </c>
       <c r="H393" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I393" s="49" t="s">
         <v>641</v>
@@ -36059,7 +36052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="16">
         <v>394</v>
       </c>
@@ -36076,13 +36069,13 @@
         <v>632</v>
       </c>
       <c r="F394" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G394" s="49" t="s">
         <v>691</v>
       </c>
       <c r="H394" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I394" s="49" t="s">
         <v>632</v>
@@ -36131,7 +36124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="16">
         <v>395</v>
       </c>
@@ -36148,13 +36141,13 @@
         <v>628</v>
       </c>
       <c r="F395" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G395" s="49" t="s">
         <v>692</v>
       </c>
       <c r="H395" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I395" s="49" t="s">
         <v>628</v>
@@ -36203,7 +36196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="16">
         <v>396</v>
       </c>
@@ -36220,13 +36213,13 @@
         <v>648</v>
       </c>
       <c r="F396" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G396" s="49" t="s">
         <v>693</v>
       </c>
       <c r="H396" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I396" s="49" t="s">
         <v>648</v>
@@ -36275,7 +36268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="16">
         <v>397</v>
       </c>
@@ -36292,13 +36285,13 @@
         <v>629</v>
       </c>
       <c r="F397" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G397" s="49" t="s">
         <v>694</v>
       </c>
       <c r="H397" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I397" s="49" t="s">
         <v>629</v>
@@ -36347,7 +36340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="16">
         <v>398</v>
       </c>
@@ -36364,13 +36357,13 @@
         <v>631</v>
       </c>
       <c r="F398" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G398" s="49" t="s">
         <v>695</v>
       </c>
       <c r="H398" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I398" s="49" t="s">
         <v>631</v>
@@ -36419,7 +36412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="16">
         <v>399</v>
       </c>
@@ -36436,13 +36429,13 @@
         <v>628</v>
       </c>
       <c r="F399" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G399" s="49" t="s">
         <v>696</v>
       </c>
       <c r="H399" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I399" s="49" t="s">
         <v>628</v>
@@ -36491,7 +36484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="16">
         <v>400</v>
       </c>
@@ -36508,13 +36501,13 @@
         <v>629</v>
       </c>
       <c r="F400" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G400" s="49" t="s">
         <v>697</v>
       </c>
       <c r="H400" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I400" s="49" t="s">
         <v>629</v>
@@ -36563,7 +36556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="16">
         <v>401</v>
       </c>
@@ -36580,13 +36573,13 @@
         <v>629</v>
       </c>
       <c r="F401" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G401" s="49" t="s">
         <v>698</v>
       </c>
       <c r="H401" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I401" s="49" t="s">
         <v>629</v>
@@ -36635,7 +36628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="16">
         <v>402</v>
       </c>
@@ -36652,13 +36645,13 @@
         <v>619</v>
       </c>
       <c r="F402" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G402" s="49" t="s">
         <v>699</v>
       </c>
       <c r="H402" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I402" s="49" t="s">
         <v>619</v>
@@ -36707,7 +36700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="16">
         <v>403</v>
       </c>
@@ -36724,13 +36717,13 @@
         <v>620</v>
       </c>
       <c r="F403" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G403" s="49" t="s">
         <v>700</v>
       </c>
       <c r="H403" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I403" s="49" t="s">
         <v>620</v>
@@ -36779,7 +36772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="16">
         <v>404</v>
       </c>
@@ -36796,13 +36789,13 @@
         <v>636</v>
       </c>
       <c r="F404" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G404" s="49" t="s">
         <v>701</v>
       </c>
       <c r="H404" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I404" s="49" t="s">
         <v>636</v>
@@ -36851,7 +36844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="16">
         <v>405</v>
       </c>
@@ -36868,13 +36861,13 @@
         <v>632</v>
       </c>
       <c r="F405" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G405" s="49" t="s">
         <v>702</v>
       </c>
       <c r="H405" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I405" s="49" t="s">
         <v>632</v>
@@ -36923,7 +36916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="16">
         <v>406</v>
       </c>
@@ -36940,13 +36933,13 @@
         <v>636</v>
       </c>
       <c r="F406" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G406" s="49" t="s">
         <v>703</v>
       </c>
       <c r="H406" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I406" s="49" t="s">
         <v>636</v>
@@ -36995,7 +36988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="16">
         <v>407</v>
       </c>
@@ -37012,13 +37005,13 @@
         <v>617</v>
       </c>
       <c r="F407" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G407" s="49" t="s">
         <v>704</v>
       </c>
       <c r="H407" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I407" s="49" t="s">
         <v>617</v>
@@ -37067,7 +37060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="16">
         <v>408</v>
       </c>
@@ -37084,13 +37077,13 @@
         <v>632</v>
       </c>
       <c r="F408" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G408" s="49" t="s">
         <v>705</v>
       </c>
       <c r="H408" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I408" s="49" t="s">
         <v>632</v>
@@ -37139,7 +37132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="16">
         <v>409</v>
       </c>
@@ -37156,13 +37149,13 @@
         <v>622</v>
       </c>
       <c r="F409" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G409" s="49" t="s">
         <v>706</v>
       </c>
       <c r="H409" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I409" s="49" t="s">
         <v>622</v>
@@ -37211,7 +37204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="16">
         <v>410</v>
       </c>
@@ -37228,13 +37221,13 @@
         <v>633</v>
       </c>
       <c r="F410" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G410" s="49" t="s">
         <v>707</v>
       </c>
       <c r="H410" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I410" s="49" t="s">
         <v>633</v>
@@ -37283,7 +37276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="16">
         <v>411</v>
       </c>
@@ -37300,13 +37293,13 @@
         <v>620</v>
       </c>
       <c r="F411" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G411" s="49" t="s">
         <v>708</v>
       </c>
       <c r="H411" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I411" s="49" t="s">
         <v>620</v>
@@ -37355,7 +37348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="16">
         <v>412</v>
       </c>
@@ -37372,13 +37365,13 @@
         <v>625</v>
       </c>
       <c r="F412" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G412" s="49" t="s">
         <v>709</v>
       </c>
       <c r="H412" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I412" s="49" t="s">
         <v>625</v>
@@ -37427,7 +37420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="16">
         <v>413</v>
       </c>
@@ -37444,13 +37437,13 @@
         <v>640</v>
       </c>
       <c r="F413" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G413" s="49" t="s">
         <v>710</v>
       </c>
       <c r="H413" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I413" s="49" t="s">
         <v>640</v>
@@ -37499,7 +37492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="16">
         <v>414</v>
       </c>
@@ -37516,13 +37509,13 @@
         <v>638</v>
       </c>
       <c r="F414" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G414" s="49" t="s">
         <v>711</v>
       </c>
       <c r="H414" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I414" s="49" t="s">
         <v>638</v>
@@ -37571,7 +37564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="16">
         <v>415</v>
       </c>
@@ -37588,13 +37581,13 @@
         <v>642</v>
       </c>
       <c r="F415" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G415" s="49" t="s">
         <v>712</v>
       </c>
       <c r="H415" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I415" s="49" t="s">
         <v>642</v>
@@ -37643,7 +37636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="16">
         <v>416</v>
       </c>
@@ -37660,13 +37653,13 @@
         <v>628</v>
       </c>
       <c r="F416" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G416" s="49" t="s">
         <v>713</v>
       </c>
       <c r="H416" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I416" s="49" t="s">
         <v>628</v>
@@ -37715,7 +37708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="16">
         <v>417</v>
       </c>
@@ -37732,13 +37725,13 @@
         <v>631</v>
       </c>
       <c r="F417" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G417" s="49" t="s">
         <v>714</v>
       </c>
       <c r="H417" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I417" s="49" t="s">
         <v>631</v>
@@ -37787,7 +37780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="16">
         <v>418</v>
       </c>
@@ -37804,13 +37797,13 @@
         <v>620</v>
       </c>
       <c r="F418" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G418" s="49" t="s">
         <v>715</v>
       </c>
       <c r="H418" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I418" s="49" t="s">
         <v>620</v>
@@ -37859,7 +37852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="16">
         <v>419</v>
       </c>
@@ -37876,13 +37869,13 @@
         <v>642</v>
       </c>
       <c r="F419" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G419" s="49" t="s">
         <v>716</v>
       </c>
       <c r="H419" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I419" s="49" t="s">
         <v>642</v>
@@ -37931,7 +37924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="16">
         <v>420</v>
       </c>
@@ -37948,13 +37941,13 @@
         <v>628</v>
       </c>
       <c r="F420" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G420" s="49" t="s">
         <v>717</v>
       </c>
       <c r="H420" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I420" s="49" t="s">
         <v>628</v>
@@ -38003,7 +37996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="16">
         <v>421</v>
       </c>
@@ -38020,13 +38013,13 @@
         <v>634</v>
       </c>
       <c r="F421" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G421" s="49" t="s">
         <v>718</v>
       </c>
       <c r="H421" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I421" s="49" t="s">
         <v>634</v>
@@ -38075,7 +38068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="16">
         <v>422</v>
       </c>
@@ -38092,13 +38085,13 @@
         <v>622</v>
       </c>
       <c r="F422" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G422" s="49" t="s">
         <v>719</v>
       </c>
       <c r="H422" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I422" s="49" t="s">
         <v>622</v>
@@ -38147,7 +38140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="16">
         <v>423</v>
       </c>
@@ -38164,13 +38157,13 @@
         <v>630</v>
       </c>
       <c r="F423" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G423" s="49" t="s">
         <v>720</v>
       </c>
       <c r="H423" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I423" s="49" t="s">
         <v>630</v>
@@ -38219,7 +38212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="16">
         <v>424</v>
       </c>
@@ -38236,13 +38229,13 @@
         <v>640</v>
       </c>
       <c r="F424" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G424" s="49" t="s">
         <v>721</v>
       </c>
       <c r="H424" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I424" s="49" t="s">
         <v>640</v>
@@ -38291,7 +38284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="16">
         <v>425</v>
       </c>
@@ -38308,13 +38301,13 @@
         <v>633</v>
       </c>
       <c r="F425" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G425" s="49" t="s">
         <v>722</v>
       </c>
       <c r="H425" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I425" s="49" t="s">
         <v>633</v>
@@ -38363,7 +38356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="16">
         <v>426</v>
       </c>
@@ -38380,13 +38373,13 @@
         <v>629</v>
       </c>
       <c r="F426" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G426" s="49" t="s">
         <v>723</v>
       </c>
       <c r="H426" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I426" s="49" t="s">
         <v>629</v>
@@ -38435,7 +38428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="16">
         <v>427</v>
       </c>
@@ -38452,13 +38445,13 @@
         <v>632</v>
       </c>
       <c r="F427" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G427" s="49" t="s">
         <v>724</v>
       </c>
       <c r="H427" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I427" s="49" t="s">
         <v>632</v>
@@ -38507,7 +38500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="16">
         <v>428</v>
       </c>
@@ -38524,13 +38517,13 @@
         <v>644</v>
       </c>
       <c r="F428" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G428" s="49" t="s">
         <v>725</v>
       </c>
       <c r="H428" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I428" s="49" t="s">
         <v>644</v>
@@ -38579,7 +38572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="16">
         <v>429</v>
       </c>
@@ -38596,13 +38589,13 @@
         <v>647</v>
       </c>
       <c r="F429" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G429" s="49" t="s">
         <v>726</v>
       </c>
       <c r="H429" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I429" s="49" t="s">
         <v>647</v>
@@ -38651,7 +38644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="16">
         <v>430</v>
       </c>
@@ -38668,13 +38661,13 @@
         <v>622</v>
       </c>
       <c r="F430" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G430" s="49" t="s">
         <v>727</v>
       </c>
       <c r="H430" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I430" s="49" t="s">
         <v>622</v>
@@ -38723,7 +38716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="16">
         <v>431</v>
       </c>
@@ -38740,13 +38733,13 @@
         <v>636</v>
       </c>
       <c r="F431" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G431" s="49" t="s">
         <v>728</v>
       </c>
       <c r="H431" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I431" s="49" t="s">
         <v>636</v>
@@ -38795,7 +38788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="16">
         <v>432</v>
       </c>
@@ -38812,13 +38805,13 @@
         <v>636</v>
       </c>
       <c r="F432" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G432" s="49" t="s">
         <v>729</v>
       </c>
       <c r="H432" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I432" s="49" t="s">
         <v>636</v>
@@ -38867,7 +38860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="16">
         <v>433</v>
       </c>
@@ -38884,13 +38877,13 @@
         <v>648</v>
       </c>
       <c r="F433" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G433" s="49" t="s">
         <v>730</v>
       </c>
       <c r="H433" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I433" s="49" t="s">
         <v>648</v>
@@ -38939,7 +38932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="16">
         <v>434</v>
       </c>
@@ -38956,13 +38949,13 @@
         <v>640</v>
       </c>
       <c r="F434" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G434" s="49" t="s">
         <v>731</v>
       </c>
       <c r="H434" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I434" s="49" t="s">
         <v>640</v>
@@ -39011,7 +39004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="16">
         <v>435</v>
       </c>
@@ -39028,13 +39021,13 @@
         <v>622</v>
       </c>
       <c r="F435" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G435" s="49" t="s">
         <v>732</v>
       </c>
       <c r="H435" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I435" s="49" t="s">
         <v>622</v>
@@ -39083,7 +39076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="16">
         <v>436</v>
       </c>
@@ -39100,13 +39093,13 @@
         <v>618</v>
       </c>
       <c r="F436" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G436" s="49" t="s">
         <v>733</v>
       </c>
       <c r="H436" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I436" s="49" t="s">
         <v>618</v>
@@ -39155,7 +39148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="16">
         <v>437</v>
       </c>
@@ -39172,13 +39165,13 @@
         <v>620</v>
       </c>
       <c r="F437" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G437" s="49" t="s">
         <v>734</v>
       </c>
       <c r="H437" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I437" s="49" t="s">
         <v>620</v>
@@ -39227,7 +39220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="16">
         <v>438</v>
       </c>
@@ -39244,13 +39237,13 @@
         <v>622</v>
       </c>
       <c r="F438" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G438" s="49" t="s">
         <v>735</v>
       </c>
       <c r="H438" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I438" s="49" t="s">
         <v>622</v>
@@ -39299,7 +39292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="16">
         <v>439</v>
       </c>
@@ -39316,13 +39309,13 @@
         <v>621</v>
       </c>
       <c r="F439" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G439" s="49" t="s">
         <v>736</v>
       </c>
       <c r="H439" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I439" s="49" t="s">
         <v>621</v>
@@ -39371,7 +39364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="16">
         <v>440</v>
       </c>
@@ -39388,13 +39381,13 @@
         <v>629</v>
       </c>
       <c r="F440" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G440" s="49" t="s">
         <v>737</v>
       </c>
       <c r="H440" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I440" s="49" t="s">
         <v>629</v>
@@ -39443,7 +39436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="16">
         <v>441</v>
       </c>
@@ -39460,13 +39453,13 @@
         <v>631</v>
       </c>
       <c r="F441" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G441" s="49" t="s">
         <v>738</v>
       </c>
       <c r="H441" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I441" s="49" t="s">
         <v>631</v>
@@ -39515,7 +39508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="16">
         <v>442</v>
       </c>
@@ -39532,13 +39525,13 @@
         <v>648</v>
       </c>
       <c r="F442" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G442" s="49" t="s">
         <v>739</v>
       </c>
       <c r="H442" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I442" s="49" t="s">
         <v>648</v>
@@ -39587,7 +39580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="16">
         <v>443</v>
       </c>
@@ -39604,13 +39597,13 @@
         <v>623</v>
       </c>
       <c r="F443" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G443" s="49" t="s">
         <v>740</v>
       </c>
       <c r="H443" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I443" s="49" t="s">
         <v>623</v>
@@ -39659,7 +39652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="16">
         <v>444</v>
       </c>
@@ -39676,13 +39669,13 @@
         <v>626</v>
       </c>
       <c r="F444" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G444" s="49" t="s">
         <v>741</v>
       </c>
       <c r="H444" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I444" s="49" t="s">
         <v>626</v>
@@ -39731,7 +39724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="16">
         <v>445</v>
       </c>
@@ -39748,13 +39741,13 @@
         <v>625</v>
       </c>
       <c r="F445" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G445" s="49" t="s">
         <v>742</v>
       </c>
       <c r="H445" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I445" s="49" t="s">
         <v>625</v>
@@ -39803,7 +39796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="16">
         <v>446</v>
       </c>
@@ -39820,13 +39813,13 @@
         <v>646</v>
       </c>
       <c r="F446" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G446" s="49" t="s">
         <v>743</v>
       </c>
       <c r="H446" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I446" s="49" t="s">
         <v>646</v>
@@ -39875,7 +39868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="16">
         <v>447</v>
       </c>
@@ -39892,13 +39885,13 @@
         <v>631</v>
       </c>
       <c r="F447" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G447" s="49" t="s">
         <v>744</v>
       </c>
       <c r="H447" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I447" s="49" t="s">
         <v>631</v>
@@ -39947,7 +39940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="16">
         <v>448</v>
       </c>
@@ -39964,13 +39957,13 @@
         <v>628</v>
       </c>
       <c r="F448" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G448" s="49" t="s">
         <v>745</v>
       </c>
       <c r="H448" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I448" s="49" t="s">
         <v>628</v>
@@ -40019,7 +40012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="16">
         <v>449</v>
       </c>
@@ -40036,13 +40029,13 @@
         <v>629</v>
       </c>
       <c r="F449" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G449" s="49" t="s">
         <v>746</v>
       </c>
       <c r="H449" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I449" s="49" t="s">
         <v>629</v>
@@ -40091,7 +40084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="16">
         <v>450</v>
       </c>
@@ -40108,13 +40101,13 @@
         <v>636</v>
       </c>
       <c r="F450" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G450" s="49" t="s">
         <v>747</v>
       </c>
       <c r="H450" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I450" s="49" t="s">
         <v>636</v>
@@ -40163,7 +40156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="16">
         <v>451</v>
       </c>
@@ -40180,13 +40173,13 @@
         <v>626</v>
       </c>
       <c r="F451" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G451" s="49" t="s">
         <v>748</v>
       </c>
       <c r="H451" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I451" s="49" t="s">
         <v>626</v>
@@ -40235,7 +40228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="16">
         <v>452</v>
       </c>
@@ -40252,13 +40245,13 @@
         <v>631</v>
       </c>
       <c r="F452" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G452" s="49" t="s">
         <v>749</v>
       </c>
       <c r="H452" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I452" s="49" t="s">
         <v>631</v>
@@ -40307,7 +40300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="16">
         <v>453</v>
       </c>
@@ -40324,13 +40317,13 @@
         <v>635</v>
       </c>
       <c r="F453" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G453" s="49" t="s">
         <v>750</v>
       </c>
       <c r="H453" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I453" s="49" t="s">
         <v>635</v>
@@ -40379,7 +40372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="16">
         <v>454</v>
       </c>
@@ -40396,13 +40389,13 @@
         <v>633</v>
       </c>
       <c r="F454" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G454" s="49" t="s">
         <v>751</v>
       </c>
       <c r="H454" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I454" s="49" t="s">
         <v>633</v>
@@ -40451,7 +40444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="16">
         <v>455</v>
       </c>
@@ -40468,13 +40461,13 @@
         <v>637</v>
       </c>
       <c r="F455" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G455" s="49" t="s">
         <v>752</v>
       </c>
       <c r="H455" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I455" s="49" t="s">
         <v>637</v>
@@ -40523,7 +40516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="16">
         <v>456</v>
       </c>
@@ -40540,13 +40533,13 @@
         <v>647</v>
       </c>
       <c r="F456" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G456" s="49" t="s">
         <v>753</v>
       </c>
       <c r="H456" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I456" s="49" t="s">
         <v>647</v>
@@ -40595,7 +40588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="16">
         <v>457</v>
       </c>
@@ -40612,13 +40605,13 @@
         <v>638</v>
       </c>
       <c r="F457" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G457" s="49" t="s">
         <v>754</v>
       </c>
       <c r="H457" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I457" s="49" t="s">
         <v>638</v>
@@ -40667,7 +40660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="16">
         <v>458</v>
       </c>
@@ -40684,13 +40677,13 @@
         <v>641</v>
       </c>
       <c r="F458" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G458" s="49" t="s">
         <v>755</v>
       </c>
       <c r="H458" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I458" s="49" t="s">
         <v>641</v>
@@ -40739,7 +40732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="16">
         <v>459</v>
       </c>
@@ -40756,13 +40749,13 @@
         <v>641</v>
       </c>
       <c r="F459" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G459" s="49" t="s">
         <v>756</v>
       </c>
       <c r="H459" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I459" s="49" t="s">
         <v>641</v>
@@ -40811,7 +40804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="16">
         <v>460</v>
       </c>
@@ -40828,13 +40821,13 @@
         <v>632</v>
       </c>
       <c r="F460" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G460" s="49" t="s">
         <v>757</v>
       </c>
       <c r="H460" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I460" s="49" t="s">
         <v>632</v>
@@ -40883,7 +40876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="16">
         <v>461</v>
       </c>
@@ -40900,13 +40893,13 @@
         <v>642</v>
       </c>
       <c r="F461" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G461" s="49" t="s">
         <v>758</v>
       </c>
       <c r="H461" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I461" s="49" t="s">
         <v>642</v>
@@ -40955,7 +40948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="16">
         <v>462</v>
       </c>
@@ -40972,13 +40965,13 @@
         <v>627</v>
       </c>
       <c r="F462" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G462" s="49" t="s">
         <v>759</v>
       </c>
       <c r="H462" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I462" s="49" t="s">
         <v>627</v>
@@ -41027,7 +41020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="16">
         <v>463</v>
       </c>
@@ -41044,13 +41037,13 @@
         <v>627</v>
       </c>
       <c r="F463" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G463" s="49" t="s">
         <v>760</v>
       </c>
       <c r="H463" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I463" s="49" t="s">
         <v>627</v>
@@ -41099,7 +41092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="16">
         <v>464</v>
       </c>
@@ -41116,13 +41109,13 @@
         <v>629</v>
       </c>
       <c r="F464" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G464" s="49" t="s">
         <v>761</v>
       </c>
       <c r="H464" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I464" s="49" t="s">
         <v>629</v>
@@ -41171,7 +41164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="16">
         <v>465</v>
       </c>
@@ -41188,13 +41181,13 @@
         <v>629</v>
       </c>
       <c r="F465" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G465" s="49" t="s">
         <v>762</v>
       </c>
       <c r="H465" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I465" s="49" t="s">
         <v>629</v>
@@ -41243,7 +41236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="16">
         <v>466</v>
       </c>
@@ -41260,13 +41253,13 @@
         <v>636</v>
       </c>
       <c r="F466" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G466" s="49" t="s">
         <v>763</v>
       </c>
       <c r="H466" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I466" s="49" t="s">
         <v>636</v>
@@ -41315,7 +41308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="16">
         <v>467</v>
       </c>
@@ -41332,13 +41325,13 @@
         <v>636</v>
       </c>
       <c r="F467" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G467" s="49" t="s">
         <v>764</v>
       </c>
       <c r="H467" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I467" s="49" t="s">
         <v>636</v>
@@ -41387,7 +41380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="16">
         <v>468</v>
       </c>
@@ -41404,13 +41397,13 @@
         <v>624</v>
       </c>
       <c r="F468" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G468" s="49" t="s">
         <v>765</v>
       </c>
       <c r="H468" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I468" s="49" t="s">
         <v>624</v>
@@ -41459,7 +41452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="16">
         <v>469</v>
       </c>
@@ -41476,13 +41469,13 @@
         <v>632</v>
       </c>
       <c r="F469" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G469" s="49" t="s">
         <v>766</v>
       </c>
       <c r="H469" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I469" s="49" t="s">
         <v>632</v>
@@ -41531,7 +41524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="16">
         <v>470</v>
       </c>
@@ -41548,13 +41541,13 @@
         <v>636</v>
       </c>
       <c r="F470" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G470" s="49" t="s">
         <v>767</v>
       </c>
       <c r="H470" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I470" s="49" t="s">
         <v>636</v>
@@ -41603,7 +41596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="16">
         <v>471</v>
       </c>
@@ -41620,13 +41613,13 @@
         <v>631</v>
       </c>
       <c r="F471" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G471" s="49" t="s">
         <v>768</v>
       </c>
       <c r="H471" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I471" s="49" t="s">
         <v>631</v>
@@ -41675,7 +41668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="16">
         <v>472</v>
       </c>
@@ -41692,13 +41685,13 @@
         <v>626</v>
       </c>
       <c r="F472" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G472" s="49" t="s">
         <v>769</v>
       </c>
       <c r="H472" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I472" s="49" t="s">
         <v>626</v>
@@ -41747,7 +41740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="16">
         <v>473</v>
       </c>
@@ -41764,13 +41757,13 @@
         <v>648</v>
       </c>
       <c r="F473" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G473" s="49" t="s">
         <v>770</v>
       </c>
       <c r="H473" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I473" s="49" t="s">
         <v>648</v>
@@ -41819,7 +41812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="16">
         <v>474</v>
       </c>
@@ -41836,13 +41829,13 @@
         <v>640</v>
       </c>
       <c r="F474" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G474" s="49" t="s">
         <v>771</v>
       </c>
       <c r="H474" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I474" s="49" t="s">
         <v>640</v>
@@ -41891,7 +41884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="16">
         <v>475</v>
       </c>
@@ -41908,13 +41901,13 @@
         <v>629</v>
       </c>
       <c r="F475" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G475" s="49" t="s">
         <v>772</v>
       </c>
       <c r="H475" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I475" s="49" t="s">
         <v>629</v>
@@ -41963,7 +41956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="16">
         <v>476</v>
       </c>
@@ -41980,13 +41973,13 @@
         <v>636</v>
       </c>
       <c r="F476" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G476" s="49" t="s">
         <v>773</v>
       </c>
       <c r="H476" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I476" s="49" t="s">
         <v>636</v>
@@ -42035,7 +42028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="16">
         <v>477</v>
       </c>
@@ -42052,13 +42045,13 @@
         <v>638</v>
       </c>
       <c r="F477" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G477" s="49" t="s">
         <v>774</v>
       </c>
       <c r="H477" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I477" s="49" t="s">
         <v>638</v>
@@ -42107,7 +42100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="16">
         <v>478</v>
       </c>
@@ -42124,13 +42117,13 @@
         <v>619</v>
       </c>
       <c r="F478" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G478" s="49" t="s">
         <v>775</v>
       </c>
       <c r="H478" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I478" s="49" t="s">
         <v>619</v>
@@ -42179,7 +42172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="16">
         <v>479</v>
       </c>
@@ -42196,13 +42189,13 @@
         <v>629</v>
       </c>
       <c r="F479" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G479" s="49" t="s">
         <v>776</v>
       </c>
       <c r="H479" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I479" s="49" t="s">
         <v>629</v>
@@ -42251,7 +42244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="16">
         <v>480</v>
       </c>
@@ -42268,13 +42261,13 @@
         <v>631</v>
       </c>
       <c r="F480" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G480" s="49" t="s">
         <v>777</v>
       </c>
       <c r="H480" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I480" s="49" t="s">
         <v>631</v>
@@ -42323,7 +42316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="16">
         <v>481</v>
       </c>
@@ -42340,13 +42333,13 @@
         <v>643</v>
       </c>
       <c r="F481" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G481" s="49" t="s">
         <v>778</v>
       </c>
       <c r="H481" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I481" s="49" t="s">
         <v>643</v>
@@ -42395,7 +42388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="16">
         <v>482</v>
       </c>
@@ -42412,13 +42405,13 @@
         <v>629</v>
       </c>
       <c r="F482" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G482" s="49" t="s">
         <v>779</v>
       </c>
       <c r="H482" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I482" s="49" t="s">
         <v>629</v>
@@ -42467,7 +42460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="16">
         <v>483</v>
       </c>
@@ -42484,13 +42477,13 @@
         <v>635</v>
       </c>
       <c r="F483" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G483" s="49" t="s">
         <v>780</v>
       </c>
       <c r="H483" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I483" s="49" t="s">
         <v>635</v>
@@ -42539,7 +42532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="16">
         <v>484</v>
       </c>
@@ -42556,13 +42549,13 @@
         <v>639</v>
       </c>
       <c r="F484" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G484" s="49" t="s">
         <v>781</v>
       </c>
       <c r="H484" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I484" s="49" t="s">
         <v>639</v>
@@ -42611,7 +42604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="16">
         <v>485</v>
       </c>
@@ -42628,13 +42621,13 @@
         <v>634</v>
       </c>
       <c r="F485" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G485" s="49" t="s">
         <v>782</v>
       </c>
       <c r="H485" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I485" s="49" t="s">
         <v>634</v>
@@ -42683,7 +42676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="16">
         <v>486</v>
       </c>
@@ -42700,13 +42693,13 @@
         <v>617</v>
       </c>
       <c r="F486" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G486" s="49" t="s">
         <v>783</v>
       </c>
       <c r="H486" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I486" s="49" t="s">
         <v>617</v>
@@ -42755,7 +42748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="16">
         <v>487</v>
       </c>
@@ -42772,13 +42765,13 @@
         <v>622</v>
       </c>
       <c r="F487" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G487" s="49" t="s">
         <v>784</v>
       </c>
       <c r="H487" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I487" s="49" t="s">
         <v>622</v>
@@ -42827,7 +42820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="16">
         <v>488</v>
       </c>
@@ -42844,13 +42837,13 @@
         <v>623</v>
       </c>
       <c r="F488" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G488" s="49" t="s">
         <v>785</v>
       </c>
       <c r="H488" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I488" s="49" t="s">
         <v>623</v>
@@ -42899,7 +42892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="16">
         <v>489</v>
       </c>
@@ -42916,13 +42909,13 @@
         <v>629</v>
       </c>
       <c r="F489" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G489" s="49" t="s">
         <v>786</v>
       </c>
       <c r="H489" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I489" s="49" t="s">
         <v>629</v>
@@ -42971,7 +42964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="16">
         <v>490</v>
       </c>
@@ -42988,13 +42981,13 @@
         <v>617</v>
       </c>
       <c r="F490" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G490" s="49" t="s">
         <v>787</v>
       </c>
       <c r="H490" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I490" s="49" t="s">
         <v>617</v>
@@ -43043,7 +43036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="16">
         <v>491</v>
       </c>
@@ -43060,13 +43053,13 @@
         <v>633</v>
       </c>
       <c r="F491" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G491" s="49" t="s">
         <v>788</v>
       </c>
       <c r="H491" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I491" s="49" t="s">
         <v>633</v>
@@ -43115,7 +43108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="16">
         <v>492</v>
       </c>
@@ -43132,13 +43125,13 @@
         <v>634</v>
       </c>
       <c r="F492" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G492" s="49" t="s">
         <v>789</v>
       </c>
       <c r="H492" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I492" s="49" t="s">
         <v>634</v>
@@ -43187,7 +43180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="16">
         <v>493</v>
       </c>
@@ -43204,13 +43197,13 @@
         <v>635</v>
       </c>
       <c r="F493" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G493" s="49" t="s">
         <v>790</v>
       </c>
       <c r="H493" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I493" s="49" t="s">
         <v>635</v>
@@ -43259,7 +43252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="16">
         <v>494</v>
       </c>
@@ -43276,13 +43269,13 @@
         <v>632</v>
       </c>
       <c r="F494" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G494" s="49" t="s">
         <v>791</v>
       </c>
       <c r="H494" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I494" s="49" t="s">
         <v>632</v>
@@ -43331,7 +43324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="16">
         <v>495</v>
       </c>
@@ -43348,13 +43341,13 @@
         <v>632</v>
       </c>
       <c r="F495" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G495" s="49" t="s">
         <v>792</v>
       </c>
       <c r="H495" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I495" s="49" t="s">
         <v>632</v>
@@ -43403,7 +43396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="16">
         <v>496</v>
       </c>
@@ -43420,13 +43413,13 @@
         <v>636</v>
       </c>
       <c r="F496" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G496" s="49" t="s">
         <v>793</v>
       </c>
       <c r="H496" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I496" s="49" t="s">
         <v>636</v>
@@ -43475,7 +43468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="16">
         <v>497</v>
       </c>
@@ -43492,13 +43485,13 @@
         <v>624</v>
       </c>
       <c r="F497" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G497" s="49" t="s">
         <v>794</v>
       </c>
       <c r="H497" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I497" s="49" t="s">
         <v>624</v>
@@ -43547,7 +43540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="16">
         <v>498</v>
       </c>
@@ -43564,13 +43557,13 @@
         <v>629</v>
       </c>
       <c r="F498" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G498" s="49" t="s">
         <v>795</v>
       </c>
       <c r="H498" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I498" s="49" t="s">
         <v>629</v>
@@ -43619,7 +43612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="16">
         <v>499</v>
       </c>
@@ -43636,13 +43629,13 @@
         <v>628</v>
       </c>
       <c r="F499" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G499" s="49" t="s">
         <v>796</v>
       </c>
       <c r="H499" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I499" s="49" t="s">
         <v>628</v>
@@ -43691,7 +43684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="16">
         <v>500</v>
       </c>
@@ -43708,13 +43701,13 @@
         <v>631</v>
       </c>
       <c r="F500" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G500" s="49" t="s">
         <v>797</v>
       </c>
       <c r="H500" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I500" s="49" t="s">
         <v>631</v>
@@ -43763,7 +43756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="16">
         <v>501</v>
       </c>
@@ -43780,13 +43773,13 @@
         <v>620</v>
       </c>
       <c r="F501" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G501" s="49" t="s">
         <v>798</v>
       </c>
       <c r="H501" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I501" s="49" t="s">
         <v>620</v>
@@ -43835,7 +43828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="16">
         <v>502</v>
       </c>
@@ -43852,13 +43845,13 @@
         <v>640</v>
       </c>
       <c r="F502" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G502" s="49" t="s">
         <v>799</v>
       </c>
       <c r="H502" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I502" s="49" t="s">
         <v>640</v>
@@ -43907,7 +43900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="16">
         <v>503</v>
       </c>
@@ -43924,13 +43917,13 @@
         <v>640</v>
       </c>
       <c r="F503" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G503" s="49" t="s">
         <v>800</v>
       </c>
       <c r="H503" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I503" s="49" t="s">
         <v>640</v>
@@ -43979,7 +43972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="16">
         <v>504</v>
       </c>
@@ -43996,13 +43989,13 @@
         <v>623</v>
       </c>
       <c r="F504" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G504" s="49" t="s">
         <v>801</v>
       </c>
       <c r="H504" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I504" s="49" t="s">
         <v>623</v>
@@ -44051,7 +44044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="16">
         <v>505</v>
       </c>
@@ -44068,13 +44061,13 @@
         <v>631</v>
       </c>
       <c r="F505" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G505" s="49" t="s">
         <v>802</v>
       </c>
       <c r="H505" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I505" s="49" t="s">
         <v>631</v>
@@ -44123,7 +44116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="16">
         <v>506</v>
       </c>
@@ -44140,13 +44133,13 @@
         <v>630</v>
       </c>
       <c r="F506" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G506" s="49" t="s">
         <v>803</v>
       </c>
       <c r="H506" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I506" s="49" t="s">
         <v>630</v>
@@ -44195,7 +44188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="507" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="16">
         <v>507</v>
       </c>
@@ -44212,13 +44205,13 @@
         <v>622</v>
       </c>
       <c r="F507" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G507" s="49" t="s">
         <v>804</v>
       </c>
       <c r="H507" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I507" s="49" t="s">
         <v>622</v>
@@ -44267,7 +44260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="16">
         <v>508</v>
       </c>
@@ -44284,13 +44277,13 @@
         <v>647</v>
       </c>
       <c r="F508" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G508" s="49" t="s">
         <v>805</v>
       </c>
       <c r="H508" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I508" s="49" t="s">
         <v>647</v>
@@ -44339,7 +44332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="509" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="16">
         <v>509</v>
       </c>
@@ -44356,13 +44349,13 @@
         <v>630</v>
       </c>
       <c r="F509" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G509" s="49" t="s">
         <v>806</v>
       </c>
       <c r="H509" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I509" s="49" t="s">
         <v>630</v>
@@ -44411,7 +44404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="510" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="16">
         <v>510</v>
       </c>
@@ -44428,13 +44421,13 @@
         <v>625</v>
       </c>
       <c r="F510" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G510" s="49" t="s">
         <v>807</v>
       </c>
       <c r="H510" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I510" s="49" t="s">
         <v>625</v>
@@ -44483,7 +44476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="16">
         <v>511</v>
       </c>
@@ -44500,13 +44493,13 @@
         <v>633</v>
       </c>
       <c r="F511" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G511" s="49" t="s">
         <v>808</v>
       </c>
       <c r="H511" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I511" s="49" t="s">
         <v>633</v>
@@ -44555,7 +44548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="512" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="16">
         <v>512</v>
       </c>
@@ -44572,13 +44565,13 @@
         <v>630</v>
       </c>
       <c r="F512" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G512" s="49" t="s">
         <v>809</v>
       </c>
       <c r="H512" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I512" s="49" t="s">
         <v>630</v>
@@ -44627,7 +44620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="16">
         <v>513</v>
       </c>
@@ -44644,13 +44637,13 @@
         <v>648</v>
       </c>
       <c r="F513" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G513" s="49" t="s">
         <v>810</v>
       </c>
       <c r="H513" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I513" s="49" t="s">
         <v>648</v>
@@ -44699,7 +44692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="16">
         <v>514</v>
       </c>
@@ -44716,13 +44709,13 @@
         <v>632</v>
       </c>
       <c r="F514" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G514" s="49" t="s">
         <v>811</v>
       </c>
       <c r="H514" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I514" s="49" t="s">
         <v>632</v>
@@ -44771,7 +44764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="16">
         <v>515</v>
       </c>
@@ -44788,13 +44781,13 @@
         <v>630</v>
       </c>
       <c r="F515" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G515" s="49" t="s">
         <v>812</v>
       </c>
       <c r="H515" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I515" s="49" t="s">
         <v>630</v>
@@ -44843,7 +44836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="16">
         <v>516</v>
       </c>
@@ -44860,13 +44853,13 @@
         <v>636</v>
       </c>
       <c r="F516" s="46" t="s">
-        <v>923</v>
+        <v>406</v>
       </c>
       <c r="G516" s="49" t="s">
         <v>813</v>
       </c>
       <c r="H516" s="46" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I516" s="49" t="s">
         <v>636</v>
@@ -44915,7 +44908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="16">
         <v>517</v>
       </c>
@@ -44986,7 +44979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="16">
         <v>518</v>
       </c>
@@ -45057,7 +45050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="16">
         <v>519</v>
       </c>
@@ -45128,7 +45121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="16">
         <v>520</v>
       </c>
@@ -45199,7 +45192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="16">
         <v>521</v>
       </c>
@@ -45270,7 +45263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="16">
         <v>522</v>
       </c>
@@ -45341,7 +45334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="16">
         <v>523</v>
       </c>
@@ -45412,7 +45405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="16">
         <v>524</v>
       </c>
@@ -45483,7 +45476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="16">
         <v>525</v>
       </c>
@@ -45554,7 +45547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="526" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="16">
         <v>526</v>
       </c>
@@ -45625,7 +45618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="16">
         <v>527</v>
       </c>
@@ -45696,7 +45689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="528" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="16">
         <v>528</v>
       </c>
@@ -45767,7 +45760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="16">
         <v>529</v>
       </c>
@@ -45838,7 +45831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="16">
         <v>530</v>
       </c>
@@ -45909,7 +45902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="16">
         <v>531</v>
       </c>
@@ -45980,7 +45973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="532" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="16">
         <v>532</v>
       </c>
@@ -46051,7 +46044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="533" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="16">
         <v>533</v>
       </c>
@@ -46122,7 +46115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="16">
         <v>534</v>
       </c>
@@ -46193,7 +46186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="16">
         <v>535</v>
       </c>
@@ -46264,7 +46257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="16">
         <v>536</v>
       </c>
@@ -46335,7 +46328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="16">
         <v>537</v>
       </c>
@@ -46406,7 +46399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="16">
         <v>538</v>
       </c>
@@ -46477,7 +46470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="16">
         <v>539</v>
       </c>
@@ -46548,7 +46541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="540" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="16">
         <v>540</v>
       </c>
@@ -46619,7 +46612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="541" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="16">
         <v>541</v>
       </c>
@@ -46690,7 +46683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="16">
         <v>542</v>
       </c>
@@ -46761,7 +46754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="16">
         <v>543</v>
       </c>
@@ -46832,7 +46825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="16">
         <v>544</v>
       </c>
@@ -46903,7 +46896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="16">
         <v>545</v>
       </c>
@@ -46974,7 +46967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="16">
         <v>546</v>
       </c>
@@ -47045,7 +47038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="547" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="16">
         <v>547</v>
       </c>
@@ -47116,7 +47109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="548" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="16">
         <v>548</v>
       </c>
@@ -47187,7 +47180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="549" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="16">
         <v>549</v>
       </c>
@@ -47258,7 +47251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="16">
         <v>550</v>
       </c>
@@ -47329,7 +47322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="16">
         <v>551</v>
       </c>
@@ -47400,7 +47393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="16">
         <v>552</v>
       </c>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E24C14-F3DC-45B2-90DC-B2EBCDD5D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3230B-11F5-4FAA-A9EE-88309D3B1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -3274,7 +3274,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3721,7 +3741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1124724F-B8C4-4B86-9028-743FC73CDDB0}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
@@ -3877,7 +3897,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45749.330705324071</v>
+        <v>45749.636937268515</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -7548,20 +7568,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F47">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:O1">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7847,9 +7867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:W552"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30:C35"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B554" sqref="B554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7859,16 +7879,16 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52.42578125" customWidth="1"/>
+    <col min="15" max="15" width="48.28515625" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
@@ -10367,13 +10387,13 @@
       <c r="A36" s="16">
         <v>36</v>
       </c>
-      <c r="B36" s="53" t="s">
-        <v>434</v>
+      <c r="B36" s="44" t="s">
+        <v>274</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D36" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E36" s="23" t="s">
@@ -10410,22 +10430,22 @@
         <v>433</v>
       </c>
       <c r="P36" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q36" s="55" t="s">
-        <v>350</v>
+        <v>9</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R36" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S36" s="51" t="s">
-        <v>378</v>
+        <v>9</v>
+      </c>
+      <c r="S36" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T36" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U36" s="55" t="s">
-        <v>321</v>
+        <v>9</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V36" s="50" t="s">
         <v>9</v>
@@ -10438,13 +10458,13 @@
       <c r="A37" s="16">
         <v>37</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>407</v>
+      <c r="B37" s="44" t="s">
+        <v>290</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D37" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E37" s="23" t="s">
@@ -10481,22 +10501,22 @@
         <v>433</v>
       </c>
       <c r="P37" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q37" s="55" t="s">
-        <v>351</v>
+        <v>9</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R37" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S37" s="51" t="s">
-        <v>379</v>
+        <v>9</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T37" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U37" s="55" t="s">
-        <v>322</v>
+        <v>9</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V37" s="50" t="s">
         <v>9</v>
@@ -10509,13 +10529,13 @@
       <c r="A38" s="16">
         <v>38</v>
       </c>
-      <c r="B38" s="53" t="s">
-        <v>408</v>
+      <c r="B38" s="44" t="s">
+        <v>275</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D38" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E38" s="23" t="s">
@@ -10552,22 +10572,22 @@
         <v>433</v>
       </c>
       <c r="P38" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q38" s="55" t="s">
-        <v>352</v>
+        <v>9</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R38" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S38" s="51" t="s">
-        <v>380</v>
+        <v>9</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T38" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U38" s="55" t="s">
-        <v>323</v>
+        <v>9</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V38" s="50" t="s">
         <v>9</v>
@@ -10580,13 +10600,13 @@
       <c r="A39" s="16">
         <v>39</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>409</v>
+      <c r="B39" s="44" t="s">
+        <v>276</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E39" s="23" t="s">
@@ -10623,22 +10643,22 @@
         <v>433</v>
       </c>
       <c r="P39" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q39" s="55" t="s">
-        <v>353</v>
+        <v>9</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R39" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S39" s="51" t="s">
-        <v>381</v>
+        <v>9</v>
+      </c>
+      <c r="S39" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T39" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U39" s="55" t="s">
-        <v>324</v>
+        <v>9</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V39" s="50" t="s">
         <v>9</v>
@@ -10651,13 +10671,13 @@
       <c r="A40" s="16">
         <v>40</v>
       </c>
-      <c r="B40" s="53" t="s">
-        <v>410</v>
+      <c r="B40" s="44" t="s">
+        <v>277</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E40" s="23" t="s">
@@ -10694,22 +10714,22 @@
         <v>433</v>
       </c>
       <c r="P40" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q40" s="55" t="s">
-        <v>354</v>
+        <v>9</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R40" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S40" s="51" t="s">
-        <v>382</v>
+        <v>9</v>
+      </c>
+      <c r="S40" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T40" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U40" s="55" t="s">
-        <v>325</v>
+        <v>9</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V40" s="50" t="s">
         <v>9</v>
@@ -10722,13 +10742,13 @@
       <c r="A41" s="16">
         <v>41</v>
       </c>
-      <c r="B41" s="53" t="s">
-        <v>411</v>
+      <c r="B41" s="44" t="s">
+        <v>278</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E41" s="23" t="s">
@@ -10765,22 +10785,22 @@
         <v>433</v>
       </c>
       <c r="P41" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q41" s="55" t="s">
-        <v>355</v>
+        <v>9</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R41" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S41" s="51" t="s">
-        <v>383</v>
+        <v>9</v>
+      </c>
+      <c r="S41" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T41" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U41" s="55" t="s">
-        <v>326</v>
+        <v>9</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V41" s="50" t="s">
         <v>9</v>
@@ -10793,13 +10813,13 @@
       <c r="A42" s="16">
         <v>42</v>
       </c>
-      <c r="B42" s="53" t="s">
-        <v>412</v>
+      <c r="B42" s="44" t="s">
+        <v>602</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D42" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E42" s="23" t="s">
@@ -10836,22 +10856,22 @@
         <v>433</v>
       </c>
       <c r="P42" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q42" s="55" t="s">
-        <v>356</v>
+        <v>9</v>
+      </c>
+      <c r="Q42" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R42" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S42" s="51" t="s">
-        <v>384</v>
+        <v>9</v>
+      </c>
+      <c r="S42" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T42" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U42" s="55" t="s">
-        <v>327</v>
+        <v>9</v>
+      </c>
+      <c r="U42" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V42" s="50" t="s">
         <v>9</v>
@@ -10864,13 +10884,13 @@
       <c r="A43" s="16">
         <v>43</v>
       </c>
-      <c r="B43" s="53" t="s">
-        <v>413</v>
+      <c r="B43" s="44" t="s">
+        <v>603</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D43" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E43" s="23" t="s">
@@ -10907,22 +10927,22 @@
         <v>433</v>
       </c>
       <c r="P43" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q43" s="55" t="s">
-        <v>357</v>
+        <v>9</v>
+      </c>
+      <c r="Q43" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R43" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S43" s="51" t="s">
-        <v>385</v>
+        <v>9</v>
+      </c>
+      <c r="S43" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T43" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U43" s="55" t="s">
-        <v>328</v>
+        <v>9</v>
+      </c>
+      <c r="U43" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V43" s="50" t="s">
         <v>9</v>
@@ -10935,13 +10955,13 @@
       <c r="A44" s="16">
         <v>44</v>
       </c>
-      <c r="B44" s="53" t="s">
-        <v>414</v>
+      <c r="B44" s="44" t="s">
+        <v>279</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D44" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E44" s="23" t="s">
@@ -10978,22 +10998,22 @@
         <v>433</v>
       </c>
       <c r="P44" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q44" s="55" t="s">
-        <v>358</v>
+        <v>9</v>
+      </c>
+      <c r="Q44" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R44" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S44" s="51" t="s">
-        <v>386</v>
+        <v>9</v>
+      </c>
+      <c r="S44" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T44" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U44" s="55" t="s">
-        <v>329</v>
+        <v>9</v>
+      </c>
+      <c r="U44" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V44" s="50" t="s">
         <v>9</v>
@@ -11006,13 +11026,13 @@
       <c r="A45" s="16">
         <v>45</v>
       </c>
-      <c r="B45" s="53" t="s">
-        <v>415</v>
+      <c r="B45" s="44" t="s">
+        <v>280</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D45" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E45" s="23" t="s">
@@ -11049,22 +11069,22 @@
         <v>433</v>
       </c>
       <c r="P45" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q45" s="55" t="s">
-        <v>359</v>
+        <v>9</v>
+      </c>
+      <c r="Q45" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R45" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S45" s="51" t="s">
-        <v>387</v>
+        <v>9</v>
+      </c>
+      <c r="S45" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T45" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U45" s="55" t="s">
-        <v>330</v>
+        <v>9</v>
+      </c>
+      <c r="U45" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V45" s="50" t="s">
         <v>9</v>
@@ -11077,13 +11097,13 @@
       <c r="A46" s="16">
         <v>46</v>
       </c>
-      <c r="B46" s="53" t="s">
-        <v>416</v>
+      <c r="B46" s="44" t="s">
+        <v>604</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E46" s="23" t="s">
@@ -11120,22 +11140,22 @@
         <v>433</v>
       </c>
       <c r="P46" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q46" s="55" t="s">
-        <v>360</v>
+        <v>9</v>
+      </c>
+      <c r="Q46" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R46" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S46" s="51" t="s">
-        <v>388</v>
+        <v>9</v>
+      </c>
+      <c r="S46" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T46" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U46" s="55" t="s">
-        <v>331</v>
+        <v>9</v>
+      </c>
+      <c r="U46" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V46" s="50" t="s">
         <v>9</v>
@@ -11148,13 +11168,13 @@
       <c r="A47" s="16">
         <v>47</v>
       </c>
-      <c r="B47" s="53" t="s">
-        <v>417</v>
+      <c r="B47" s="44" t="s">
+        <v>605</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E47" s="23" t="s">
@@ -11191,22 +11211,22 @@
         <v>433</v>
       </c>
       <c r="P47" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q47" s="55" t="s">
-        <v>361</v>
+        <v>9</v>
+      </c>
+      <c r="Q47" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R47" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S47" s="51" t="s">
-        <v>389</v>
+        <v>9</v>
+      </c>
+      <c r="S47" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T47" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U47" s="55" t="s">
-        <v>332</v>
+        <v>9</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V47" s="50" t="s">
         <v>9</v>
@@ -11219,13 +11239,13 @@
       <c r="A48" s="16">
         <v>48</v>
       </c>
-      <c r="B48" s="53" t="s">
-        <v>418</v>
+      <c r="B48" s="44" t="s">
+        <v>606</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E48" s="23" t="s">
@@ -11262,22 +11282,22 @@
         <v>433</v>
       </c>
       <c r="P48" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q48" s="55" t="s">
-        <v>362</v>
+        <v>9</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R48" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S48" s="51" t="s">
-        <v>390</v>
+        <v>9</v>
+      </c>
+      <c r="S48" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T48" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U48" s="55" t="s">
-        <v>333</v>
+        <v>9</v>
+      </c>
+      <c r="U48" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V48" s="50" t="s">
         <v>9</v>
@@ -11290,13 +11310,13 @@
       <c r="A49" s="16">
         <v>49</v>
       </c>
-      <c r="B49" s="53" t="s">
-        <v>419</v>
+      <c r="B49" s="44" t="s">
+        <v>281</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D49" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E49" s="23" t="s">
@@ -11333,22 +11353,22 @@
         <v>433</v>
       </c>
       <c r="P49" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q49" s="55" t="s">
-        <v>363</v>
+        <v>9</v>
+      </c>
+      <c r="Q49" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R49" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S49" s="51" t="s">
-        <v>391</v>
+        <v>9</v>
+      </c>
+      <c r="S49" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T49" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U49" s="55" t="s">
-        <v>334</v>
+        <v>9</v>
+      </c>
+      <c r="U49" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V49" s="50" t="s">
         <v>9</v>
@@ -11361,13 +11381,13 @@
       <c r="A50" s="16">
         <v>50</v>
       </c>
-      <c r="B50" s="53" t="s">
-        <v>420</v>
+      <c r="B50" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D50" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E50" s="23" t="s">
@@ -11404,22 +11424,22 @@
         <v>433</v>
       </c>
       <c r="P50" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q50" s="55" t="s">
-        <v>364</v>
+        <v>9</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R50" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S50" s="51" t="s">
-        <v>392</v>
+        <v>9</v>
+      </c>
+      <c r="S50" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T50" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U50" s="55" t="s">
-        <v>335</v>
+        <v>9</v>
+      </c>
+      <c r="U50" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V50" s="50" t="s">
         <v>9</v>
@@ -11432,13 +11452,13 @@
       <c r="A51" s="16">
         <v>51</v>
       </c>
-      <c r="B51" s="53" t="s">
-        <v>421</v>
+      <c r="B51" s="44" t="s">
+        <v>283</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D51" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E51" s="23" t="s">
@@ -11475,22 +11495,22 @@
         <v>433</v>
       </c>
       <c r="P51" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q51" s="55" t="s">
-        <v>365</v>
+        <v>9</v>
+      </c>
+      <c r="Q51" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R51" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S51" s="51" t="s">
-        <v>393</v>
+        <v>9</v>
+      </c>
+      <c r="S51" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T51" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U51" s="55" t="s">
-        <v>336</v>
+        <v>9</v>
+      </c>
+      <c r="U51" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V51" s="50" t="s">
         <v>9</v>
@@ -11503,13 +11523,13 @@
       <c r="A52" s="16">
         <v>52</v>
       </c>
-      <c r="B52" s="53" t="s">
-        <v>422</v>
+      <c r="B52" s="44" t="s">
+        <v>284</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D52" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E52" s="23" t="s">
@@ -11546,22 +11566,22 @@
         <v>433</v>
       </c>
       <c r="P52" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q52" s="55" t="s">
-        <v>366</v>
+        <v>9</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R52" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S52" s="51" t="s">
-        <v>394</v>
+        <v>9</v>
+      </c>
+      <c r="S52" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T52" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U52" s="55" t="s">
-        <v>337</v>
+        <v>9</v>
+      </c>
+      <c r="U52" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V52" s="50" t="s">
         <v>9</v>
@@ -11574,13 +11594,13 @@
       <c r="A53" s="16">
         <v>53</v>
       </c>
-      <c r="B53" s="53" t="s">
-        <v>423</v>
+      <c r="B53" s="44" t="s">
+        <v>285</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D53" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E53" s="23" t="s">
@@ -11617,22 +11637,22 @@
         <v>433</v>
       </c>
       <c r="P53" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q53" s="55" t="s">
-        <v>367</v>
+        <v>9</v>
+      </c>
+      <c r="Q53" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R53" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S53" s="51" t="s">
-        <v>395</v>
+        <v>9</v>
+      </c>
+      <c r="S53" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T53" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U53" s="55" t="s">
-        <v>338</v>
+        <v>9</v>
+      </c>
+      <c r="U53" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V53" s="50" t="s">
         <v>9</v>
@@ -11645,13 +11665,13 @@
       <c r="A54" s="16">
         <v>54</v>
       </c>
-      <c r="B54" s="53" t="s">
-        <v>424</v>
+      <c r="B54" s="44" t="s">
+        <v>607</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D54" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E54" s="23" t="s">
@@ -11688,22 +11708,22 @@
         <v>433</v>
       </c>
       <c r="P54" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q54" s="55" t="s">
-        <v>368</v>
+        <v>9</v>
+      </c>
+      <c r="Q54" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R54" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S54" s="51" t="s">
-        <v>396</v>
+        <v>9</v>
+      </c>
+      <c r="S54" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T54" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U54" s="55" t="s">
-        <v>339</v>
+        <v>9</v>
+      </c>
+      <c r="U54" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V54" s="50" t="s">
         <v>9</v>
@@ -11716,13 +11736,13 @@
       <c r="A55" s="16">
         <v>55</v>
       </c>
-      <c r="B55" s="53" t="s">
-        <v>425</v>
+      <c r="B55" s="44" t="s">
+        <v>608</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D55" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E55" s="23" t="s">
@@ -11759,22 +11779,22 @@
         <v>433</v>
       </c>
       <c r="P55" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q55" s="55" t="s">
-        <v>369</v>
+        <v>9</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R55" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S55" s="51" t="s">
-        <v>397</v>
+        <v>9</v>
+      </c>
+      <c r="S55" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T55" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U55" s="55" t="s">
-        <v>340</v>
+        <v>9</v>
+      </c>
+      <c r="U55" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V55" s="50" t="s">
         <v>9</v>
@@ -11787,13 +11807,13 @@
       <c r="A56" s="16">
         <v>56</v>
       </c>
-      <c r="B56" s="53" t="s">
-        <v>426</v>
+      <c r="B56" s="44" t="s">
+        <v>609</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D56" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E56" s="23" t="s">
@@ -11830,22 +11850,22 @@
         <v>433</v>
       </c>
       <c r="P56" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q56" s="55" t="s">
-        <v>370</v>
+        <v>9</v>
+      </c>
+      <c r="Q56" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R56" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S56" s="51" t="s">
-        <v>398</v>
+        <v>9</v>
+      </c>
+      <c r="S56" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T56" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U56" s="55" t="s">
-        <v>341</v>
+        <v>9</v>
+      </c>
+      <c r="U56" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V56" s="50" t="s">
         <v>9</v>
@@ -11858,13 +11878,13 @@
       <c r="A57" s="16">
         <v>57</v>
       </c>
-      <c r="B57" s="53" t="s">
-        <v>427</v>
+      <c r="B57" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D57" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E57" s="23" t="s">
@@ -11901,22 +11921,22 @@
         <v>433</v>
       </c>
       <c r="P57" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q57" s="55" t="s">
-        <v>371</v>
+        <v>9</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R57" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S57" s="51" t="s">
-        <v>399</v>
+        <v>9</v>
+      </c>
+      <c r="S57" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T57" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U57" s="55" t="s">
-        <v>342</v>
+        <v>9</v>
+      </c>
+      <c r="U57" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V57" s="50" t="s">
         <v>9</v>
@@ -11929,13 +11949,13 @@
       <c r="A58" s="16">
         <v>58</v>
       </c>
-      <c r="B58" s="53" t="s">
-        <v>428</v>
+      <c r="B58" s="44" t="s">
+        <v>287</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D58" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E58" s="23" t="s">
@@ -11972,22 +11992,22 @@
         <v>433</v>
       </c>
       <c r="P58" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q58" s="55" t="s">
-        <v>372</v>
+        <v>9</v>
+      </c>
+      <c r="Q58" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R58" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S58" s="51" t="s">
-        <v>400</v>
+        <v>9</v>
+      </c>
+      <c r="S58" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T58" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U58" s="55" t="s">
-        <v>343</v>
+        <v>9</v>
+      </c>
+      <c r="U58" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V58" s="50" t="s">
         <v>9</v>
@@ -12000,13 +12020,13 @@
       <c r="A59" s="16">
         <v>59</v>
       </c>
-      <c r="B59" s="53" t="s">
-        <v>429</v>
+      <c r="B59" s="44" t="s">
+        <v>610</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D59" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E59" s="23" t="s">
@@ -12043,22 +12063,22 @@
         <v>433</v>
       </c>
       <c r="P59" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q59" s="55" t="s">
-        <v>373</v>
+        <v>9</v>
+      </c>
+      <c r="Q59" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R59" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S59" s="51" t="s">
-        <v>401</v>
+        <v>9</v>
+      </c>
+      <c r="S59" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T59" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U59" s="55" t="s">
-        <v>344</v>
+        <v>9</v>
+      </c>
+      <c r="U59" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V59" s="50" t="s">
         <v>9</v>
@@ -12071,13 +12091,13 @@
       <c r="A60" s="16">
         <v>60</v>
       </c>
-      <c r="B60" s="53" t="s">
-        <v>430</v>
+      <c r="B60" s="44" t="s">
+        <v>611</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D60" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E60" s="23" t="s">
@@ -12114,22 +12134,22 @@
         <v>433</v>
       </c>
       <c r="P60" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q60" s="55" t="s">
-        <v>374</v>
+        <v>9</v>
+      </c>
+      <c r="Q60" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R60" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S60" s="51" t="s">
-        <v>402</v>
+        <v>9</v>
+      </c>
+      <c r="S60" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T60" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U60" s="55" t="s">
-        <v>345</v>
+        <v>9</v>
+      </c>
+      <c r="U60" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V60" s="50" t="s">
         <v>9</v>
@@ -12142,13 +12162,13 @@
       <c r="A61" s="16">
         <v>61</v>
       </c>
-      <c r="B61" s="53" t="s">
-        <v>431</v>
+      <c r="B61" s="44" t="s">
+        <v>288</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D61" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E61" s="23" t="s">
@@ -12185,22 +12205,22 @@
         <v>433</v>
       </c>
       <c r="P61" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q61" s="55" t="s">
-        <v>375</v>
+        <v>9</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R61" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S61" s="51" t="s">
-        <v>403</v>
+        <v>9</v>
+      </c>
+      <c r="S61" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T61" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U61" s="55" t="s">
-        <v>346</v>
+        <v>9</v>
+      </c>
+      <c r="U61" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V61" s="50" t="s">
         <v>9</v>
@@ -12213,13 +12233,13 @@
       <c r="A62" s="16">
         <v>62</v>
       </c>
-      <c r="B62" s="53" t="s">
-        <v>432</v>
+      <c r="B62" s="44" t="s">
+        <v>289</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D62" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>920</v>
       </c>
       <c r="E62" s="23" t="s">
@@ -12256,22 +12276,22 @@
         <v>433</v>
       </c>
       <c r="P62" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q62" s="55" t="s">
-        <v>376</v>
+        <v>9</v>
+      </c>
+      <c r="Q62" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="R62" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="S62" s="51" t="s">
-        <v>404</v>
+        <v>9</v>
+      </c>
+      <c r="S62" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="T62" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="U62" s="55" t="s">
-        <v>347</v>
+        <v>9</v>
+      </c>
+      <c r="U62" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="V62" s="50" t="s">
         <v>9</v>
@@ -12284,8 +12304,8 @@
       <c r="A63" s="16">
         <v>63</v>
       </c>
-      <c r="B63" s="44" t="s">
-        <v>291</v>
+      <c r="B63" s="53" t="s">
+        <v>434</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>317</v>
@@ -12293,14 +12313,14 @@
       <c r="D63" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G63" s="54" t="s">
-        <v>434</v>
+      <c r="F63" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H63" s="46" t="s">
         <v>9</v>
@@ -12355,8 +12375,8 @@
       <c r="A64" s="16">
         <v>64</v>
       </c>
-      <c r="B64" s="44" t="s">
-        <v>292</v>
+      <c r="B64" s="53" t="s">
+        <v>407</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>317</v>
@@ -12364,14 +12384,14 @@
       <c r="D64" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G64" s="54" t="s">
-        <v>407</v>
+      <c r="F64" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H64" s="46" t="s">
         <v>9</v>
@@ -12426,8 +12446,8 @@
       <c r="A65" s="16">
         <v>65</v>
       </c>
-      <c r="B65" s="44" t="s">
-        <v>293</v>
+      <c r="B65" s="53" t="s">
+        <v>408</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>317</v>
@@ -12435,14 +12455,14 @@
       <c r="D65" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G65" s="54" t="s">
-        <v>408</v>
+      <c r="F65" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H65" s="46" t="s">
         <v>9</v>
@@ -12497,8 +12517,8 @@
       <c r="A66" s="16">
         <v>66</v>
       </c>
-      <c r="B66" s="44" t="s">
-        <v>294</v>
+      <c r="B66" s="53" t="s">
+        <v>409</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>317</v>
@@ -12506,14 +12526,14 @@
       <c r="D66" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G66" s="54" t="s">
-        <v>409</v>
+      <c r="F66" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H66" s="46" t="s">
         <v>9</v>
@@ -12568,8 +12588,8 @@
       <c r="A67" s="16">
         <v>67</v>
       </c>
-      <c r="B67" s="44" t="s">
-        <v>295</v>
+      <c r="B67" s="53" t="s">
+        <v>410</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>317</v>
@@ -12577,14 +12597,14 @@
       <c r="D67" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G67" s="54" t="s">
-        <v>410</v>
+      <c r="F67" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H67" s="46" t="s">
         <v>9</v>
@@ -12639,8 +12659,8 @@
       <c r="A68" s="16">
         <v>68</v>
       </c>
-      <c r="B68" s="44" t="s">
-        <v>296</v>
+      <c r="B68" s="53" t="s">
+        <v>411</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>317</v>
@@ -12648,14 +12668,14 @@
       <c r="D68" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>411</v>
+      <c r="F68" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H68" s="46" t="s">
         <v>9</v>
@@ -12710,8 +12730,8 @@
       <c r="A69" s="16">
         <v>69</v>
       </c>
-      <c r="B69" s="44" t="s">
-        <v>297</v>
+      <c r="B69" s="53" t="s">
+        <v>412</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>317</v>
@@ -12719,14 +12739,14 @@
       <c r="D69" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G69" s="54" t="s">
-        <v>412</v>
+      <c r="F69" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H69" s="46" t="s">
         <v>9</v>
@@ -12781,8 +12801,8 @@
       <c r="A70" s="16">
         <v>70</v>
       </c>
-      <c r="B70" s="44" t="s">
-        <v>298</v>
+      <c r="B70" s="53" t="s">
+        <v>413</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>317</v>
@@ -12790,14 +12810,14 @@
       <c r="D70" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G70" s="54" t="s">
-        <v>413</v>
+      <c r="F70" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H70" s="46" t="s">
         <v>9</v>
@@ -12852,8 +12872,8 @@
       <c r="A71" s="16">
         <v>71</v>
       </c>
-      <c r="B71" s="44" t="s">
-        <v>299</v>
+      <c r="B71" s="53" t="s">
+        <v>414</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>317</v>
@@ -12861,14 +12881,14 @@
       <c r="D71" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G71" s="54" t="s">
-        <v>414</v>
+      <c r="F71" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H71" s="46" t="s">
         <v>9</v>
@@ -12923,8 +12943,8 @@
       <c r="A72" s="16">
         <v>72</v>
       </c>
-      <c r="B72" s="44" t="s">
-        <v>300</v>
+      <c r="B72" s="53" t="s">
+        <v>415</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>317</v>
@@ -12932,14 +12952,14 @@
       <c r="D72" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E72" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G72" s="54" t="s">
-        <v>415</v>
+      <c r="F72" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H72" s="46" t="s">
         <v>9</v>
@@ -12994,8 +13014,8 @@
       <c r="A73" s="16">
         <v>73</v>
       </c>
-      <c r="B73" s="44" t="s">
-        <v>301</v>
+      <c r="B73" s="53" t="s">
+        <v>416</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>317</v>
@@ -13003,14 +13023,14 @@
       <c r="D73" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E73" s="49" t="s">
+      <c r="E73" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G73" s="54" t="s">
-        <v>416</v>
+      <c r="F73" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H73" s="46" t="s">
         <v>9</v>
@@ -13065,8 +13085,8 @@
       <c r="A74" s="16">
         <v>74</v>
       </c>
-      <c r="B74" s="44" t="s">
-        <v>302</v>
+      <c r="B74" s="53" t="s">
+        <v>417</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>317</v>
@@ -13074,14 +13094,14 @@
       <c r="D74" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G74" s="54" t="s">
-        <v>417</v>
+      <c r="F74" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H74" s="46" t="s">
         <v>9</v>
@@ -13136,8 +13156,8 @@
       <c r="A75" s="16">
         <v>75</v>
       </c>
-      <c r="B75" s="44" t="s">
-        <v>303</v>
+      <c r="B75" s="53" t="s">
+        <v>418</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>317</v>
@@ -13145,14 +13165,14 @@
       <c r="D75" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G75" s="54" t="s">
-        <v>418</v>
+      <c r="F75" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H75" s="46" t="s">
         <v>9</v>
@@ -13207,8 +13227,8 @@
       <c r="A76" s="16">
         <v>76</v>
       </c>
-      <c r="B76" s="44" t="s">
-        <v>304</v>
+      <c r="B76" s="53" t="s">
+        <v>419</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>317</v>
@@ -13216,14 +13236,14 @@
       <c r="D76" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G76" s="54" t="s">
-        <v>419</v>
+      <c r="F76" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H76" s="46" t="s">
         <v>9</v>
@@ -13278,8 +13298,8 @@
       <c r="A77" s="16">
         <v>77</v>
       </c>
-      <c r="B77" s="44" t="s">
-        <v>305</v>
+      <c r="B77" s="53" t="s">
+        <v>420</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>317</v>
@@ -13287,14 +13307,14 @@
       <c r="D77" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E77" s="49" t="s">
+      <c r="E77" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G77" s="54" t="s">
-        <v>420</v>
+      <c r="F77" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H77" s="46" t="s">
         <v>9</v>
@@ -13349,8 +13369,8 @@
       <c r="A78" s="16">
         <v>78</v>
       </c>
-      <c r="B78" s="44" t="s">
-        <v>306</v>
+      <c r="B78" s="53" t="s">
+        <v>421</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>317</v>
@@ -13358,14 +13378,14 @@
       <c r="D78" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E78" s="49" t="s">
+      <c r="E78" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G78" s="54" t="s">
-        <v>421</v>
+      <c r="F78" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H78" s="46" t="s">
         <v>9</v>
@@ -13420,8 +13440,8 @@
       <c r="A79" s="16">
         <v>79</v>
       </c>
-      <c r="B79" s="44" t="s">
-        <v>307</v>
+      <c r="B79" s="53" t="s">
+        <v>422</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>317</v>
@@ -13429,14 +13449,14 @@
       <c r="D79" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E79" s="49" t="s">
+      <c r="E79" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G79" s="54" t="s">
-        <v>422</v>
+      <c r="F79" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H79" s="46" t="s">
         <v>9</v>
@@ -13491,8 +13511,8 @@
       <c r="A80" s="16">
         <v>80</v>
       </c>
-      <c r="B80" s="44" t="s">
-        <v>308</v>
+      <c r="B80" s="53" t="s">
+        <v>423</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>317</v>
@@ -13500,14 +13520,14 @@
       <c r="D80" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="E80" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G80" s="54" t="s">
-        <v>423</v>
+      <c r="F80" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H80" s="46" t="s">
         <v>9</v>
@@ -13562,8 +13582,8 @@
       <c r="A81" s="16">
         <v>81</v>
       </c>
-      <c r="B81" s="44" t="s">
-        <v>107</v>
+      <c r="B81" s="53" t="s">
+        <v>424</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>317</v>
@@ -13571,14 +13591,14 @@
       <c r="D81" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E81" s="49" t="s">
+      <c r="E81" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G81" s="54" t="s">
-        <v>424</v>
+      <c r="F81" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H81" s="46" t="s">
         <v>9</v>
@@ -13633,8 +13653,8 @@
       <c r="A82" s="16">
         <v>82</v>
       </c>
-      <c r="B82" s="44" t="s">
-        <v>309</v>
+      <c r="B82" s="53" t="s">
+        <v>425</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>317</v>
@@ -13642,14 +13662,14 @@
       <c r="D82" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E82" s="49" t="s">
+      <c r="E82" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G82" s="54" t="s">
-        <v>425</v>
+      <c r="F82" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H82" s="46" t="s">
         <v>9</v>
@@ -13704,8 +13724,8 @@
       <c r="A83" s="16">
         <v>83</v>
       </c>
-      <c r="B83" s="44" t="s">
-        <v>310</v>
+      <c r="B83" s="53" t="s">
+        <v>426</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>317</v>
@@ -13713,14 +13733,14 @@
       <c r="D83" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E83" s="49" t="s">
+      <c r="E83" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G83" s="54" t="s">
-        <v>426</v>
+      <c r="F83" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H83" s="46" t="s">
         <v>9</v>
@@ -13775,8 +13795,8 @@
       <c r="A84" s="16">
         <v>84</v>
       </c>
-      <c r="B84" s="44" t="s">
-        <v>311</v>
+      <c r="B84" s="53" t="s">
+        <v>427</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>317</v>
@@ -13784,14 +13804,14 @@
       <c r="D84" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G84" s="54" t="s">
-        <v>427</v>
+      <c r="F84" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H84" s="46" t="s">
         <v>9</v>
@@ -13846,8 +13866,8 @@
       <c r="A85" s="16">
         <v>85</v>
       </c>
-      <c r="B85" s="44" t="s">
-        <v>312</v>
+      <c r="B85" s="53" t="s">
+        <v>428</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>317</v>
@@ -13855,14 +13875,14 @@
       <c r="D85" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G85" s="54" t="s">
-        <v>428</v>
+      <c r="F85" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H85" s="46" t="s">
         <v>9</v>
@@ -13917,8 +13937,8 @@
       <c r="A86" s="16">
         <v>86</v>
       </c>
-      <c r="B86" s="44" t="s">
-        <v>313</v>
+      <c r="B86" s="53" t="s">
+        <v>429</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>317</v>
@@ -13926,14 +13946,14 @@
       <c r="D86" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G86" s="54" t="s">
-        <v>429</v>
+      <c r="F86" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H86" s="46" t="s">
         <v>9</v>
@@ -13988,8 +14008,8 @@
       <c r="A87" s="16">
         <v>87</v>
       </c>
-      <c r="B87" s="44" t="s">
-        <v>314</v>
+      <c r="B87" s="53" t="s">
+        <v>430</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>317</v>
@@ -13997,14 +14017,14 @@
       <c r="D87" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E87" s="49" t="s">
+      <c r="E87" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G87" s="54" t="s">
-        <v>430</v>
+      <c r="F87" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H87" s="46" t="s">
         <v>9</v>
@@ -14059,8 +14079,8 @@
       <c r="A88" s="16">
         <v>88</v>
       </c>
-      <c r="B88" s="44" t="s">
-        <v>315</v>
+      <c r="B88" s="53" t="s">
+        <v>431</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>317</v>
@@ -14068,14 +14088,14 @@
       <c r="D88" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E88" s="49" t="s">
+      <c r="E88" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G88" s="54" t="s">
-        <v>431</v>
+      <c r="F88" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H88" s="46" t="s">
         <v>9</v>
@@ -14130,8 +14150,8 @@
       <c r="A89" s="16">
         <v>89</v>
       </c>
-      <c r="B89" s="44" t="s">
-        <v>316</v>
+      <c r="B89" s="53" t="s">
+        <v>432</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>317</v>
@@ -14139,14 +14159,14 @@
       <c r="D89" s="19" t="s">
         <v>920</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="G89" s="54" t="s">
-        <v>432</v>
+      <c r="F89" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="48" t="s">
+        <v>9</v>
       </c>
       <c r="H89" s="46" t="s">
         <v>9</v>
@@ -14202,28 +14222,28 @@
         <v>90</v>
       </c>
       <c r="B90" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G90" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="H90" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I90" s="49" t="s">
         <v>274</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J90" s="46" t="s">
         <v>9</v>
@@ -14244,22 +14264,22 @@
         <v>433</v>
       </c>
       <c r="P90" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q90" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q90" s="55" t="s">
+        <v>350</v>
       </c>
       <c r="R90" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S90" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S90" s="51" t="s">
+        <v>378</v>
       </c>
       <c r="T90" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U90" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U90" s="55" t="s">
+        <v>321</v>
       </c>
       <c r="V90" s="50" t="s">
         <v>9</v>
@@ -14273,28 +14293,28 @@
         <v>91</v>
       </c>
       <c r="B91" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E91" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="H91" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I91" s="49" t="s">
         <v>290</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J91" s="46" t="s">
         <v>9</v>
@@ -14315,22 +14335,22 @@
         <v>433</v>
       </c>
       <c r="P91" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q91" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q91" s="55" t="s">
+        <v>351</v>
       </c>
       <c r="R91" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S91" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S91" s="51" t="s">
+        <v>379</v>
       </c>
       <c r="T91" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U91" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U91" s="55" t="s">
+        <v>322</v>
       </c>
       <c r="V91" s="50" t="s">
         <v>9</v>
@@ -14344,28 +14364,28 @@
         <v>92</v>
       </c>
       <c r="B92" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E92" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G92" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="H92" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I92" s="49" t="s">
         <v>275</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J92" s="46" t="s">
         <v>9</v>
@@ -14386,22 +14406,22 @@
         <v>433</v>
       </c>
       <c r="P92" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q92" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q92" s="55" t="s">
+        <v>352</v>
       </c>
       <c r="R92" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S92" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S92" s="51" t="s">
+        <v>380</v>
       </c>
       <c r="T92" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U92" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U92" s="55" t="s">
+        <v>323</v>
       </c>
       <c r="V92" s="50" t="s">
         <v>9</v>
@@ -14415,28 +14435,28 @@
         <v>93</v>
       </c>
       <c r="B93" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G93" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="H93" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I93" s="49" t="s">
         <v>276</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J93" s="46" t="s">
         <v>9</v>
@@ -14457,22 +14477,22 @@
         <v>433</v>
       </c>
       <c r="P93" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q93" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q93" s="55" t="s">
+        <v>353</v>
       </c>
       <c r="R93" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S93" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S93" s="51" t="s">
+        <v>381</v>
       </c>
       <c r="T93" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U93" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U93" s="55" t="s">
+        <v>324</v>
       </c>
       <c r="V93" s="50" t="s">
         <v>9</v>
@@ -14486,28 +14506,28 @@
         <v>94</v>
       </c>
       <c r="B94" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G94" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="H94" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I94" s="49" t="s">
         <v>277</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J94" s="46" t="s">
         <v>9</v>
@@ -14528,22 +14548,22 @@
         <v>433</v>
       </c>
       <c r="P94" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q94" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q94" s="55" t="s">
+        <v>354</v>
       </c>
       <c r="R94" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S94" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S94" s="51" t="s">
+        <v>382</v>
       </c>
       <c r="T94" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U94" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U94" s="55" t="s">
+        <v>325</v>
       </c>
       <c r="V94" s="50" t="s">
         <v>9</v>
@@ -14557,28 +14577,28 @@
         <v>95</v>
       </c>
       <c r="B95" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G95" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="H95" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I95" s="49" t="s">
         <v>278</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F95" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J95" s="46" t="s">
         <v>9</v>
@@ -14599,22 +14619,22 @@
         <v>433</v>
       </c>
       <c r="P95" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q95" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q95" s="55" t="s">
+        <v>355</v>
       </c>
       <c r="R95" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S95" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S95" s="51" t="s">
+        <v>383</v>
       </c>
       <c r="T95" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U95" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U95" s="55" t="s">
+        <v>326</v>
       </c>
       <c r="V95" s="50" t="s">
         <v>9</v>
@@ -14628,28 +14648,28 @@
         <v>96</v>
       </c>
       <c r="B96" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E96" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G96" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="H96" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I96" s="49" t="s">
         <v>602</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J96" s="46" t="s">
         <v>9</v>
@@ -14670,22 +14690,22 @@
         <v>433</v>
       </c>
       <c r="P96" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q96" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q96" s="55" t="s">
+        <v>356</v>
       </c>
       <c r="R96" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S96" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S96" s="51" t="s">
+        <v>384</v>
       </c>
       <c r="T96" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U96" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U96" s="55" t="s">
+        <v>327</v>
       </c>
       <c r="V96" s="50" t="s">
         <v>9</v>
@@ -14699,28 +14719,28 @@
         <v>97</v>
       </c>
       <c r="B97" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G97" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="H97" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I97" s="49" t="s">
         <v>603</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H97" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J97" s="46" t="s">
         <v>9</v>
@@ -14741,22 +14761,22 @@
         <v>433</v>
       </c>
       <c r="P97" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q97" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q97" s="55" t="s">
+        <v>357</v>
       </c>
       <c r="R97" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S97" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S97" s="51" t="s">
+        <v>385</v>
       </c>
       <c r="T97" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U97" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U97" s="55" t="s">
+        <v>328</v>
       </c>
       <c r="V97" s="50" t="s">
         <v>9</v>
@@ -14770,28 +14790,28 @@
         <v>98</v>
       </c>
       <c r="B98" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G98" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="H98" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I98" s="49" t="s">
         <v>279</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H98" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J98" s="46" t="s">
         <v>9</v>
@@ -14812,22 +14832,22 @@
         <v>433</v>
       </c>
       <c r="P98" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q98" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q98" s="55" t="s">
+        <v>358</v>
       </c>
       <c r="R98" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S98" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S98" s="51" t="s">
+        <v>386</v>
       </c>
       <c r="T98" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U98" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U98" s="55" t="s">
+        <v>329</v>
       </c>
       <c r="V98" s="50" t="s">
         <v>9</v>
@@ -14841,28 +14861,28 @@
         <v>99</v>
       </c>
       <c r="B99" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G99" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="H99" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I99" s="49" t="s">
         <v>280</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H99" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J99" s="46" t="s">
         <v>9</v>
@@ -14883,22 +14903,22 @@
         <v>433</v>
       </c>
       <c r="P99" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q99" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q99" s="55" t="s">
+        <v>359</v>
       </c>
       <c r="R99" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S99" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S99" s="51" t="s">
+        <v>387</v>
       </c>
       <c r="T99" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U99" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U99" s="55" t="s">
+        <v>330</v>
       </c>
       <c r="V99" s="50" t="s">
         <v>9</v>
@@ -14912,28 +14932,28 @@
         <v>100</v>
       </c>
       <c r="B100" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E100" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G100" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="H100" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I100" s="49" t="s">
         <v>604</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H100" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I100" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J100" s="46" t="s">
         <v>9</v>
@@ -14954,22 +14974,22 @@
         <v>433</v>
       </c>
       <c r="P100" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q100" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q100" s="55" t="s">
+        <v>360</v>
       </c>
       <c r="R100" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S100" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S100" s="51" t="s">
+        <v>388</v>
       </c>
       <c r="T100" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U100" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U100" s="55" t="s">
+        <v>331</v>
       </c>
       <c r="V100" s="50" t="s">
         <v>9</v>
@@ -14983,28 +15003,28 @@
         <v>101</v>
       </c>
       <c r="B101" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G101" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="H101" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I101" s="49" t="s">
         <v>605</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H101" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J101" s="46" t="s">
         <v>9</v>
@@ -15025,22 +15045,22 @@
         <v>433</v>
       </c>
       <c r="P101" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q101" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q101" s="55" t="s">
+        <v>361</v>
       </c>
       <c r="R101" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S101" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S101" s="51" t="s">
+        <v>389</v>
       </c>
       <c r="T101" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U101" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U101" s="55" t="s">
+        <v>332</v>
       </c>
       <c r="V101" s="50" t="s">
         <v>9</v>
@@ -15054,28 +15074,28 @@
         <v>102</v>
       </c>
       <c r="B102" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G102" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="H102" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I102" s="49" t="s">
         <v>606</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H102" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I102" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J102" s="46" t="s">
         <v>9</v>
@@ -15096,22 +15116,22 @@
         <v>433</v>
       </c>
       <c r="P102" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q102" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q102" s="55" t="s">
+        <v>362</v>
       </c>
       <c r="R102" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S102" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S102" s="51" t="s">
+        <v>390</v>
       </c>
       <c r="T102" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U102" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U102" s="55" t="s">
+        <v>333</v>
       </c>
       <c r="V102" s="50" t="s">
         <v>9</v>
@@ -15125,28 +15145,28 @@
         <v>103</v>
       </c>
       <c r="B103" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E103" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G103" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="H103" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I103" s="49" t="s">
         <v>281</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H103" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J103" s="46" t="s">
         <v>9</v>
@@ -15167,22 +15187,22 @@
         <v>433</v>
       </c>
       <c r="P103" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q103" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q103" s="55" t="s">
+        <v>363</v>
       </c>
       <c r="R103" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S103" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S103" s="51" t="s">
+        <v>391</v>
       </c>
       <c r="T103" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U103" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U103" s="55" t="s">
+        <v>334</v>
       </c>
       <c r="V103" s="50" t="s">
         <v>9</v>
@@ -15196,28 +15216,28 @@
         <v>104</v>
       </c>
       <c r="B104" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E104" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G104" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="H104" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I104" s="49" t="s">
         <v>282</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I104" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J104" s="46" t="s">
         <v>9</v>
@@ -15238,22 +15258,22 @@
         <v>433</v>
       </c>
       <c r="P104" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q104" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q104" s="55" t="s">
+        <v>364</v>
       </c>
       <c r="R104" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S104" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S104" s="51" t="s">
+        <v>392</v>
       </c>
       <c r="T104" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U104" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U104" s="55" t="s">
+        <v>335</v>
       </c>
       <c r="V104" s="50" t="s">
         <v>9</v>
@@ -15267,28 +15287,28 @@
         <v>105</v>
       </c>
       <c r="B105" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E105" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G105" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="H105" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I105" s="49" t="s">
         <v>283</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H105" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J105" s="46" t="s">
         <v>9</v>
@@ -15309,22 +15329,22 @@
         <v>433</v>
       </c>
       <c r="P105" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q105" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q105" s="55" t="s">
+        <v>365</v>
       </c>
       <c r="R105" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S105" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S105" s="51" t="s">
+        <v>393</v>
       </c>
       <c r="T105" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U105" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U105" s="55" t="s">
+        <v>336</v>
       </c>
       <c r="V105" s="50" t="s">
         <v>9</v>
@@ -15338,28 +15358,28 @@
         <v>106</v>
       </c>
       <c r="B106" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E106" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G106" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H106" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I106" s="49" t="s">
         <v>284</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H106" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J106" s="46" t="s">
         <v>9</v>
@@ -15380,22 +15400,22 @@
         <v>433</v>
       </c>
       <c r="P106" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q106" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q106" s="55" t="s">
+        <v>366</v>
       </c>
       <c r="R106" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S106" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S106" s="51" t="s">
+        <v>394</v>
       </c>
       <c r="T106" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U106" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U106" s="55" t="s">
+        <v>337</v>
       </c>
       <c r="V106" s="50" t="s">
         <v>9</v>
@@ -15409,28 +15429,28 @@
         <v>107</v>
       </c>
       <c r="B107" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E107" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G107" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="H107" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I107" s="49" t="s">
         <v>285</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H107" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J107" s="46" t="s">
         <v>9</v>
@@ -15451,22 +15471,22 @@
         <v>433</v>
       </c>
       <c r="P107" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q107" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q107" s="55" t="s">
+        <v>367</v>
       </c>
       <c r="R107" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S107" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S107" s="51" t="s">
+        <v>395</v>
       </c>
       <c r="T107" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U107" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U107" s="55" t="s">
+        <v>338</v>
       </c>
       <c r="V107" s="50" t="s">
         <v>9</v>
@@ -15480,28 +15500,28 @@
         <v>108</v>
       </c>
       <c r="B108" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E108" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G108" s="54" t="s">
+        <v>424</v>
+      </c>
+      <c r="H108" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I108" s="49" t="s">
         <v>607</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J108" s="46" t="s">
         <v>9</v>
@@ -15522,22 +15542,22 @@
         <v>433</v>
       </c>
       <c r="P108" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q108" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q108" s="55" t="s">
+        <v>368</v>
       </c>
       <c r="R108" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S108" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S108" s="51" t="s">
+        <v>396</v>
       </c>
       <c r="T108" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U108" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U108" s="55" t="s">
+        <v>339</v>
       </c>
       <c r="V108" s="50" t="s">
         <v>9</v>
@@ -15551,28 +15571,28 @@
         <v>109</v>
       </c>
       <c r="B109" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E109" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G109" s="54" t="s">
+        <v>425</v>
+      </c>
+      <c r="H109" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I109" s="49" t="s">
         <v>608</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H109" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J109" s="46" t="s">
         <v>9</v>
@@ -15593,22 +15613,22 @@
         <v>433</v>
       </c>
       <c r="P109" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q109" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q109" s="55" t="s">
+        <v>369</v>
       </c>
       <c r="R109" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S109" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S109" s="51" t="s">
+        <v>397</v>
       </c>
       <c r="T109" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U109" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U109" s="55" t="s">
+        <v>340</v>
       </c>
       <c r="V109" s="50" t="s">
         <v>9</v>
@@ -15622,28 +15642,28 @@
         <v>110</v>
       </c>
       <c r="B110" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G110" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="H110" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I110" s="49" t="s">
         <v>609</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I110" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J110" s="46" t="s">
         <v>9</v>
@@ -15664,22 +15684,22 @@
         <v>433</v>
       </c>
       <c r="P110" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q110" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q110" s="55" t="s">
+        <v>370</v>
       </c>
       <c r="R110" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S110" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S110" s="51" t="s">
+        <v>398</v>
       </c>
       <c r="T110" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U110" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U110" s="55" t="s">
+        <v>341</v>
       </c>
       <c r="V110" s="50" t="s">
         <v>9</v>
@@ -15693,28 +15713,28 @@
         <v>111</v>
       </c>
       <c r="B111" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G111" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="H111" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I111" s="49" t="s">
         <v>286</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H111" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J111" s="46" t="s">
         <v>9</v>
@@ -15735,22 +15755,22 @@
         <v>433</v>
       </c>
       <c r="P111" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q111" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q111" s="55" t="s">
+        <v>371</v>
       </c>
       <c r="R111" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S111" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S111" s="51" t="s">
+        <v>399</v>
       </c>
       <c r="T111" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U111" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U111" s="55" t="s">
+        <v>342</v>
       </c>
       <c r="V111" s="50" t="s">
         <v>9</v>
@@ -15764,28 +15784,28 @@
         <v>112</v>
       </c>
       <c r="B112" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E112" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G112" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="H112" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I112" s="49" t="s">
         <v>287</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H112" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J112" s="46" t="s">
         <v>9</v>
@@ -15806,22 +15826,22 @@
         <v>433</v>
       </c>
       <c r="P112" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q112" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q112" s="55" t="s">
+        <v>372</v>
       </c>
       <c r="R112" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S112" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S112" s="51" t="s">
+        <v>400</v>
       </c>
       <c r="T112" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U112" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U112" s="55" t="s">
+        <v>343</v>
       </c>
       <c r="V112" s="50" t="s">
         <v>9</v>
@@ -15835,28 +15855,28 @@
         <v>113</v>
       </c>
       <c r="B113" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E113" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G113" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="H113" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I113" s="49" t="s">
         <v>610</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E113" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H113" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I113" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J113" s="46" t="s">
         <v>9</v>
@@ -15877,22 +15897,22 @@
         <v>433</v>
       </c>
       <c r="P113" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q113" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q113" s="55" t="s">
+        <v>373</v>
       </c>
       <c r="R113" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S113" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S113" s="51" t="s">
+        <v>401</v>
       </c>
       <c r="T113" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U113" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U113" s="55" t="s">
+        <v>344</v>
       </c>
       <c r="V113" s="50" t="s">
         <v>9</v>
@@ -15906,28 +15926,28 @@
         <v>114</v>
       </c>
       <c r="B114" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E114" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G114" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="H114" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I114" s="49" t="s">
         <v>611</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H114" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J114" s="46" t="s">
         <v>9</v>
@@ -15948,22 +15968,22 @@
         <v>433</v>
       </c>
       <c r="P114" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q114" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q114" s="55" t="s">
+        <v>374</v>
       </c>
       <c r="R114" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S114" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S114" s="51" t="s">
+        <v>402</v>
       </c>
       <c r="T114" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U114" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U114" s="55" t="s">
+        <v>345</v>
       </c>
       <c r="V114" s="50" t="s">
         <v>9</v>
@@ -15977,28 +15997,28 @@
         <v>115</v>
       </c>
       <c r="B115" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E115" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G115" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="H115" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I115" s="49" t="s">
         <v>288</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E115" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J115" s="46" t="s">
         <v>9</v>
@@ -16019,22 +16039,22 @@
         <v>433</v>
       </c>
       <c r="P115" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q115" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q115" s="55" t="s">
+        <v>375</v>
       </c>
       <c r="R115" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S115" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S115" s="51" t="s">
+        <v>403</v>
       </c>
       <c r="T115" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U115" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U115" s="55" t="s">
+        <v>346</v>
       </c>
       <c r="V115" s="50" t="s">
         <v>9</v>
@@ -16048,28 +16068,28 @@
         <v>116</v>
       </c>
       <c r="B116" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>920</v>
+      </c>
+      <c r="E116" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G116" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="H116" s="47" t="s">
+        <v>406</v>
+      </c>
+      <c r="I116" s="49" t="s">
         <v>289</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="46" t="s">
-        <v>920</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H116" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I116" s="48" t="s">
-        <v>9</v>
       </c>
       <c r="J116" s="46" t="s">
         <v>9</v>
@@ -16090,22 +16110,22 @@
         <v>433</v>
       </c>
       <c r="P116" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q116" s="21" t="s">
-        <v>9</v>
+        <v>377</v>
+      </c>
+      <c r="Q116" s="55" t="s">
+        <v>376</v>
       </c>
       <c r="R116" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="S116" s="21" t="s">
-        <v>9</v>
+        <v>405</v>
+      </c>
+      <c r="S116" s="51" t="s">
+        <v>404</v>
       </c>
       <c r="T116" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="U116" s="21" t="s">
-        <v>9</v>
+        <v>320</v>
+      </c>
+      <c r="U116" s="55" t="s">
+        <v>347</v>
       </c>
       <c r="V116" s="50" t="s">
         <v>9</v>
@@ -47466,18 +47486,24 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="B63:B89 B117:B516 B1:B4 B30:B35">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B63:B516 B1:B4 B30:B35">
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+  <conditionalFormatting sqref="B90:B516 B1:B4 B30:B35">
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B553:B1048576 B1:B516">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90:I116">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90:I116">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B90:B516 B1:B4 B30:B62">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3230B-11F5-4FAA-A9EE-88309D3B1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B25D15-DE9B-4173-A183-2BC507ED9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="4" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12641" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12639" uniqueCount="924">
   <si>
     <t>Edição</t>
   </si>
@@ -2842,6 +2842,9 @@
   </si>
   <si>
     <t>é.região.administrativa</t>
+  </si>
+  <si>
+    <t>Ilha.de.Calor</t>
   </si>
 </sst>
 </file>
@@ -3746,14 +3749,14 @@
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3897,7 +3900,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45749.636937268515</v>
+        <v>45750.437559375001</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3949,38 +3952,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.85546875" customWidth="1"/>
-    <col min="17" max="17" width="50.85546875" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.88671875" customWidth="1"/>
+    <col min="17" max="17" width="50.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>144</v>
       </c>
@@ -4051,7 +4053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
         <v>2</v>
       </c>
@@ -4130,7 +4132,7 @@
         <v>Key.Fro.2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <v>3</v>
       </c>
@@ -4206,7 +4208,7 @@
         <v>Key.Fro.3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>4</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>Key.Fro.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>5</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>Key.Fro.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>6</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>Key.Fro.6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>7</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>Key.Fro.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>8</v>
       </c>
@@ -4543,9 +4545,8 @@
       <c r="J8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F5)</f>
-        <v>é.dentro.de some País</v>
+      <c r="K8" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="L8" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4589,7 +4590,7 @@
         <v>Key.Fro.8</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>9</v>
       </c>
@@ -4620,8 +4621,9 @@
       <c r="J9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="39" t="s">
-        <v>9</v>
+      <c r="K9" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F6)</f>
+        <v>é.dentro.de some Nação</v>
       </c>
       <c r="L9" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4665,7 +4667,7 @@
         <v>Key.Fro.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>10</v>
       </c>
@@ -4696,8 +4698,9 @@
       <c r="J10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="39" t="s">
-        <v>9</v>
+      <c r="K10" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F7)</f>
+        <v>é.dentro.de some Estado</v>
       </c>
       <c r="L10" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4741,7 +4744,7 @@
         <v>Key.Fro.10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>11</v>
       </c>
@@ -4772,8 +4775,9 @@
       <c r="J11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="39" t="s">
-        <v>9</v>
+      <c r="K11" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F7)</f>
+        <v>é.dentro.de some Estado</v>
       </c>
       <c r="L11" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4817,7 +4821,7 @@
         <v>Key.Fro.11</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>12</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>Key.Fro.12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>13</v>
       </c>
@@ -4926,8 +4930,8 @@
         <v>9</v>
       </c>
       <c r="K13" s="39" t="str">
-        <f t="shared" ref="K13" si="3">_xlfn.CONCAT("é.dentro.de some ",D13)</f>
-        <v>é.dentro.de some Térmico</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",E13)</f>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L13" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4971,7 +4975,7 @@
         <v>Key.Lim.13</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>14</v>
       </c>
@@ -5003,8 +5007,8 @@
         <v>9</v>
       </c>
       <c r="K14" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",D14)</f>
-        <v>é.dentro.de some Térmico</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",E14)</f>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L14" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5048,7 +5052,7 @@
         <v>Key.Lim.14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>15</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>171</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>170</v>
+        <v>923</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>471</v>
@@ -5080,8 +5084,8 @@
         <v>9</v>
       </c>
       <c r="K15" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",D15)</f>
-        <v>é.dentro.de some Urbano</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",E15)</f>
+        <v>é.dentro.de some Ilha.de.Calor</v>
       </c>
       <c r="L15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5093,7 +5097,7 @@
       </c>
       <c r="N15" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <v>Ilha de Calor</v>
       </c>
       <c r="O15" s="30" t="str">
         <f t="shared" si="1"/>
@@ -5125,7 +5129,7 @@
         <v>Key.Lim.15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
         <v>16</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>Key.Lim.16</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>17</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>Key.Lim.17</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>18</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>Key.Lim.18</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <v>19</v>
       </c>
@@ -5396,15 +5400,15 @@
         <v>Limite</v>
       </c>
       <c r="M19" s="30" t="str">
-        <f t="shared" ref="M19:O34" si="4">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
+        <f t="shared" ref="M19:O34" si="3">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
         <v>Urbano</v>
       </c>
       <c r="N19" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O19" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Area Restringida</v>
       </c>
       <c r="P19" s="30" t="s">
@@ -5433,7 +5437,7 @@
         <v>Key.Lim.19</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>20</v>
       </c>
@@ -5472,15 +5476,15 @@
         <v>Limite</v>
       </c>
       <c r="M20" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N20" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O20" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Zona</v>
       </c>
       <c r="P20" s="30" t="s">
@@ -5509,7 +5513,7 @@
         <v>Key.Lim.20</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>21</v>
       </c>
@@ -5548,15 +5552,15 @@
         <v>Limite</v>
       </c>
       <c r="M21" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N21" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O21" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Bairro</v>
       </c>
       <c r="P21" s="30" t="s">
@@ -5585,7 +5589,7 @@
         <v>Key.Lim.21</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <v>22</v>
       </c>
@@ -5624,15 +5628,15 @@
         <v>Limite</v>
       </c>
       <c r="M22" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N22" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O22" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>ZonaDeUso</v>
       </c>
       <c r="P22" s="30" t="s">
@@ -5661,7 +5665,7 @@
         <v>Key.Lim.22</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>23</v>
       </c>
@@ -5700,15 +5704,15 @@
         <v>Limite</v>
       </c>
       <c r="M23" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N23" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O23" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Macrozona</v>
       </c>
       <c r="P23" s="30" t="s">
@@ -5737,7 +5741,7 @@
         <v>Key.Lim.23</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>24</v>
       </c>
@@ -5776,15 +5780,15 @@
         <v>Limite</v>
       </c>
       <c r="M24" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N24" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Fração</v>
       </c>
       <c r="O24" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Quadra</v>
       </c>
       <c r="P24" s="30" t="s">
@@ -5813,7 +5817,7 @@
         <v>Key.Lim.24</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>25</v>
       </c>
@@ -5852,15 +5856,15 @@
         <v>Limite</v>
       </c>
       <c r="M25" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N25" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Fração</v>
       </c>
       <c r="O25" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Gleba</v>
       </c>
       <c r="P25" s="30" t="s">
@@ -5889,7 +5893,7 @@
         <v>Key.Lim.25</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>26</v>
       </c>
@@ -5928,15 +5932,15 @@
         <v>Limite</v>
       </c>
       <c r="M26" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N26" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Fração</v>
       </c>
       <c r="O26" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Loteamento</v>
       </c>
       <c r="P26" s="30" t="s">
@@ -5965,7 +5969,7 @@
         <v>Key.Lim.26</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>27</v>
       </c>
@@ -6004,15 +6008,15 @@
         <v>Limite</v>
       </c>
       <c r="M27" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N27" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Fração</v>
       </c>
       <c r="O27" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Parcela</v>
       </c>
       <c r="P27" s="30" t="s">
@@ -6041,7 +6045,7 @@
         <v>Key.Lim.27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>28</v>
       </c>
@@ -6080,15 +6084,15 @@
         <v>Limite</v>
       </c>
       <c r="M28" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Urbano</v>
       </c>
       <c r="N28" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Fração</v>
       </c>
       <c r="O28" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Lote</v>
       </c>
       <c r="P28" s="30" t="s">
@@ -6117,7 +6121,7 @@
         <v>Key.Lim.28</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>29</v>
       </c>
@@ -6157,15 +6161,15 @@
         <v>Limite</v>
       </c>
       <c r="M29" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Predial</v>
       </c>
       <c r="N29" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Construção</v>
       </c>
       <c r="O29" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Prédio</v>
       </c>
       <c r="P29" s="30" t="s">
@@ -6194,7 +6198,7 @@
         <v>Key.Lim.29</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>30</v>
       </c>
@@ -6234,15 +6238,15 @@
         <v>Limite</v>
       </c>
       <c r="M30" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Predial</v>
       </c>
       <c r="N30" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Construção</v>
       </c>
       <c r="O30" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Bloco</v>
       </c>
       <c r="P30" s="30" t="s">
@@ -6271,7 +6275,7 @@
         <v>Key.Lim.30</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>31</v>
       </c>
@@ -6311,15 +6315,15 @@
         <v>Limite</v>
       </c>
       <c r="M31" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Predial</v>
       </c>
       <c r="N31" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Construção</v>
       </c>
       <c r="O31" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Edifício</v>
       </c>
       <c r="P31" s="30" t="s">
@@ -6348,7 +6352,7 @@
         <v>Key.Lim.31</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
         <v>32</v>
       </c>
@@ -6388,15 +6392,15 @@
         <v>Limite</v>
       </c>
       <c r="M32" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Predial</v>
       </c>
       <c r="N32" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Construção</v>
       </c>
       <c r="O32" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Casa</v>
       </c>
       <c r="P32" s="30" t="s">
@@ -6425,7 +6429,7 @@
         <v>Key.Lim.32</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>33</v>
       </c>
@@ -6465,15 +6469,15 @@
         <v>Limite</v>
       </c>
       <c r="M33" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Predial</v>
       </c>
       <c r="N33" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Construção</v>
       </c>
       <c r="O33" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>HIS</v>
       </c>
       <c r="P33" s="30" t="s">
@@ -6502,7 +6506,7 @@
         <v>Key.Lim.33</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <v>34</v>
       </c>
@@ -6541,15 +6545,15 @@
         <v>Limite</v>
       </c>
       <c r="M34" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Predial</v>
       </c>
       <c r="N34" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>De Construção</v>
       </c>
       <c r="O34" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Galpão</v>
       </c>
       <c r="P34" s="30" t="s">
@@ -6578,7 +6582,7 @@
         <v>Key.Lim.34</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
         <v>35</v>
       </c>
@@ -6617,15 +6621,15 @@
         <v>Limite</v>
       </c>
       <c r="M35" s="30" t="str">
-        <f t="shared" ref="M35:O47" si="5">_xlfn.CONCAT(SUBSTITUTE(D35,"."," "))</f>
+        <f t="shared" ref="M35:O47" si="4">_xlfn.CONCAT(SUBSTITUTE(D35,"."," "))</f>
         <v>Predial</v>
       </c>
       <c r="N35" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Construção</v>
       </c>
       <c r="O35" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Edícula</v>
       </c>
       <c r="P35" s="30" t="s">
@@ -6654,7 +6658,7 @@
         <v>Key.Lim.35</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29">
         <v>36</v>
       </c>
@@ -6693,15 +6697,15 @@
         <v>Limite</v>
       </c>
       <c r="M36" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Funcional</v>
       </c>
       <c r="N36" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Organização</v>
       </c>
       <c r="O36" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Unidade</v>
       </c>
       <c r="P36" s="30" t="s">
@@ -6730,7 +6734,7 @@
         <v>Key.Lim.36</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>37</v>
       </c>
@@ -6769,15 +6773,15 @@
         <v>Limite</v>
       </c>
       <c r="M37" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Funcional</v>
       </c>
       <c r="N37" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Organização</v>
       </c>
       <c r="O37" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>SetorUrbano</v>
       </c>
       <c r="P37" s="30" t="s">
@@ -6806,7 +6810,7 @@
         <v>Key.Lim.37</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>38</v>
       </c>
@@ -6845,15 +6849,15 @@
         <v>Limite</v>
       </c>
       <c r="M38" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Funcional</v>
       </c>
       <c r="N38" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Organização</v>
       </c>
       <c r="O38" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Divisão</v>
       </c>
       <c r="P38" s="30" t="s">
@@ -6882,7 +6886,7 @@
         <v>Key.Lim.38</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>39</v>
       </c>
@@ -6921,15 +6925,15 @@
         <v>Limite</v>
       </c>
       <c r="M39" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Funcional</v>
       </c>
       <c r="N39" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Organização</v>
       </c>
       <c r="O39" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Departamento</v>
       </c>
       <c r="P39" s="30" t="s">
@@ -6958,7 +6962,7 @@
         <v>Key.Lim.39</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
         <v>40</v>
       </c>
@@ -6997,15 +7001,15 @@
         <v>Limite</v>
       </c>
       <c r="M40" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Funcional</v>
       </c>
       <c r="N40" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Distribuição</v>
       </c>
       <c r="O40" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Ambiente</v>
       </c>
       <c r="P40" s="30" t="s">
@@ -7034,7 +7038,7 @@
         <v>Key.Lim.40</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <v>41</v>
       </c>
@@ -7073,15 +7077,15 @@
         <v>Limite</v>
       </c>
       <c r="M41" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Funcional</v>
       </c>
       <c r="N41" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Distribuição</v>
       </c>
       <c r="O41" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Apartamento</v>
       </c>
       <c r="P41" s="30" t="s">
@@ -7110,7 +7114,7 @@
         <v>Key.Lim.41</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>42</v>
       </c>
@@ -7149,15 +7153,15 @@
         <v>Limite</v>
       </c>
       <c r="M42" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Funcional</v>
       </c>
       <c r="N42" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>De Distribuição</v>
       </c>
       <c r="O42" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Núcleo de Circulação</v>
       </c>
       <c r="P42" s="30" t="s">
@@ -7186,7 +7190,7 @@
         <v>Key.Lim.42</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>43</v>
       </c>
@@ -7225,15 +7229,15 @@
         <v>IBGE</v>
       </c>
       <c r="M43" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Índice</v>
       </c>
       <c r="N43" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Densidade</v>
       </c>
       <c r="O43" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Area Densa</v>
       </c>
       <c r="P43" s="30" t="s">
@@ -7262,7 +7266,7 @@
         <v>Key.IBG.43</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>44</v>
       </c>
@@ -7301,15 +7305,15 @@
         <v>IBGE</v>
       </c>
       <c r="M44" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Índice</v>
       </c>
       <c r="N44" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Densidade</v>
       </c>
       <c r="O44" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Area Pouco Densa</v>
       </c>
       <c r="P44" s="30" t="s">
@@ -7338,7 +7342,7 @@
         <v>Key.IBG.44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
         <v>45</v>
       </c>
@@ -7377,15 +7381,15 @@
         <v>IBGE</v>
       </c>
       <c r="M45" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Índice</v>
       </c>
       <c r="N45" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Desenvolvimento</v>
       </c>
       <c r="O45" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>IDU</v>
       </c>
       <c r="P45" s="30" t="s">
@@ -7414,7 +7418,7 @@
         <v>Key.IBG.45</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>46</v>
       </c>
@@ -7453,15 +7457,15 @@
         <v>IBGE</v>
       </c>
       <c r="M46" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Índice</v>
       </c>
       <c r="N46" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>População</v>
       </c>
       <c r="O46" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Taxa Urbanização</v>
       </c>
       <c r="P46" s="30" t="s">
@@ -7490,7 +7494,7 @@
         <v>Key.IBG.46</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
         <v>47</v>
       </c>
@@ -7529,15 +7533,15 @@
         <v>IBGE</v>
       </c>
       <c r="M47" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Índice</v>
       </c>
       <c r="N47" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Crescimento</v>
       </c>
       <c r="O47" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>Expansão Urbana</v>
       </c>
       <c r="P47" s="30" t="s">
@@ -7599,14 +7603,14 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="11" customWidth="1"/>
-    <col min="2" max="10" width="5.7109375" style="12"/>
-    <col min="11" max="16384" width="5.7109375" style="27"/>
+    <col min="1" max="1" width="2.6640625" style="11" customWidth="1"/>
+    <col min="2" max="10" width="5.6640625" style="12"/>
+    <col min="11" max="16384" width="5.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.15">
       <c r="A1" s="25">
         <v>1</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="7.8" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>2</v>
       </c>
@@ -7751,13 +7755,13 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="2" width="7.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7867,38 +7871,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
   <dimension ref="A1:W552"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B554" sqref="B554"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.28515625" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>138</v>
       </c>
@@ -7969,7 +7973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>3</v>
       </c>
@@ -8111,7 +8115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>4</v>
       </c>
@@ -8182,7 +8186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>5</v>
       </c>
@@ -8253,7 +8257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>6</v>
       </c>
@@ -8324,7 +8328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>7</v>
       </c>
@@ -8395,7 +8399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>8</v>
       </c>
@@ -8466,7 +8470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>9</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>10</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>11</v>
       </c>
@@ -8679,7 +8683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>12</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>13</v>
       </c>
@@ -8821,7 +8825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>14</v>
       </c>
@@ -8892,7 +8896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>15</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>16</v>
       </c>
@@ -9034,7 +9038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>17</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>18</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>19</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>20</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>21</v>
       </c>
@@ -9389,7 +9393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>22</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>23</v>
       </c>
@@ -9531,7 +9535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>24</v>
       </c>
@@ -9602,7 +9606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>25</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>26</v>
       </c>
@@ -9744,7 +9748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>27</v>
       </c>
@@ -9815,7 +9819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>28</v>
       </c>
@@ -9886,7 +9890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>29</v>
       </c>
@@ -9957,7 +9961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>30</v>
       </c>
@@ -10028,7 +10032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>31</v>
       </c>
@@ -10099,7 +10103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>32</v>
       </c>
@@ -10170,7 +10174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>33</v>
       </c>
@@ -10241,7 +10245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>34</v>
       </c>
@@ -10312,7 +10316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>35</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>36</v>
       </c>
@@ -10454,7 +10458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>37</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>38</v>
       </c>
@@ -10596,7 +10600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>39</v>
       </c>
@@ -10667,7 +10671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>40</v>
       </c>
@@ -10738,7 +10742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>41</v>
       </c>
@@ -10809,7 +10813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>42</v>
       </c>
@@ -10880,7 +10884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>43</v>
       </c>
@@ -10951,7 +10955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>44</v>
       </c>
@@ -11022,7 +11026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>45</v>
       </c>
@@ -11093,7 +11097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>46</v>
       </c>
@@ -11164,7 +11168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>47</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>48</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>49</v>
       </c>
@@ -11377,7 +11381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>50</v>
       </c>
@@ -11448,7 +11452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>51</v>
       </c>
@@ -11519,7 +11523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>52</v>
       </c>
@@ -11590,7 +11594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>53</v>
       </c>
@@ -11661,7 +11665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>54</v>
       </c>
@@ -11732,7 +11736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>55</v>
       </c>
@@ -11803,7 +11807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>56</v>
       </c>
@@ -11874,7 +11878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>57</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>58</v>
       </c>
@@ -12016,7 +12020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>59</v>
       </c>
@@ -12087,7 +12091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>60</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>61</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>62</v>
       </c>
@@ -12300,7 +12304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>63</v>
       </c>
@@ -12371,7 +12375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>64</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>65</v>
       </c>
@@ -12513,7 +12517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>66</v>
       </c>
@@ -12584,7 +12588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>67</v>
       </c>
@@ -12655,7 +12659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>68</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>69</v>
       </c>
@@ -12797,7 +12801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>70</v>
       </c>
@@ -12868,7 +12872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>71</v>
       </c>
@@ -12939,7 +12943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>72</v>
       </c>
@@ -13010,7 +13014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>73</v>
       </c>
@@ -13081,7 +13085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>74</v>
       </c>
@@ -13152,7 +13156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>75</v>
       </c>
@@ -13223,7 +13227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>76</v>
       </c>
@@ -13294,7 +13298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>77</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>78</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>79</v>
       </c>
@@ -13507,7 +13511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>80</v>
       </c>
@@ -13578,7 +13582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>81</v>
       </c>
@@ -13649,7 +13653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>82</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>83</v>
       </c>
@@ -13791,7 +13795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>84</v>
       </c>
@@ -13862,7 +13866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>85</v>
       </c>
@@ -13933,7 +13937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>86</v>
       </c>
@@ -14004,7 +14008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>87</v>
       </c>
@@ -14075,7 +14079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>88</v>
       </c>
@@ -14146,7 +14150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>89</v>
       </c>
@@ -14217,7 +14221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>90</v>
       </c>
@@ -14288,7 +14292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>91</v>
       </c>
@@ -14359,7 +14363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>92</v>
       </c>
@@ -14430,7 +14434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>93</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>94</v>
       </c>
@@ -14572,7 +14576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>95</v>
       </c>
@@ -14643,7 +14647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>96</v>
       </c>
@@ -14714,7 +14718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>97</v>
       </c>
@@ -14785,7 +14789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>98</v>
       </c>
@@ -14856,7 +14860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>99</v>
       </c>
@@ -14927,7 +14931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>100</v>
       </c>
@@ -14998,7 +15002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>101</v>
       </c>
@@ -15069,7 +15073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>102</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>103</v>
       </c>
@@ -15211,7 +15215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>104</v>
       </c>
@@ -15282,7 +15286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>105</v>
       </c>
@@ -15353,7 +15357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>106</v>
       </c>
@@ -15424,7 +15428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>107</v>
       </c>
@@ -15495,7 +15499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>108</v>
       </c>
@@ -15566,7 +15570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>109</v>
       </c>
@@ -15637,7 +15641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>110</v>
       </c>
@@ -15708,7 +15712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>111</v>
       </c>
@@ -15779,7 +15783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>112</v>
       </c>
@@ -15850,7 +15854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>113</v>
       </c>
@@ -15921,7 +15925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>114</v>
       </c>
@@ -15992,7 +15996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>115</v>
       </c>
@@ -16063,7 +16067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>116</v>
       </c>
@@ -16134,7 +16138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>117</v>
       </c>
@@ -16205,7 +16209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>118</v>
       </c>
@@ -16276,7 +16280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>119</v>
       </c>
@@ -16347,7 +16351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>120</v>
       </c>
@@ -16418,7 +16422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>121</v>
       </c>
@@ -16489,7 +16493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>122</v>
       </c>
@@ -16560,7 +16564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>123</v>
       </c>
@@ -16632,7 +16636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>124</v>
       </c>
@@ -16704,7 +16708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>125</v>
       </c>
@@ -16776,7 +16780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>126</v>
       </c>
@@ -16848,7 +16852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>127</v>
       </c>
@@ -16920,7 +16924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>128</v>
       </c>
@@ -16992,7 +16996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>129</v>
       </c>
@@ -17064,7 +17068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>130</v>
       </c>
@@ -17136,7 +17140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>131</v>
       </c>
@@ -17208,7 +17212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>132</v>
       </c>
@@ -17280,7 +17284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>133</v>
       </c>
@@ -17352,7 +17356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>134</v>
       </c>
@@ -17424,7 +17428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>135</v>
       </c>
@@ -17496,7 +17500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>136</v>
       </c>
@@ -17568,7 +17572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>137</v>
       </c>
@@ -17640,7 +17644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>138</v>
       </c>
@@ -17712,7 +17716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>139</v>
       </c>
@@ -17784,7 +17788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>140</v>
       </c>
@@ -17856,7 +17860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>141</v>
       </c>
@@ -17928,7 +17932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>142</v>
       </c>
@@ -18000,7 +18004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>143</v>
       </c>
@@ -18072,7 +18076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>144</v>
       </c>
@@ -18144,7 +18148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>145</v>
       </c>
@@ -18216,7 +18220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>146</v>
       </c>
@@ -18288,7 +18292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>147</v>
       </c>
@@ -18360,7 +18364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>148</v>
       </c>
@@ -18432,7 +18436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>149</v>
       </c>
@@ -18504,7 +18508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>150</v>
       </c>
@@ -18576,7 +18580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>151</v>
       </c>
@@ -18648,7 +18652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>152</v>
       </c>
@@ -18720,7 +18724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>153</v>
       </c>
@@ -18792,7 +18796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>154</v>
       </c>
@@ -18864,7 +18868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>155</v>
       </c>
@@ -18936,7 +18940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>156</v>
       </c>
@@ -19008,7 +19012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>157</v>
       </c>
@@ -19080,7 +19084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>158</v>
       </c>
@@ -19152,7 +19156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>159</v>
       </c>
@@ -19224,7 +19228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>160</v>
       </c>
@@ -19296,7 +19300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>161</v>
       </c>
@@ -19368,7 +19372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>162</v>
       </c>
@@ -19440,7 +19444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>163</v>
       </c>
@@ -19512,7 +19516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>164</v>
       </c>
@@ -19584,7 +19588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>165</v>
       </c>
@@ -19656,7 +19660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>166</v>
       </c>
@@ -19728,7 +19732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>167</v>
       </c>
@@ -19800,7 +19804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>168</v>
       </c>
@@ -19872,7 +19876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>169</v>
       </c>
@@ -19944,7 +19948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>170</v>
       </c>
@@ -20016,7 +20020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>171</v>
       </c>
@@ -20088,7 +20092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>172</v>
       </c>
@@ -20160,7 +20164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>173</v>
       </c>
@@ -20232,7 +20236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>174</v>
       </c>
@@ -20304,7 +20308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>175</v>
       </c>
@@ -20376,7 +20380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>176</v>
       </c>
@@ -20448,7 +20452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>177</v>
       </c>
@@ -20520,7 +20524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>178</v>
       </c>
@@ -20592,7 +20596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>179</v>
       </c>
@@ -20664,7 +20668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>180</v>
       </c>
@@ -20736,7 +20740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>181</v>
       </c>
@@ -20808,7 +20812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>182</v>
       </c>
@@ -20880,7 +20884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>183</v>
       </c>
@@ -20952,7 +20956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>184</v>
       </c>
@@ -21024,7 +21028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>185</v>
       </c>
@@ -21096,7 +21100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>186</v>
       </c>
@@ -21168,7 +21172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>187</v>
       </c>
@@ -21240,7 +21244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>188</v>
       </c>
@@ -21312,7 +21316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>189</v>
       </c>
@@ -21384,7 +21388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>190</v>
       </c>
@@ -21456,7 +21460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>191</v>
       </c>
@@ -21528,7 +21532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>192</v>
       </c>
@@ -21600,7 +21604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>193</v>
       </c>
@@ -21672,7 +21676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>194</v>
       </c>
@@ -21744,7 +21748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>195</v>
       </c>
@@ -21816,7 +21820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>196</v>
       </c>
@@ -21888,7 +21892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>197</v>
       </c>
@@ -21960,7 +21964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>198</v>
       </c>
@@ -22032,7 +22036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>199</v>
       </c>
@@ -22104,7 +22108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>200</v>
       </c>
@@ -22176,7 +22180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>201</v>
       </c>
@@ -22248,7 +22252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>202</v>
       </c>
@@ -22320,7 +22324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>203</v>
       </c>
@@ -22392,7 +22396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>204</v>
       </c>
@@ -22464,7 +22468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>205</v>
       </c>
@@ -22536,7 +22540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>206</v>
       </c>
@@ -22608,7 +22612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>207</v>
       </c>
@@ -22680,7 +22684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>208</v>
       </c>
@@ -22752,7 +22756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>209</v>
       </c>
@@ -22824,7 +22828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>210</v>
       </c>
@@ -22896,7 +22900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>211</v>
       </c>
@@ -22968,7 +22972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>212</v>
       </c>
@@ -23040,7 +23044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>213</v>
       </c>
@@ -23112,7 +23116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>214</v>
       </c>
@@ -23184,7 +23188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>215</v>
       </c>
@@ -23256,7 +23260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>216</v>
       </c>
@@ -23328,7 +23332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>217</v>
       </c>
@@ -23400,7 +23404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>218</v>
       </c>
@@ -23472,7 +23476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>219</v>
       </c>
@@ -23544,7 +23548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>220</v>
       </c>
@@ -23616,7 +23620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>221</v>
       </c>
@@ -23688,7 +23692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>222</v>
       </c>
@@ -23760,7 +23764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>223</v>
       </c>
@@ -23832,7 +23836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>224</v>
       </c>
@@ -23904,7 +23908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>225</v>
       </c>
@@ -23976,7 +23980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>226</v>
       </c>
@@ -24048,7 +24052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>227</v>
       </c>
@@ -24120,7 +24124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>228</v>
       </c>
@@ -24192,7 +24196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>229</v>
       </c>
@@ -24264,7 +24268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>230</v>
       </c>
@@ -24336,7 +24340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>231</v>
       </c>
@@ -24408,7 +24412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>232</v>
       </c>
@@ -24480,7 +24484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>233</v>
       </c>
@@ -24552,7 +24556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>234</v>
       </c>
@@ -24624,7 +24628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>235</v>
       </c>
@@ -24696,7 +24700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>236</v>
       </c>
@@ -24768,7 +24772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>237</v>
       </c>
@@ -24840,7 +24844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>238</v>
       </c>
@@ -24912,7 +24916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>239</v>
       </c>
@@ -24984,7 +24988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>240</v>
       </c>
@@ -25056,7 +25060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>241</v>
       </c>
@@ -25128,7 +25132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>242</v>
       </c>
@@ -25200,7 +25204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>243</v>
       </c>
@@ -25272,7 +25276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>244</v>
       </c>
@@ -25344,7 +25348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>245</v>
       </c>
@@ -25416,7 +25420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>246</v>
       </c>
@@ -25488,7 +25492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>247</v>
       </c>
@@ -25560,7 +25564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>248</v>
       </c>
@@ -25632,7 +25636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>249</v>
       </c>
@@ -25704,7 +25708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>250</v>
       </c>
@@ -25776,7 +25780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>251</v>
       </c>
@@ -25848,7 +25852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>252</v>
       </c>
@@ -25920,7 +25924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>253</v>
       </c>
@@ -25992,7 +25996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>254</v>
       </c>
@@ -26064,7 +26068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>255</v>
       </c>
@@ -26136,7 +26140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>256</v>
       </c>
@@ -26208,7 +26212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>257</v>
       </c>
@@ -26280,7 +26284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>258</v>
       </c>
@@ -26352,7 +26356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>259</v>
       </c>
@@ -26424,7 +26428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>260</v>
       </c>
@@ -26496,7 +26500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>261</v>
       </c>
@@ -26568,7 +26572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>262</v>
       </c>
@@ -26640,7 +26644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>263</v>
       </c>
@@ -26712,7 +26716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>264</v>
       </c>
@@ -26784,7 +26788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>265</v>
       </c>
@@ -26856,7 +26860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>266</v>
       </c>
@@ -26928,7 +26932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>267</v>
       </c>
@@ -27000,7 +27004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>268</v>
       </c>
@@ -27072,7 +27076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>269</v>
       </c>
@@ -27144,7 +27148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>270</v>
       </c>
@@ -27216,7 +27220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>271</v>
       </c>
@@ -27288,7 +27292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>272</v>
       </c>
@@ -27360,7 +27364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>273</v>
       </c>
@@ -27432,7 +27436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>274</v>
       </c>
@@ -27504,7 +27508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>275</v>
       </c>
@@ -27576,7 +27580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>276</v>
       </c>
@@ -27648,7 +27652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>277</v>
       </c>
@@ -27720,7 +27724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>278</v>
       </c>
@@ -27792,7 +27796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>279</v>
       </c>
@@ -27864,7 +27868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>280</v>
       </c>
@@ -27936,7 +27940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>281</v>
       </c>
@@ -28008,7 +28012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>282</v>
       </c>
@@ -28080,7 +28084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>283</v>
       </c>
@@ -28152,7 +28156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>284</v>
       </c>
@@ -28224,7 +28228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>285</v>
       </c>
@@ -28296,7 +28300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>286</v>
       </c>
@@ -28368,7 +28372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>287</v>
       </c>
@@ -28440,7 +28444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>288</v>
       </c>
@@ -28512,7 +28516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>289</v>
       </c>
@@ -28584,7 +28588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>290</v>
       </c>
@@ -28656,7 +28660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>291</v>
       </c>
@@ -28728,7 +28732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>292</v>
       </c>
@@ -28800,7 +28804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>293</v>
       </c>
@@ -28872,7 +28876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>294</v>
       </c>
@@ -28944,7 +28948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>295</v>
       </c>
@@ -29016,7 +29020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>296</v>
       </c>
@@ -29088,7 +29092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>297</v>
       </c>
@@ -29160,7 +29164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>298</v>
       </c>
@@ -29232,7 +29236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>299</v>
       </c>
@@ -29304,7 +29308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>300</v>
       </c>
@@ -29376,7 +29380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>301</v>
       </c>
@@ -29448,7 +29452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>302</v>
       </c>
@@ -29520,7 +29524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>303</v>
       </c>
@@ -29592,7 +29596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>304</v>
       </c>
@@ -29664,7 +29668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>305</v>
       </c>
@@ -29736,7 +29740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>306</v>
       </c>
@@ -29808,7 +29812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>307</v>
       </c>
@@ -29880,7 +29884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>308</v>
       </c>
@@ -29952,7 +29956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="16">
         <v>309</v>
       </c>
@@ -30024,7 +30028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="16">
         <v>310</v>
       </c>
@@ -30096,7 +30100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="16">
         <v>311</v>
       </c>
@@ -30168,7 +30172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>312</v>
       </c>
@@ -30240,7 +30244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="16">
         <v>313</v>
       </c>
@@ -30312,7 +30316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>314</v>
       </c>
@@ -30384,7 +30388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>315</v>
       </c>
@@ -30456,7 +30460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="16">
         <v>316</v>
       </c>
@@ -30528,7 +30532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="16">
         <v>317</v>
       </c>
@@ -30600,7 +30604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>318</v>
       </c>
@@ -30672,7 +30676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="16">
         <v>319</v>
       </c>
@@ -30744,7 +30748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="16">
         <v>320</v>
       </c>
@@ -30816,7 +30820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="16">
         <v>321</v>
       </c>
@@ -30888,7 +30892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>322</v>
       </c>
@@ -30960,7 +30964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>323</v>
       </c>
@@ -31032,7 +31036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="16">
         <v>324</v>
       </c>
@@ -31104,7 +31108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="16">
         <v>325</v>
       </c>
@@ -31176,7 +31180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>326</v>
       </c>
@@ -31248,7 +31252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>327</v>
       </c>
@@ -31320,7 +31324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>328</v>
       </c>
@@ -31392,7 +31396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="16">
         <v>329</v>
       </c>
@@ -31464,7 +31468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>330</v>
       </c>
@@ -31536,7 +31540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="16">
         <v>331</v>
       </c>
@@ -31608,7 +31612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>332</v>
       </c>
@@ -31680,7 +31684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="16">
         <v>333</v>
       </c>
@@ -31752,7 +31756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>334</v>
       </c>
@@ -31824,7 +31828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>335</v>
       </c>
@@ -31896,7 +31900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="16">
         <v>336</v>
       </c>
@@ -31968,7 +31972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>337</v>
       </c>
@@ -32040,7 +32044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>338</v>
       </c>
@@ -32112,7 +32116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>339</v>
       </c>
@@ -32184,7 +32188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="16">
         <v>340</v>
       </c>
@@ -32256,7 +32260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="16">
         <v>341</v>
       </c>
@@ -32328,7 +32332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>342</v>
       </c>
@@ -32400,7 +32404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>343</v>
       </c>
@@ -32472,7 +32476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>344</v>
       </c>
@@ -32544,7 +32548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>345</v>
       </c>
@@ -32616,7 +32620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>346</v>
       </c>
@@ -32688,7 +32692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="16">
         <v>347</v>
       </c>
@@ -32760,7 +32764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>348</v>
       </c>
@@ -32832,7 +32836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>349</v>
       </c>
@@ -32904,7 +32908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="16">
         <v>350</v>
       </c>
@@ -32976,7 +32980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>351</v>
       </c>
@@ -33048,7 +33052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="16">
         <v>352</v>
       </c>
@@ -33120,7 +33124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="16">
         <v>353</v>
       </c>
@@ -33192,7 +33196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>354</v>
       </c>
@@ -33264,7 +33268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>355</v>
       </c>
@@ -33336,7 +33340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>356</v>
       </c>
@@ -33408,7 +33412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>357</v>
       </c>
@@ -33480,7 +33484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="16">
         <v>358</v>
       </c>
@@ -33552,7 +33556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="16">
         <v>359</v>
       </c>
@@ -33624,7 +33628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>360</v>
       </c>
@@ -33696,7 +33700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>361</v>
       </c>
@@ -33768,7 +33772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="16">
         <v>362</v>
       </c>
@@ -33840,7 +33844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="16">
         <v>363</v>
       </c>
@@ -33912,7 +33916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>364</v>
       </c>
@@ -33984,7 +33988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>365</v>
       </c>
@@ -34056,7 +34060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="16">
         <v>366</v>
       </c>
@@ -34128,7 +34132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>367</v>
       </c>
@@ -34200,7 +34204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="16">
         <v>368</v>
       </c>
@@ -34272,7 +34276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>369</v>
       </c>
@@ -34344,7 +34348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="16">
         <v>370</v>
       </c>
@@ -34416,7 +34420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="16">
         <v>371</v>
       </c>
@@ -34488,7 +34492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="16">
         <v>372</v>
       </c>
@@ -34560,7 +34564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>373</v>
       </c>
@@ -34632,7 +34636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>374</v>
       </c>
@@ -34704,7 +34708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="16">
         <v>375</v>
       </c>
@@ -34776,7 +34780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="16">
         <v>376</v>
       </c>
@@ -34848,7 +34852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>377</v>
       </c>
@@ -34920,7 +34924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>378</v>
       </c>
@@ -34992,7 +34996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>379</v>
       </c>
@@ -35064,7 +35068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="16">
         <v>380</v>
       </c>
@@ -35136,7 +35140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="16">
         <v>381</v>
       </c>
@@ -35208,7 +35212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>382</v>
       </c>
@@ -35280,7 +35284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>383</v>
       </c>
@@ -35352,7 +35356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="16">
         <v>384</v>
       </c>
@@ -35424,7 +35428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>385</v>
       </c>
@@ -35496,7 +35500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="16">
         <v>386</v>
       </c>
@@ -35568,7 +35572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>387</v>
       </c>
@@ -35640,7 +35644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>388</v>
       </c>
@@ -35712,7 +35716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>389</v>
       </c>
@@ -35784,7 +35788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="16">
         <v>390</v>
       </c>
@@ -35856,7 +35860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>391</v>
       </c>
@@ -35928,7 +35932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>392</v>
       </c>
@@ -36000,7 +36004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>393</v>
       </c>
@@ -36072,7 +36076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>394</v>
       </c>
@@ -36144,7 +36148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>395</v>
       </c>
@@ -36216,7 +36220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="16">
         <v>396</v>
       </c>
@@ -36288,7 +36292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="16">
         <v>397</v>
       </c>
@@ -36360,7 +36364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="16">
         <v>398</v>
       </c>
@@ -36432,7 +36436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>399</v>
       </c>
@@ -36504,7 +36508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="16">
         <v>400</v>
       </c>
@@ -36576,7 +36580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="16">
         <v>401</v>
       </c>
@@ -36648,7 +36652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="16">
         <v>402</v>
       </c>
@@ -36720,7 +36724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="16">
         <v>403</v>
       </c>
@@ -36792,7 +36796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="16">
         <v>404</v>
       </c>
@@ -36864,7 +36868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="16">
         <v>405</v>
       </c>
@@ -36936,7 +36940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="16">
         <v>406</v>
       </c>
@@ -37008,7 +37012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="16">
         <v>407</v>
       </c>
@@ -37080,7 +37084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="16">
         <v>408</v>
       </c>
@@ -37152,7 +37156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="16">
         <v>409</v>
       </c>
@@ -37224,7 +37228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="16">
         <v>410</v>
       </c>
@@ -37296,7 +37300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="16">
         <v>411</v>
       </c>
@@ -37368,7 +37372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="16">
         <v>412</v>
       </c>
@@ -37440,7 +37444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="16">
         <v>413</v>
       </c>
@@ -37512,7 +37516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="16">
         <v>414</v>
       </c>
@@ -37584,7 +37588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="16">
         <v>415</v>
       </c>
@@ -37656,7 +37660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="16">
         <v>416</v>
       </c>
@@ -37728,7 +37732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="16">
         <v>417</v>
       </c>
@@ -37800,7 +37804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="16">
         <v>418</v>
       </c>
@@ -37872,7 +37876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="16">
         <v>419</v>
       </c>
@@ -37944,7 +37948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="16">
         <v>420</v>
       </c>
@@ -38016,7 +38020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="16">
         <v>421</v>
       </c>
@@ -38088,7 +38092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="16">
         <v>422</v>
       </c>
@@ -38160,7 +38164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="16">
         <v>423</v>
       </c>
@@ -38232,7 +38236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="16">
         <v>424</v>
       </c>
@@ -38304,7 +38308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="16">
         <v>425</v>
       </c>
@@ -38376,7 +38380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="16">
         <v>426</v>
       </c>
@@ -38448,7 +38452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="16">
         <v>427</v>
       </c>
@@ -38520,7 +38524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="16">
         <v>428</v>
       </c>
@@ -38592,7 +38596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="16">
         <v>429</v>
       </c>
@@ -38664,7 +38668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="16">
         <v>430</v>
       </c>
@@ -38736,7 +38740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="16">
         <v>431</v>
       </c>
@@ -38808,7 +38812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="16">
         <v>432</v>
       </c>
@@ -38880,7 +38884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="16">
         <v>433</v>
       </c>
@@ -38952,7 +38956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="16">
         <v>434</v>
       </c>
@@ -39024,7 +39028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="16">
         <v>435</v>
       </c>
@@ -39096,7 +39100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="16">
         <v>436</v>
       </c>
@@ -39168,7 +39172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="16">
         <v>437</v>
       </c>
@@ -39240,7 +39244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="16">
         <v>438</v>
       </c>
@@ -39312,7 +39316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="16">
         <v>439</v>
       </c>
@@ -39384,7 +39388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="16">
         <v>440</v>
       </c>
@@ -39456,7 +39460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="16">
         <v>441</v>
       </c>
@@ -39528,7 +39532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="16">
         <v>442</v>
       </c>
@@ -39600,7 +39604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="16">
         <v>443</v>
       </c>
@@ -39672,7 +39676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="16">
         <v>444</v>
       </c>
@@ -39744,7 +39748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="16">
         <v>445</v>
       </c>
@@ -39816,7 +39820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="16">
         <v>446</v>
       </c>
@@ -39888,7 +39892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="16">
         <v>447</v>
       </c>
@@ -39960,7 +39964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="16">
         <v>448</v>
       </c>
@@ -40032,7 +40036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="16">
         <v>449</v>
       </c>
@@ -40104,7 +40108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="16">
         <v>450</v>
       </c>
@@ -40176,7 +40180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="16">
         <v>451</v>
       </c>
@@ -40248,7 +40252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="16">
         <v>452</v>
       </c>
@@ -40320,7 +40324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="16">
         <v>453</v>
       </c>
@@ -40392,7 +40396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="16">
         <v>454</v>
       </c>
@@ -40464,7 +40468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="16">
         <v>455</v>
       </c>
@@ -40536,7 +40540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="16">
         <v>456</v>
       </c>
@@ -40608,7 +40612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="16">
         <v>457</v>
       </c>
@@ -40680,7 +40684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="16">
         <v>458</v>
       </c>
@@ -40752,7 +40756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="16">
         <v>459</v>
       </c>
@@ -40824,7 +40828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="16">
         <v>460</v>
       </c>
@@ -40896,7 +40900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="16">
         <v>461</v>
       </c>
@@ -40968,7 +40972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="16">
         <v>462</v>
       </c>
@@ -41040,7 +41044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="16">
         <v>463</v>
       </c>
@@ -41112,7 +41116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="16">
         <v>464</v>
       </c>
@@ -41184,7 +41188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="16">
         <v>465</v>
       </c>
@@ -41256,7 +41260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="16">
         <v>466</v>
       </c>
@@ -41328,7 +41332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="16">
         <v>467</v>
       </c>
@@ -41400,7 +41404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="16">
         <v>468</v>
       </c>
@@ -41472,7 +41476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="469" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="16">
         <v>469</v>
       </c>
@@ -41544,7 +41548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="16">
         <v>470</v>
       </c>
@@ -41616,7 +41620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="16">
         <v>471</v>
       </c>
@@ -41688,7 +41692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="16">
         <v>472</v>
       </c>
@@ -41760,7 +41764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="16">
         <v>473</v>
       </c>
@@ -41832,7 +41836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="16">
         <v>474</v>
       </c>
@@ -41904,7 +41908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="16">
         <v>475</v>
       </c>
@@ -41976,7 +41980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="16">
         <v>476</v>
       </c>
@@ -42048,7 +42052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="16">
         <v>477</v>
       </c>
@@ -42120,7 +42124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="16">
         <v>478</v>
       </c>
@@ -42192,7 +42196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="16">
         <v>479</v>
       </c>
@@ -42264,7 +42268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="16">
         <v>480</v>
       </c>
@@ -42336,7 +42340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="16">
         <v>481</v>
       </c>
@@ -42408,7 +42412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="16">
         <v>482</v>
       </c>
@@ -42480,7 +42484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="16">
         <v>483</v>
       </c>
@@ -42552,7 +42556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="16">
         <v>484</v>
       </c>
@@ -42624,7 +42628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="16">
         <v>485</v>
       </c>
@@ -42696,7 +42700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="16">
         <v>486</v>
       </c>
@@ -42768,7 +42772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="16">
         <v>487</v>
       </c>
@@ -42840,7 +42844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="16">
         <v>488</v>
       </c>
@@ -42912,7 +42916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="16">
         <v>489</v>
       </c>
@@ -42984,7 +42988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="16">
         <v>490</v>
       </c>
@@ -43056,7 +43060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="491" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="16">
         <v>491</v>
       </c>
@@ -43128,7 +43132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="16">
         <v>492</v>
       </c>
@@ -43200,7 +43204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="493" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="16">
         <v>493</v>
       </c>
@@ -43272,7 +43276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="16">
         <v>494</v>
       </c>
@@ -43344,7 +43348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="16">
         <v>495</v>
       </c>
@@ -43416,7 +43420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="496" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="16">
         <v>496</v>
       </c>
@@ -43488,7 +43492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="16">
         <v>497</v>
       </c>
@@ -43560,7 +43564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="16">
         <v>498</v>
       </c>
@@ -43632,7 +43636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="16">
         <v>499</v>
       </c>
@@ -43704,7 +43708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="16">
         <v>500</v>
       </c>
@@ -43776,7 +43780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="501" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="16">
         <v>501</v>
       </c>
@@ -43848,7 +43852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="502" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="16">
         <v>502</v>
       </c>
@@ -43920,7 +43924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="503" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="16">
         <v>503</v>
       </c>
@@ -43992,7 +43996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="504" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="16">
         <v>504</v>
       </c>
@@ -44064,7 +44068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="505" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="16">
         <v>505</v>
       </c>
@@ -44136,7 +44140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="506" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="16">
         <v>506</v>
       </c>
@@ -44208,7 +44212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="507" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="16">
         <v>507</v>
       </c>
@@ -44280,7 +44284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="508" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="16">
         <v>508</v>
       </c>
@@ -44352,7 +44356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="509" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="16">
         <v>509</v>
       </c>
@@ -44424,7 +44428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="510" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="16">
         <v>510</v>
       </c>
@@ -44496,7 +44500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="511" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="16">
         <v>511</v>
       </c>
@@ -44568,7 +44572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="512" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="16">
         <v>512</v>
       </c>
@@ -44640,7 +44644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="513" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="16">
         <v>513</v>
       </c>
@@ -44712,7 +44716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="16">
         <v>514</v>
       </c>
@@ -44784,7 +44788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="515" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="16">
         <v>515</v>
       </c>
@@ -44856,7 +44860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="16">
         <v>516</v>
       </c>
@@ -44928,7 +44932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="16">
         <v>517</v>
       </c>
@@ -44999,7 +45003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="518" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="16">
         <v>518</v>
       </c>
@@ -45070,7 +45074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="519" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="16">
         <v>519</v>
       </c>
@@ -45141,7 +45145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="520" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="16">
         <v>520</v>
       </c>
@@ -45212,7 +45216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="521" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="16">
         <v>521</v>
       </c>
@@ -45283,7 +45287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="522" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="16">
         <v>522</v>
       </c>
@@ -45354,7 +45358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="523" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="16">
         <v>523</v>
       </c>
@@ -45425,7 +45429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="16">
         <v>524</v>
       </c>
@@ -45496,7 +45500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="525" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="16">
         <v>525</v>
       </c>
@@ -45567,7 +45571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="526" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="16">
         <v>526</v>
       </c>
@@ -45638,7 +45642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="16">
         <v>527</v>
       </c>
@@ -45709,7 +45713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="528" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="16">
         <v>528</v>
       </c>
@@ -45780,7 +45784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="529" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="16">
         <v>529</v>
       </c>
@@ -45851,7 +45855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="530" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="16">
         <v>530</v>
       </c>
@@ -45922,7 +45926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="531" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="16">
         <v>531</v>
       </c>
@@ -45993,7 +45997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="532" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="16">
         <v>532</v>
       </c>
@@ -46064,7 +46068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="533" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="16">
         <v>533</v>
       </c>
@@ -46135,7 +46139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="534" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="16">
         <v>534</v>
       </c>
@@ -46206,7 +46210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="535" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="16">
         <v>535</v>
       </c>
@@ -46277,7 +46281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="16">
         <v>536</v>
       </c>
@@ -46348,7 +46352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="16">
         <v>537</v>
       </c>
@@ -46419,7 +46423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="538" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="16">
         <v>538</v>
       </c>
@@ -46490,7 +46494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="539" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="16">
         <v>539</v>
       </c>
@@ -46561,7 +46565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="540" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="16">
         <v>540</v>
       </c>
@@ -46632,7 +46636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="541" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="16">
         <v>541</v>
       </c>
@@ -46703,7 +46707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="542" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="16">
         <v>542</v>
       </c>
@@ -46774,7 +46778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="543" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="16">
         <v>543</v>
       </c>
@@ -46845,7 +46849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="16">
         <v>544</v>
       </c>
@@ -46916,7 +46920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="545" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="16">
         <v>545</v>
       </c>
@@ -46987,7 +46991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="546" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="16">
         <v>546</v>
       </c>
@@ -47058,7 +47062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="547" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="16">
         <v>547</v>
       </c>
@@ -47129,7 +47133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="548" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="16">
         <v>548</v>
       </c>
@@ -47200,7 +47204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="549" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="16">
         <v>549</v>
       </c>
@@ -47271,7 +47275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="550" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="16">
         <v>550</v>
       </c>
@@ -47342,7 +47346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="551" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="16">
         <v>551</v>
       </c>
@@ -47413,7 +47417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="552" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="16">
         <v>552</v>
       </c>
@@ -47489,21 +47493,19 @@
   <conditionalFormatting sqref="B90:B516 B1:B4 B30:B35">
     <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B90:B516 B1:B4 B30:B62">
+    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B553:B1048576 B1:B516">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="4" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90:I116">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:I116">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B516 B1:B4 B30:B62">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B25D15-DE9B-4173-A183-2BC507ED9D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37CB5B5-F847-44D5-8D0F-87CEE55DAA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12639" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13376" uniqueCount="962">
   <si>
     <t>Edição</t>
   </si>
@@ -2845,6 +2845,120 @@
   </si>
   <si>
     <t>Ilha.de.Calor</t>
+  </si>
+  <si>
+    <t>Região.Norte</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>Belém</t>
+  </si>
+  <si>
+    <t>Rio.Branco</t>
+  </si>
+  <si>
+    <t>Porto.Velho</t>
+  </si>
+  <si>
+    <t>Macapá</t>
+  </si>
+  <si>
+    <t>Boa.Vista</t>
+  </si>
+  <si>
+    <t>Região.Nordeste</t>
+  </si>
+  <si>
+    <t>São.Luís</t>
+  </si>
+  <si>
+    <t>Teresina</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>João.Pessoa</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Maceió</t>
+  </si>
+  <si>
+    <t>Aracaju</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>Região.Centro-Oeste</t>
+  </si>
+  <si>
+    <t>Cuiabá</t>
+  </si>
+  <si>
+    <t>Goiana</t>
+  </si>
+  <si>
+    <t>Brasília</t>
+  </si>
+  <si>
+    <t>Região.Sul</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>Porto.Alegre</t>
+  </si>
+  <si>
+    <t>Região.Sudeste</t>
+  </si>
+  <si>
+    <t>Belo.Horizonte</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>é.dentro.de some País</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>Palmas</t>
+  </si>
+  <si>
+    <t>"Região Norte do Brasil"</t>
+  </si>
+  <si>
+    <t>"Região Nordeste do Brasil"</t>
+  </si>
+  <si>
+    <t>"Região Centro-Oeste do Brasil"</t>
+  </si>
+  <si>
+    <t>"Região Sul do Brasil"</t>
+  </si>
+  <si>
+    <t>"Região Sudeste do Brasil"</t>
   </si>
 </sst>
 </file>
@@ -3107,7 +3221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3273,6 +3387,12 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3430,8 +3550,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3900,7 +4020,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45750.437559375001</v>
+        <v>45776.67639479167</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3950,11 +4070,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BB721-29D9-4DD8-81B8-03CCB3CE3CCF}">
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3963,7 +4083,7 @@
     <col min="2" max="2" width="4.33203125" customWidth="1"/>
     <col min="3" max="3" width="5.21875" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" customWidth="1"/>
@@ -4167,11 +4287,11 @@
         <v>9</v>
       </c>
       <c r="L3" s="30" t="str">
-        <f t="shared" ref="L3:L47" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
+        <f t="shared" ref="L3:L49" si="0">_xlfn.CONCAT(SUBSTITUTE(C3,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M3" s="30" t="str">
-        <f t="shared" ref="M3:O18" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
+        <f t="shared" ref="M3:O20" si="1">_xlfn.CONCAT(SUBSTITUTE(D3,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N3" s="30" t="str">
@@ -4204,7 +4324,7 @@
         <v>239</v>
       </c>
       <c r="W3" s="37" t="str">
-        <f t="shared" ref="W3:W47" si="2">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" ref="W3:W49" si="2">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
         <v>Key.Fro.3</v>
       </c>
     </row>
@@ -4454,7 +4574,7 @@
         <v>268</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>12</v>
+        <v>953</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>9</v>
@@ -4468,31 +4588,30 @@
       <c r="J7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F5)</f>
-        <v>é.dentro.de some País</v>
+      <c r="K7" s="39" t="s">
+        <v>954</v>
       </c>
       <c r="L7" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L7" si="3">_xlfn.CONCAT(SUBSTITUTE(C7,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M7" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M7" si="4">_xlfn.CONCAT(SUBSTITUTE(D7,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N7" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N7" si="5">_xlfn.CONCAT(SUBSTITUTE(E7,"."," "))</f>
         <v>Política</v>
       </c>
       <c r="O7" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Estado</v>
+        <v>Região</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>12</v>
+        <v>955</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>12</v>
+        <v>955</v>
       </c>
       <c r="R7" s="31" t="s">
         <v>108</v>
@@ -4510,7 +4629,7 @@
         <v>239</v>
       </c>
       <c r="W7" s="37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W7" si="6">CONCATENATE("Key.",LEFT(C7,3),".",A7)</f>
         <v>Key.Fro.7</v>
       </c>
     </row>
@@ -4531,7 +4650,7 @@
         <v>268</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>9</v>
@@ -4545,8 +4664,9 @@
       <c r="J8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="39" t="s">
-        <v>9</v>
+      <c r="K8" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F5)</f>
+        <v>é.dentro.de some País</v>
       </c>
       <c r="L8" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4562,13 +4682,13 @@
       </c>
       <c r="O8" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>UF</v>
+        <v>Estado</v>
       </c>
       <c r="P8" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q8" s="30" t="s">
-        <v>319</v>
+        <v>12</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>12</v>
       </c>
       <c r="R8" s="31" t="s">
         <v>108</v>
@@ -4607,7 +4727,7 @@
         <v>268</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>9</v>
@@ -4621,9 +4741,8 @@
       <c r="J9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F6)</f>
-        <v>é.dentro.de some Nação</v>
+      <c r="K9" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="L9" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4639,13 +4758,13 @@
       </c>
       <c r="O9" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Província</v>
+        <v>UF</v>
       </c>
       <c r="P9" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>244</v>
+        <v>318</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="R9" s="31" t="s">
         <v>108</v>
@@ -4684,7 +4803,7 @@
         <v>268</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>9</v>
@@ -4699,8 +4818,8 @@
         <v>9</v>
       </c>
       <c r="K10" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F7)</f>
-        <v>é.dentro.de some Estado</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",F6)</f>
+        <v>é.dentro.de some Nação</v>
       </c>
       <c r="L10" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4716,13 +4835,13 @@
       </c>
       <c r="O10" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Cidade</v>
+        <v>Província</v>
       </c>
       <c r="P10" s="30" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="R10" s="31" t="s">
         <v>108</v>
@@ -4761,7 +4880,7 @@
         <v>268</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>246</v>
+        <v>952</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>9</v>
@@ -4776,30 +4895,30 @@
         <v>9</v>
       </c>
       <c r="K11" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F7)</f>
+        <f>_xlfn.CONCAT("é.dentro.de some ",F8)</f>
         <v>é.dentro.de some Estado</v>
       </c>
       <c r="L11" s="30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L11" si="7">_xlfn.CONCAT(SUBSTITUTE(C11,"1_",""))</f>
         <v>Fronteira</v>
       </c>
       <c r="M11" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M11" si="8">_xlfn.CONCAT(SUBSTITUTE(D11,"."," "))</f>
         <v>Geográfica</v>
       </c>
       <c r="N11" s="30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N11" si="9">_xlfn.CONCAT(SUBSTITUTE(E11,"."," "))</f>
         <v>Política</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v>Metrópoli</v>
+        <f t="shared" ref="O11" si="10">_xlfn.CONCAT(SUBSTITUTE(F11,"."," "))</f>
+        <v>Capital</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q11" s="30" t="s">
-        <v>246</v>
+        <v>952</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>952</v>
       </c>
       <c r="R11" s="31" t="s">
         <v>108</v>
@@ -4838,7 +4957,7 @@
         <v>268</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>9</v>
@@ -4854,7 +4973,7 @@
       </c>
       <c r="K12" s="39" t="str">
         <f>_xlfn.CONCAT("é.dentro.de some ",F8)</f>
-        <v>é.dentro.de some UF</v>
+        <v>é.dentro.de some Estado</v>
       </c>
       <c r="L12" s="30" t="str">
         <f t="shared" si="0"/>
@@ -4870,13 +4989,13 @@
       </c>
       <c r="O12" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Município</v>
+        <v>Cidade</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q12" s="30" t="s">
-        <v>248</v>
+        <v>106</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="R12" s="31" t="s">
         <v>108</v>
@@ -4906,16 +5025,16 @@
         <v>224</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>462</v>
+        <v>267</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>460</v>
+        <v>246</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>9</v>
@@ -4930,30 +5049,30 @@
         <v>9</v>
       </c>
       <c r="K13" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",E13)</f>
-        <v>é.dentro.de some Bioclimático</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",F8)</f>
+        <v>é.dentro.de some Estado</v>
       </c>
       <c r="L13" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Limite</v>
+        <v>Fronteira</v>
       </c>
       <c r="M13" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Térmico</v>
+        <v>Geográfica</v>
       </c>
       <c r="N13" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <v>Política</v>
       </c>
       <c r="O13" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Região Climática</v>
+        <v>Metrópoli</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>470</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="30" t="s">
-        <v>468</v>
+        <v>246</v>
       </c>
       <c r="R13" s="31" t="s">
         <v>108</v>
@@ -4972,7 +5091,7 @@
       </c>
       <c r="W13" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>Key.Lim.13</v>
+        <v>Key.Fro.13</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4983,16 +5102,16 @@
         <v>224</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>462</v>
+        <v>267</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>461</v>
+        <v>247</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>9</v>
@@ -5007,30 +5126,30 @@
         <v>9</v>
       </c>
       <c r="K14" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",E14)</f>
-        <v>é.dentro.de some Bioclimático</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",F9)</f>
+        <v>é.dentro.de some UF</v>
       </c>
       <c r="L14" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>Limite</v>
+        <v>Fronteira</v>
       </c>
       <c r="M14" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Térmico</v>
+        <v>Geográfica</v>
       </c>
       <c r="N14" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Bioclimático</v>
+        <v>Política</v>
       </c>
       <c r="O14" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Zona Climática</v>
+        <v>Município</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>469</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="30" t="s">
-        <v>469</v>
+        <v>248</v>
       </c>
       <c r="R14" s="31" t="s">
         <v>108</v>
@@ -5049,7 +5168,7 @@
       </c>
       <c r="W14" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>Key.Lim.14</v>
+        <v>Key.Fro.14</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5063,13 +5182,13 @@
         <v>169</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>923</v>
+        <v>170</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>9</v>
@@ -5085,7 +5204,7 @@
       </c>
       <c r="K15" s="39" t="str">
         <f>_xlfn.CONCAT("é.dentro.de some ",E15)</f>
-        <v>é.dentro.de some Ilha.de.Calor</v>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L15" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5093,21 +5212,21 @@
       </c>
       <c r="M15" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Urbano</v>
+        <v>Térmico</v>
       </c>
       <c r="N15" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Ilha de Calor</v>
+        <v>Bioclimático</v>
       </c>
       <c r="O15" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Zona Climática Local</v>
+        <v>Região Climática</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q15" s="30" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="R15" s="31" t="s">
         <v>108</v>
@@ -5140,13 +5259,13 @@
         <v>169</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>171</v>
+        <v>462</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>189</v>
+        <v>461</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>9</v>
@@ -5157,13 +5276,12 @@
       <c r="I16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="39" t="str">
-        <f>_xlfn.CONCAT("é.area.de.planejamento some ",E16)</f>
-        <v>é.area.de.planejamento some De.Zoneamento</v>
+      <c r="J16" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="K16" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F10)</f>
-        <v>é.dentro.de some Cidade</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",E16)</f>
+        <v>é.dentro.de some Bioclimático</v>
       </c>
       <c r="L16" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5171,21 +5289,21 @@
       </c>
       <c r="M16" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Urbano</v>
+        <v>Térmico</v>
       </c>
       <c r="N16" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>De Zoneamento</v>
+        <v>Bioclimático</v>
       </c>
       <c r="O16" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Area de Planejamento</v>
+        <v>Zona Climática</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>216</v>
+        <v>469</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>469</v>
       </c>
       <c r="R16" s="31" t="s">
         <v>108</v>
@@ -5221,10 +5339,10 @@
         <v>171</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>191</v>
+        <v>923</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>9</v>
@@ -5235,13 +5353,12 @@
       <c r="I17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="39" t="str">
-        <f>_xlfn.CONCAT("é.região.administrativa some ",E17)</f>
-        <v>é.região.administrativa some De.Zoneamento</v>
+      <c r="J17" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="K17" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F16)</f>
-        <v>é.dentro.de some Area.de.Planejamento</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",E17)</f>
+        <v>é.dentro.de some Ilha.de.Calor</v>
       </c>
       <c r="L17" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5253,17 +5370,17 @@
       </c>
       <c r="N17" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>De Zoneamento</v>
+        <v>Ilha de Calor</v>
       </c>
       <c r="O17" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Região Administrativa</v>
+        <v>Zona Climática Local</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>217</v>
+        <v>472</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>473</v>
       </c>
       <c r="R17" s="31" t="s">
         <v>108</v>
@@ -5302,7 +5419,7 @@
         <v>191</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>9</v>
@@ -5313,11 +5430,13 @@
       <c r="I18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>9</v>
+      <c r="J18" s="39" t="str">
+        <f>_xlfn.CONCAT("é.area.de.planejamento some ",E18)</f>
+        <v>é.area.de.planejamento some De.Zoneamento</v>
+      </c>
+      <c r="K18" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F12)</f>
+        <v>é.dentro.de some Cidade</v>
       </c>
       <c r="L18" s="30" t="str">
         <f t="shared" si="0"/>
@@ -5333,13 +5452,13 @@
       </c>
       <c r="O18" s="30" t="str">
         <f t="shared" si="1"/>
-        <v>Area Interesse Especial</v>
+        <v>Area de Planejamento</v>
       </c>
       <c r="P18" s="30" t="s">
-        <v>228</v>
+        <v>443</v>
       </c>
       <c r="Q18" s="36" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="R18" s="31" t="s">
         <v>108</v>
@@ -5378,7 +5497,7 @@
         <v>191</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>9</v>
@@ -5389,33 +5508,35 @@
       <c r="I19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>9</v>
+      <c r="J19" s="39" t="str">
+        <f>_xlfn.CONCAT("é.região.administrativa some ",E19)</f>
+        <v>é.região.administrativa some De.Zoneamento</v>
+      </c>
+      <c r="K19" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F18)</f>
+        <v>é.dentro.de some Area.de.Planejamento</v>
       </c>
       <c r="L19" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M19" s="30" t="str">
-        <f t="shared" ref="M19:O34" si="3">_xlfn.CONCAT(SUBSTITUTE(D19,"."," "))</f>
+        <f t="shared" si="1"/>
         <v>Urbano</v>
       </c>
       <c r="N19" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O19" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Area Restringida</v>
+        <f t="shared" si="1"/>
+        <v>Região Administrativa</v>
       </c>
       <c r="P19" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q19" s="30" t="s">
-        <v>231</v>
+        <v>444</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>217</v>
       </c>
       <c r="R19" s="31" t="s">
         <v>108</v>
@@ -5454,7 +5575,7 @@
         <v>191</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>561</v>
+        <v>227</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>9</v>
@@ -5469,29 +5590,29 @@
         <v>9</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>272</v>
+        <v>9</v>
       </c>
       <c r="L20" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M20" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Urbano</v>
       </c>
       <c r="N20" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O20" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Zona</v>
+        <f t="shared" si="1"/>
+        <v>Area Interesse Especial</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>571</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>572</v>
+        <v>229</v>
       </c>
       <c r="R20" s="31" t="s">
         <v>108</v>
@@ -5530,7 +5651,7 @@
         <v>191</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="G21" s="39" t="s">
         <v>9</v>
@@ -5545,29 +5666,29 @@
         <v>9</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>272</v>
+        <v>9</v>
       </c>
       <c r="L21" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M21" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="M21:O36" si="11">_xlfn.CONCAT(SUBSTITUTE(D21,"."," "))</f>
         <v>Urbano</v>
       </c>
       <c r="N21" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O21" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Bairro</v>
+        <f t="shared" si="11"/>
+        <v>Area Restringida</v>
       </c>
       <c r="P21" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="R21" s="31" t="s">
         <v>108</v>
@@ -5606,7 +5727,7 @@
         <v>191</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="G22" s="39" t="s">
         <v>9</v>
@@ -5628,22 +5749,22 @@
         <v>Limite</v>
       </c>
       <c r="M22" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Urbano</v>
       </c>
       <c r="N22" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O22" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>ZonaDeUso</v>
+        <f t="shared" si="11"/>
+        <v>Zona</v>
       </c>
       <c r="P22" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>574</v>
+        <v>571</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>572</v>
       </c>
       <c r="R22" s="31" t="s">
         <v>108</v>
@@ -5682,7 +5803,7 @@
         <v>191</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="G23" s="39" t="s">
         <v>9</v>
@@ -5704,16 +5825,16 @@
         <v>Limite</v>
       </c>
       <c r="M23" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Urbano</v>
       </c>
       <c r="N23" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Zoneamento</v>
       </c>
       <c r="O23" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Macrozona</v>
+        <f t="shared" si="11"/>
+        <v>Bairro</v>
       </c>
       <c r="P23" s="30" t="s">
         <v>234</v>
@@ -5755,10 +5876,10 @@
         <v>171</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>172</v>
+        <v>527</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>9</v>
@@ -5773,29 +5894,29 @@
         <v>9</v>
       </c>
       <c r="K24" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L24" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M24" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Urbano</v>
       </c>
       <c r="N24" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>De Fração</v>
+        <f t="shared" si="11"/>
+        <v>De Zoneamento</v>
       </c>
       <c r="O24" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Quadra</v>
+        <f t="shared" si="11"/>
+        <v>ZonaDeUso</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>236</v>
+        <v>573</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>574</v>
       </c>
       <c r="R24" s="31" t="s">
         <v>108</v>
@@ -5831,10 +5952,10 @@
         <v>171</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>173</v>
+        <v>511</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>9</v>
@@ -5849,29 +5970,29 @@
         <v>9</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>9</v>
+        <v>272</v>
       </c>
       <c r="L25" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M25" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Urbano</v>
       </c>
       <c r="N25" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>De Fração</v>
+        <f t="shared" si="11"/>
+        <v>De Zoneamento</v>
       </c>
       <c r="O25" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Gleba</v>
+        <f t="shared" si="11"/>
+        <v>Macrozona</v>
       </c>
       <c r="P25" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>438</v>
+        <v>234</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>233</v>
       </c>
       <c r="R25" s="31" t="s">
         <v>108</v>
@@ -5910,7 +6031,7 @@
         <v>225</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>9</v>
@@ -5925,29 +6046,29 @@
         <v>9</v>
       </c>
       <c r="K26" s="39" t="s">
-        <v>9</v>
+        <v>273</v>
       </c>
       <c r="L26" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M26" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Urbano</v>
       </c>
       <c r="N26" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Fração</v>
       </c>
       <c r="O26" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Loteamento</v>
+        <f t="shared" si="11"/>
+        <v>Quadra</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>441</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>442</v>
+        <v>236</v>
       </c>
       <c r="R26" s="31" t="s">
         <v>108</v>
@@ -5986,7 +6107,7 @@
         <v>225</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="G27" s="39" t="s">
         <v>9</v>
@@ -6008,22 +6129,22 @@
         <v>Limite</v>
       </c>
       <c r="M27" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Urbano</v>
       </c>
       <c r="N27" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Fração</v>
       </c>
       <c r="O27" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Parcela</v>
+        <f t="shared" si="11"/>
+        <v>Gleba</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>238</v>
+        <v>437</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>438</v>
       </c>
       <c r="R27" s="31" t="s">
         <v>108</v>
@@ -6062,7 +6183,7 @@
         <v>225</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" s="39" t="s">
         <v>9</v>
@@ -6084,22 +6205,22 @@
         <v>Limite</v>
       </c>
       <c r="M28" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Urbano</v>
       </c>
       <c r="N28" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Fração</v>
       </c>
       <c r="O28" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Lote</v>
+        <f t="shared" si="11"/>
+        <v>Loteamento</v>
       </c>
       <c r="P28" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="R28" s="31" t="s">
         <v>108</v>
@@ -6132,13 +6253,13 @@
         <v>169</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="G29" s="39" t="s">
         <v>9</v>
@@ -6152,31 +6273,30 @@
       <c r="J29" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F28)</f>
-        <v>é.dentro.de some Lote</v>
+      <c r="K29" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="L29" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M29" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Predial</v>
+        <f t="shared" si="11"/>
+        <v>Urbano</v>
       </c>
       <c r="N29" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>De Construção</v>
+        <f t="shared" si="11"/>
+        <v>De Fração</v>
       </c>
       <c r="O29" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Prédio</v>
+        <f t="shared" si="11"/>
+        <v>Parcela</v>
       </c>
       <c r="P29" s="30" t="s">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="R29" s="31" t="s">
         <v>108</v>
@@ -6209,13 +6329,13 @@
         <v>169</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G30" s="39" t="s">
         <v>9</v>
@@ -6229,31 +6349,30 @@
       <c r="J30" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F28)</f>
-        <v>é.dentro.de some Lote</v>
+      <c r="K30" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="L30" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M30" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Predial</v>
+        <f t="shared" si="11"/>
+        <v>Urbano</v>
       </c>
       <c r="N30" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>De Construção</v>
+        <f t="shared" si="11"/>
+        <v>De Fração</v>
       </c>
       <c r="O30" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Bloco</v>
+        <f t="shared" si="11"/>
+        <v>Lote</v>
       </c>
       <c r="P30" s="30" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="R30" s="31" t="s">
         <v>108</v>
@@ -6292,7 +6411,7 @@
         <v>192</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>9</v>
@@ -6307,7 +6426,7 @@
         <v>9</v>
       </c>
       <c r="K31" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F28)</f>
+        <f>_xlfn.CONCAT("é.dentro.de some ",F30)</f>
         <v>é.dentro.de some Lote</v>
       </c>
       <c r="L31" s="30" t="str">
@@ -6315,22 +6434,22 @@
         <v>Limite</v>
       </c>
       <c r="M31" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Predial</v>
       </c>
       <c r="N31" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Construção</v>
       </c>
       <c r="O31" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Edifício</v>
+        <f t="shared" si="11"/>
+        <v>Prédio</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="R31" s="31" t="s">
         <v>108</v>
@@ -6369,7 +6488,7 @@
         <v>192</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>9</v>
@@ -6384,30 +6503,30 @@
         <v>9</v>
       </c>
       <c r="K32" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F27)</f>
-        <v>é.dentro.de some Parcela</v>
+        <f>_xlfn.CONCAT("é.dentro.de some ",F30)</f>
+        <v>é.dentro.de some Lote</v>
       </c>
       <c r="L32" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M32" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Predial</v>
       </c>
       <c r="N32" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Construção</v>
       </c>
       <c r="O32" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Casa</v>
+        <f t="shared" si="11"/>
+        <v>Bloco</v>
       </c>
       <c r="P32" s="30" t="s">
-        <v>179</v>
+        <v>445</v>
       </c>
       <c r="Q32" s="36" t="s">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="R32" s="31" t="s">
         <v>108</v>
@@ -6446,7 +6565,7 @@
         <v>192</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>447</v>
+        <v>178</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>9</v>
@@ -6461,7 +6580,7 @@
         <v>9</v>
       </c>
       <c r="K33" s="39" t="str">
-        <f>_xlfn.CONCAT("é.dentro.de some ",F28)</f>
+        <f>_xlfn.CONCAT("é.dentro.de some ",F30)</f>
         <v>é.dentro.de some Lote</v>
       </c>
       <c r="L33" s="30" t="str">
@@ -6469,22 +6588,22 @@
         <v>Limite</v>
       </c>
       <c r="M33" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Predial</v>
       </c>
       <c r="N33" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Construção</v>
       </c>
       <c r="O33" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>HIS</v>
+        <f t="shared" si="11"/>
+        <v>Edifício</v>
       </c>
       <c r="P33" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>449</v>
+        <v>178</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="R33" s="31" t="s">
         <v>108</v>
@@ -6523,7 +6642,7 @@
         <v>192</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G34" s="39" t="s">
         <v>9</v>
@@ -6537,30 +6656,31 @@
       <c r="J34" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K34" s="39" t="s">
-        <v>270</v>
+      <c r="K34" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F29)</f>
+        <v>é.dentro.de some Parcela</v>
       </c>
       <c r="L34" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M34" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>Predial</v>
       </c>
       <c r="N34" s="30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>De Construção</v>
       </c>
       <c r="O34" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>Galpão</v>
+        <f t="shared" si="11"/>
+        <v>Casa</v>
       </c>
       <c r="P34" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="R34" s="31" t="s">
         <v>108</v>
@@ -6599,7 +6719,7 @@
         <v>192</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="G35" s="39" t="s">
         <v>9</v>
@@ -6613,30 +6733,31 @@
       <c r="J35" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="39" t="s">
-        <v>270</v>
+      <c r="K35" s="39" t="str">
+        <f>_xlfn.CONCAT("é.dentro.de some ",F30)</f>
+        <v>é.dentro.de some Lote</v>
       </c>
       <c r="L35" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M35" s="30" t="str">
-        <f t="shared" ref="M35:O47" si="4">_xlfn.CONCAT(SUBSTITUTE(D35,"."," "))</f>
+        <f t="shared" si="11"/>
         <v>Predial</v>
       </c>
       <c r="N35" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>De Construção</v>
       </c>
       <c r="O35" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Edícula</v>
+        <f t="shared" si="11"/>
+        <v>HIS</v>
       </c>
       <c r="P35" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q35" s="36" t="s">
-        <v>181</v>
+        <v>448</v>
+      </c>
+      <c r="Q35" s="30" t="s">
+        <v>449</v>
       </c>
       <c r="R35" s="31" t="s">
         <v>108</v>
@@ -6669,13 +6790,13 @@
         <v>169</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G36" s="39" t="s">
         <v>9</v>
@@ -6690,29 +6811,29 @@
         <v>9</v>
       </c>
       <c r="K36" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L36" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M36" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Funcional</v>
+        <f t="shared" si="11"/>
+        <v>Predial</v>
       </c>
       <c r="N36" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>De Organização</v>
+        <f t="shared" si="11"/>
+        <v>De Construção</v>
       </c>
       <c r="O36" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Unidade</v>
+        <f t="shared" si="11"/>
+        <v>Galpão</v>
       </c>
       <c r="P36" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R36" s="31" t="s">
         <v>108</v>
@@ -6745,13 +6866,13 @@
         <v>169</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="G37" s="39" t="s">
         <v>9</v>
@@ -6766,29 +6887,29 @@
         <v>9</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L37" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Limite</v>
       </c>
       <c r="M37" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Funcional</v>
+        <f t="shared" ref="M37:O49" si="12">_xlfn.CONCAT(SUBSTITUTE(D37,"."," "))</f>
+        <v>Predial</v>
       </c>
       <c r="N37" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>De Organização</v>
+        <f t="shared" si="12"/>
+        <v>De Construção</v>
       </c>
       <c r="O37" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>SetorUrbano</v>
+        <f t="shared" si="12"/>
+        <v>Edícula</v>
       </c>
       <c r="P37" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q37" s="36" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="R37" s="31" t="s">
         <v>108</v>
@@ -6827,7 +6948,7 @@
         <v>193</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G38" s="39" t="s">
         <v>9</v>
@@ -6849,22 +6970,22 @@
         <v>Limite</v>
       </c>
       <c r="M38" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Funcional</v>
       </c>
       <c r="N38" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>De Organização</v>
       </c>
       <c r="O38" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Divisão</v>
+        <f t="shared" si="12"/>
+        <v>Unidade</v>
       </c>
       <c r="P38" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R38" s="31" t="s">
         <v>108</v>
@@ -6903,7 +7024,7 @@
         <v>193</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="G39" s="39" t="s">
         <v>9</v>
@@ -6925,22 +7046,22 @@
         <v>Limite</v>
       </c>
       <c r="M39" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Funcional</v>
       </c>
       <c r="N39" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>De Organização</v>
       </c>
       <c r="O39" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Departamento</v>
+        <f t="shared" si="12"/>
+        <v>SetorUrbano</v>
       </c>
       <c r="P39" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q39" s="36" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="R39" s="31" t="s">
         <v>108</v>
@@ -6976,10 +7097,10 @@
         <v>182</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G40" s="39" t="s">
         <v>9</v>
@@ -7001,22 +7122,22 @@
         <v>Limite</v>
       </c>
       <c r="M40" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Funcional</v>
       </c>
       <c r="N40" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>De Distribuição</v>
+        <f t="shared" si="12"/>
+        <v>De Organização</v>
       </c>
       <c r="O40" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Ambiente</v>
+        <f t="shared" si="12"/>
+        <v>Divisão</v>
       </c>
       <c r="P40" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="R40" s="31" t="s">
         <v>108</v>
@@ -7052,10 +7173,10 @@
         <v>182</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G41" s="39" t="s">
         <v>9</v>
@@ -7077,22 +7198,22 @@
         <v>Limite</v>
       </c>
       <c r="M41" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Funcional</v>
       </c>
       <c r="N41" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>De Distribuição</v>
+        <f t="shared" si="12"/>
+        <v>De Organização</v>
       </c>
       <c r="O41" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Apartamento</v>
+        <f t="shared" si="12"/>
+        <v>Departamento</v>
       </c>
       <c r="P41" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R41" s="31" t="s">
         <v>108</v>
@@ -7131,7 +7252,7 @@
         <v>194</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G42" s="39" t="s">
         <v>9</v>
@@ -7153,22 +7274,22 @@
         <v>Limite</v>
       </c>
       <c r="M42" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Funcional</v>
       </c>
       <c r="N42" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>De Distribuição</v>
       </c>
       <c r="O42" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Núcleo de Circulação</v>
+        <f t="shared" si="12"/>
+        <v>Ambiente</v>
       </c>
       <c r="P42" s="30" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="Q42" s="36" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="R42" s="31" t="s">
         <v>108</v>
@@ -7198,16 +7319,16 @@
         <v>224</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="G43" s="39" t="s">
         <v>9</v>
@@ -7222,29 +7343,29 @@
         <v>9</v>
       </c>
       <c r="K43" s="39" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="L43" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>IBGE</v>
+        <v>Limite</v>
       </c>
       <c r="M43" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Índice</v>
+        <f t="shared" si="12"/>
+        <v>Funcional</v>
       </c>
       <c r="N43" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Densidade</v>
+        <f t="shared" si="12"/>
+        <v>De Distribuição</v>
       </c>
       <c r="O43" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Area Densa</v>
+        <f t="shared" si="12"/>
+        <v>Apartamento</v>
       </c>
       <c r="P43" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q43" s="30" t="s">
-        <v>260</v>
+        <v>188</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="R43" s="31" t="s">
         <v>108</v>
@@ -7263,7 +7384,7 @@
       </c>
       <c r="W43" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>Key.IBG.43</v>
+        <v>Key.Lim.43</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7274,16 +7395,16 @@
         <v>224</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="G44" s="39" t="s">
         <v>9</v>
@@ -7298,29 +7419,29 @@
         <v>9</v>
       </c>
       <c r="K44" s="39" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="L44" s="30" t="str">
         <f t="shared" si="0"/>
-        <v>IBGE</v>
+        <v>Limite</v>
       </c>
       <c r="M44" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Índice</v>
+        <f t="shared" si="12"/>
+        <v>Funcional</v>
       </c>
       <c r="N44" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Densidade</v>
+        <f t="shared" si="12"/>
+        <v>De Distribuição</v>
       </c>
       <c r="O44" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Area Pouco Densa</v>
+        <f t="shared" si="12"/>
+        <v>Núcleo de Circulação</v>
       </c>
       <c r="P44" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q44" s="30" t="s">
-        <v>260</v>
+        <v>214</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="R44" s="31" t="s">
         <v>108</v>
@@ -7339,7 +7460,7 @@
       </c>
       <c r="W44" s="37" t="str">
         <f t="shared" si="2"/>
-        <v>Key.IBG.44</v>
+        <v>Key.Lim.44</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -7356,10 +7477,10 @@
         <v>250</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G45" s="39" t="s">
         <v>9</v>
@@ -7381,22 +7502,22 @@
         <v>IBGE</v>
       </c>
       <c r="M45" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Índice</v>
       </c>
       <c r="N45" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Desenvolvimento</v>
+        <f t="shared" si="12"/>
+        <v>Densidade</v>
       </c>
       <c r="O45" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>IDU</v>
+        <f t="shared" si="12"/>
+        <v>Area Densa</v>
       </c>
       <c r="P45" s="30" t="s">
-        <v>435</v>
+        <v>259</v>
       </c>
       <c r="Q45" s="30" t="s">
-        <v>436</v>
+        <v>260</v>
       </c>
       <c r="R45" s="31" t="s">
         <v>108</v>
@@ -7432,10 +7553,10 @@
         <v>250</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G46" s="39" t="s">
         <v>9</v>
@@ -7457,22 +7578,22 @@
         <v>IBGE</v>
       </c>
       <c r="M46" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Índice</v>
       </c>
       <c r="N46" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>População</v>
+        <f t="shared" si="12"/>
+        <v>Densidade</v>
       </c>
       <c r="O46" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Taxa Urbanização</v>
+        <f t="shared" si="12"/>
+        <v>Area Pouco Densa</v>
       </c>
       <c r="P46" s="30" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q46" s="30" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R46" s="31" t="s">
         <v>108</v>
@@ -7508,10 +7629,10 @@
         <v>250</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>9</v>
@@ -7533,22 +7654,22 @@
         <v>IBGE</v>
       </c>
       <c r="M47" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>Índice</v>
       </c>
       <c r="N47" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Crescimento</v>
+        <f t="shared" si="12"/>
+        <v>Desenvolvimento</v>
       </c>
       <c r="O47" s="30" t="str">
-        <f t="shared" si="4"/>
-        <v>Expansão Urbana</v>
+        <f t="shared" si="12"/>
+        <v>IDU</v>
       </c>
       <c r="P47" s="30" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="Q47" s="30" t="s">
-        <v>265</v>
+        <v>436</v>
       </c>
       <c r="R47" s="31" t="s">
         <v>108</v>
@@ -7568,6 +7689,158 @@
       <c r="W47" s="37" t="str">
         <f t="shared" si="2"/>
         <v>Key.IBG.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="29">
+        <v>48</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>IBGE</v>
+      </c>
+      <c r="M48" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>Índice</v>
+      </c>
+      <c r="N48" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>População</v>
+      </c>
+      <c r="O48" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>Taxa Urbanização</v>
+      </c>
+      <c r="P48" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q48" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="R48" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="S48" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="T48" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="U48" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="V48" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="W48" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.IBG.48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="29">
+        <v>49</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>IBGE</v>
+      </c>
+      <c r="M49" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>Índice</v>
+      </c>
+      <c r="N49" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>Crescimento</v>
+      </c>
+      <c r="O49" s="30" t="str">
+        <f t="shared" si="12"/>
+        <v>Expansão Urbana</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="R49" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="S49" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="T49" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="U49" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="V49" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="W49" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.IBG.49</v>
       </c>
     </row>
   </sheetData>
@@ -7578,7 +7851,7 @@
     <cfRule type="duplicateValues" dxfId="11" priority="7"/>
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F47">
+  <conditionalFormatting sqref="F1:F49">
     <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
@@ -7590,6 +7863,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="K11" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7752,7 +8028,7 @@
     <sheetView zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7869,11 +8145,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D50BAA-DAEA-47D5-8FAA-A68A87918655}">
-  <dimension ref="A1:W552"/>
+  <dimension ref="A1:W584"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B554" sqref="B554"/>
+    <sheetView topLeftCell="I1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O581" sqref="O581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -47488,24 +47764,2298 @@
         <v>9</v>
       </c>
     </row>
+    <row r="553" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A553" s="16">
+        <v>553</v>
+      </c>
+      <c r="B553" s="57" t="s">
+        <v>925</v>
+      </c>
+      <c r="C553" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D553" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E553" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="F553" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G553" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="H553" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I553" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J553" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K553" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L553" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M553" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N553" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O553" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P553" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q553" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R553" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S553" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T553" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U553" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V553" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W553" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A554" s="16">
+        <v>554</v>
+      </c>
+      <c r="B554" s="57" t="s">
+        <v>926</v>
+      </c>
+      <c r="C554" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D554" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E554" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="F554" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G554" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="H554" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I554" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J554" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K554" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L554" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M554" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N554" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O554" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P554" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q554" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R554" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S554" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T554" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U554" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V554" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W554" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A555" s="16">
+        <v>555</v>
+      </c>
+      <c r="B555" s="57" t="s">
+        <v>927</v>
+      </c>
+      <c r="C555" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D555" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E555" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="F555" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G555" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="H555" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I555" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J555" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K555" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L555" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M555" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N555" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O555" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P555" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q555" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R555" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S555" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T555" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U555" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V555" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W555" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A556" s="16">
+        <v>556</v>
+      </c>
+      <c r="B556" s="57" t="s">
+        <v>928</v>
+      </c>
+      <c r="C556" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D556" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E556" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="F556" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G556" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="H556" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I556" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J556" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K556" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L556" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M556" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N556" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O556" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P556" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q556" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R556" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S556" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T556" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U556" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V556" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W556" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A557" s="16">
+        <v>557</v>
+      </c>
+      <c r="B557" s="57" t="s">
+        <v>956</v>
+      </c>
+      <c r="C557" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D557" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E557" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="F557" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G557" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="H557" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I557" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J557" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K557" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L557" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M557" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N557" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O557" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P557" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q557" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R557" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S557" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T557" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U557" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V557" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W557" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="16">
+        <v>558</v>
+      </c>
+      <c r="B558" s="57" t="s">
+        <v>929</v>
+      </c>
+      <c r="C558" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D558" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E558" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="F558" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G558" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="H558" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I558" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J558" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K558" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L558" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M558" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N558" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O558" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P558" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q558" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R558" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S558" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T558" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U558" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V558" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W558" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="16">
+        <v>559</v>
+      </c>
+      <c r="B559" s="57" t="s">
+        <v>930</v>
+      </c>
+      <c r="C559" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D559" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E559" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="F559" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G559" s="54" t="s">
+        <v>924</v>
+      </c>
+      <c r="H559" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I559" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J559" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K559" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L559" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M559" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N559" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O559" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P559" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q559" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R559" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S559" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T559" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U559" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V559" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W559" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A560" s="16">
+        <v>560</v>
+      </c>
+      <c r="B560" s="57" t="s">
+        <v>932</v>
+      </c>
+      <c r="C560" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D560" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E560" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F560" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G560" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H560" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I560" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J560" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K560" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L560" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M560" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N560" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O560" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P560" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q560" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R560" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S560" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T560" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U560" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V560" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W560" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A561" s="16">
+        <v>561</v>
+      </c>
+      <c r="B561" s="57" t="s">
+        <v>933</v>
+      </c>
+      <c r="C561" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D561" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E561" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F561" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G561" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H561" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I561" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J561" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K561" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L561" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M561" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N561" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O561" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P561" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q561" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R561" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S561" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T561" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U561" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V561" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W561" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A562" s="16">
+        <v>562</v>
+      </c>
+      <c r="B562" s="57" t="s">
+        <v>934</v>
+      </c>
+      <c r="C562" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D562" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E562" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="F562" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G562" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H562" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I562" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J562" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K562" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L562" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M562" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N562" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O562" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P562" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q562" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R562" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S562" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T562" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U562" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V562" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W562" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A563" s="16">
+        <v>563</v>
+      </c>
+      <c r="B563" s="57" t="s">
+        <v>935</v>
+      </c>
+      <c r="C563" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D563" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E563" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="F563" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G563" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H563" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I563" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J563" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K563" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L563" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M563" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N563" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O563" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P563" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q563" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R563" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S563" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T563" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U563" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V563" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W563" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A564" s="16">
+        <v>564</v>
+      </c>
+      <c r="B564" s="57" t="s">
+        <v>936</v>
+      </c>
+      <c r="C564" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D564" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E564" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="F564" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G564" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H564" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I564" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J564" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K564" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L564" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M564" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N564" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O564" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P564" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q564" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R564" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S564" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T564" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U564" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V564" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W564" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A565" s="16">
+        <v>565</v>
+      </c>
+      <c r="B565" s="57" t="s">
+        <v>937</v>
+      </c>
+      <c r="C565" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D565" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E565" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="F565" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G565" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H565" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I565" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J565" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K565" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L565" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M565" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N565" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O565" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P565" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q565" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R565" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S565" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T565" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U565" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V565" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W565" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A566" s="16">
+        <v>566</v>
+      </c>
+      <c r="B566" s="57" t="s">
+        <v>938</v>
+      </c>
+      <c r="C566" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D566" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E566" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="F566" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G566" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H566" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I566" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J566" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K566" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L566" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M566" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N566" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O566" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P566" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q566" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R566" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S566" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T566" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U566" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V566" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W566" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="567" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A567" s="16">
+        <v>567</v>
+      </c>
+      <c r="B567" s="57" t="s">
+        <v>939</v>
+      </c>
+      <c r="C567" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D567" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E567" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="F567" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G567" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H567" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I567" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J567" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K567" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L567" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M567" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N567" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O567" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P567" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q567" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R567" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S567" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T567" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U567" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V567" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W567" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="568" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A568" s="16">
+        <v>568</v>
+      </c>
+      <c r="B568" s="57" t="s">
+        <v>940</v>
+      </c>
+      <c r="C568" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D568" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E568" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="F568" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G568" s="54" t="s">
+        <v>931</v>
+      </c>
+      <c r="H568" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I568" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J568" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K568" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L568" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M568" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N568" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O568" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P568" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q568" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R568" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S568" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T568" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U568" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V568" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W568" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="16">
+        <v>569</v>
+      </c>
+      <c r="B569" s="57" t="s">
+        <v>942</v>
+      </c>
+      <c r="C569" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D569" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E569" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="F569" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G569" s="54" t="s">
+        <v>941</v>
+      </c>
+      <c r="H569" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I569" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J569" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K569" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L569" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M569" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N569" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O569" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P569" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q569" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R569" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S569" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T569" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U569" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V569" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W569" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="570" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="16">
+        <v>570</v>
+      </c>
+      <c r="B570" s="57" t="s">
+        <v>943</v>
+      </c>
+      <c r="C570" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D570" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E570" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="F570" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G570" s="54" t="s">
+        <v>941</v>
+      </c>
+      <c r="H570" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I570" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J570" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K570" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L570" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M570" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N570" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O570" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P570" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q570" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R570" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S570" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T570" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U570" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V570" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W570" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A571" s="16">
+        <v>571</v>
+      </c>
+      <c r="B571" s="57" t="s">
+        <v>855</v>
+      </c>
+      <c r="C571" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D571" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E571" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="F571" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G571" s="54" t="s">
+        <v>941</v>
+      </c>
+      <c r="H571" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I571" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J571" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K571" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L571" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M571" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N571" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O571" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P571" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q571" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R571" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S571" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T571" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U571" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V571" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W571" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A572" s="16">
+        <v>572</v>
+      </c>
+      <c r="B572" s="57" t="s">
+        <v>944</v>
+      </c>
+      <c r="C572" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D572" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E572" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="F572" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G572" s="54" t="s">
+        <v>941</v>
+      </c>
+      <c r="H572" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I572" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J572" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K572" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L572" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M572" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N572" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O572" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P572" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q572" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R572" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S572" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T572" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U572" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V572" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W572" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A573" s="16">
+        <v>573</v>
+      </c>
+      <c r="B573" s="57" t="s">
+        <v>946</v>
+      </c>
+      <c r="C573" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D573" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E573" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="F573" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G573" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="H573" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I573" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J573" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K573" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L573" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M573" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N573" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O573" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P573" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q573" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R573" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S573" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T573" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U573" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V573" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W573" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A574" s="16">
+        <v>574</v>
+      </c>
+      <c r="B574" s="57" t="s">
+        <v>947</v>
+      </c>
+      <c r="C574" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D574" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E574" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="F574" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G574" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="H574" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I574" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J574" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K574" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L574" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M574" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N574" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O574" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P574" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q574" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R574" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S574" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T574" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U574" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V574" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W574" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A575" s="16">
+        <v>575</v>
+      </c>
+      <c r="B575" s="57" t="s">
+        <v>948</v>
+      </c>
+      <c r="C575" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D575" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E575" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="F575" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G575" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="H575" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I575" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J575" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K575" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L575" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M575" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N575" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O575" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P575" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q575" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R575" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S575" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T575" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U575" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V575" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W575" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A576" s="16">
+        <v>576</v>
+      </c>
+      <c r="B576" s="57" t="s">
+        <v>950</v>
+      </c>
+      <c r="C576" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D576" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E576" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="F576" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G576" s="54" t="s">
+        <v>949</v>
+      </c>
+      <c r="H576" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I576" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J576" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K576" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L576" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M576" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N576" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O576" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P576" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q576" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R576" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S576" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T576" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U576" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V576" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W576" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A577" s="16">
+        <v>577</v>
+      </c>
+      <c r="B577" s="57" t="s">
+        <v>951</v>
+      </c>
+      <c r="C577" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D577" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E577" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="F577" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G577" s="54" t="s">
+        <v>949</v>
+      </c>
+      <c r="H577" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I577" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J577" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K577" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L577" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M577" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N577" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O577" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P577" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q577" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R577" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S577" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T577" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U577" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V577" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W577" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="578" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A578" s="16">
+        <v>578</v>
+      </c>
+      <c r="B578" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="C578" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D578" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E578" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="F578" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G578" s="54" t="s">
+        <v>949</v>
+      </c>
+      <c r="H578" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I578" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J578" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K578" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L578" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M578" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N578" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O578" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P578" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q578" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R578" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S578" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T578" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U578" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V578" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W578" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="579" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="16">
+        <v>579</v>
+      </c>
+      <c r="B579" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="C579" s="24" t="s">
+        <v>952</v>
+      </c>
+      <c r="D579" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E579" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F579" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="G579" s="54" t="s">
+        <v>949</v>
+      </c>
+      <c r="H579" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I579" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J579" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K579" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L579" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M579" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N579" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="O579" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="P579" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q579" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R579" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S579" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T579" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U579" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V579" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W579" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="16">
+        <v>580</v>
+      </c>
+      <c r="B580" s="57" t="s">
+        <v>924</v>
+      </c>
+      <c r="C580" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="D580" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E580" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F580" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G580" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H580" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I580" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J580" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K580" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L580" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M580" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N580" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="O580" s="58" t="s">
+        <v>957</v>
+      </c>
+      <c r="P580" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q580" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R580" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S580" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T580" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U580" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V580" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W580" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A581" s="16">
+        <v>581</v>
+      </c>
+      <c r="B581" s="57" t="s">
+        <v>931</v>
+      </c>
+      <c r="C581" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="D581" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E581" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F581" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G581" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H581" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I581" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J581" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K581" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L581" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M581" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N581" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="O581" s="58" t="s">
+        <v>958</v>
+      </c>
+      <c r="P581" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q581" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R581" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S581" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T581" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U581" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V581" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W581" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A582" s="16">
+        <v>582</v>
+      </c>
+      <c r="B582" s="57" t="s">
+        <v>941</v>
+      </c>
+      <c r="C582" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="D582" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E582" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F582" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G582" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H582" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I582" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J582" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K582" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L582" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M582" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N582" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="O582" s="58" t="s">
+        <v>959</v>
+      </c>
+      <c r="P582" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q582" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R582" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S582" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T582" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U582" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V582" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W582" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A583" s="16">
+        <v>583</v>
+      </c>
+      <c r="B583" s="57" t="s">
+        <v>945</v>
+      </c>
+      <c r="C583" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="D583" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E583" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F583" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G583" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H583" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I583" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J583" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K583" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L583" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M583" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N583" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="O583" s="58" t="s">
+        <v>960</v>
+      </c>
+      <c r="P583" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q583" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R583" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S583" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T583" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U583" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V583" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W583" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="1:23" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A584" s="16">
+        <v>584</v>
+      </c>
+      <c r="B584" s="57" t="s">
+        <v>949</v>
+      </c>
+      <c r="C584" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="D584" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="E584" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F584" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G584" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H584" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I584" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J584" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K584" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L584" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M584" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N584" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="O584" s="58" t="s">
+        <v>961</v>
+      </c>
+      <c r="P584" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q584" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R584" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="S584" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T584" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="U584" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V584" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W584" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B90:B516 B1:B4 B30:B35">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90:B516 B1:B4 B30:B62">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B553:B1048576 B1:B516">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  <conditionalFormatting sqref="B580:B584">
+    <cfRule type="duplicateValues" dxfId="4" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
+  <conditionalFormatting sqref="B585:B1048576 B1:B516">
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90:I116">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O580:O584">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/URBA/Ontologia_URBA_Rio.xlsx
+++ b/Versão5/URBA/Ontologia_URBA_Rio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\URBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176F4F7-52D5-44BB-8545-349AC9B1EC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0F0885-D80E-4B12-954E-3A16296AB211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="527" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B18" s="5">
         <f ca="1">NOW()</f>
-        <v>45798.695687268519</v>
+        <v>45803.588809837966</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -4741,7 +4741,7 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
